--- a/COs/output/results_test.xlsx
+++ b/COs/output/results_test.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M_Free\Desktop\td-parking\waivers\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M_Free\Desktop\td-parking\COs\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9AD51A-C9E4-4493-A3EF-453198A1E8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3409A2-CCDE-41F7-A6E8-0050E27D69CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results_test" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">results_test!$I$2:$M$2</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="55">
   <si>
     <t>filename</t>
   </si>
@@ -65,9 +66,6 @@
   </si>
   <si>
     <t>INPUT : FOR CO TEST</t>
-  </si>
-  <si>
-    <t>OUTPUT: SPACES TEST</t>
   </si>
   <si>
     <t>ACTUAL: PDFS TEST</t>
@@ -185,6 +183,12 @@
   </si>
   <si>
     <t>manual download</t>
+  </si>
+  <si>
+    <t>OUTPUT: SPACES TEST 2</t>
+  </si>
+  <si>
+    <t>OUTPUT: SPACES TEST 1</t>
   </si>
 </sst>
 </file>
@@ -334,7 +338,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -532,6 +536,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -693,16 +703,23 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1058,11 +1075,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q102"/>
+  <dimension ref="A1:Y102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q10" sqref="Q10"/>
+      <selection pane="bottomLeft" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,39 +1091,57 @@
     <col min="5" max="5" width="5.42578125" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" customWidth="1"/>
     <col min="7" max="7" width="21.5703125" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="4" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="130" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5703125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="9" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="7.5703125" style="4" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" style="4"/>
+    <col min="23" max="23" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="130" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="I1" s="1" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="I1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="X1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Y1" s="6"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1143,14 +1178,29 @@
       <c r="M2" t="s">
         <v>4</v>
       </c>
-      <c r="P2" t="s">
+      <c r="O2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="X2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1006370051</v>
       </c>
@@ -1181,138 +1231,199 @@
       <c r="K3">
         <v>6</v>
       </c>
-      <c r="P3">
+      <c r="O3" s="4">
+        <v>1012002</v>
+      </c>
+      <c r="P3" s="4">
+        <v>1012002</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>6</v>
+      </c>
+      <c r="X3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>1007600068</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>1013606</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>104626031</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>2010</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>207</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>207</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="2">
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="1">
         <v>1013606</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>1013606</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <v>207</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="1">
         <v>12</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="1">
         <v>2</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="N4" s="4"/>
+      <c r="O4" s="9">
+        <v>1013606</v>
+      </c>
+      <c r="P4" s="9">
+        <v>1013606</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>207</v>
+      </c>
+      <c r="R4" s="9">
+        <v>12</v>
+      </c>
+      <c r="S4" s="9">
+        <v>2</v>
+      </c>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X4" s="1">
+        <v>83</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>1008057502</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1015146</v>
+      </c>
+      <c r="C5" s="1">
+        <v>104731300</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2010</v>
+      </c>
+      <c r="E5" s="1">
+        <v>302</v>
+      </c>
+      <c r="F5" s="1">
+        <v>302</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="1">
+        <v>1015146</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1015146</v>
+      </c>
+      <c r="K5" s="1">
+        <v>302</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4">
+        <v>1015146</v>
+      </c>
+      <c r="P5" s="4">
+        <v>1015146</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>302</v>
+      </c>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="P4" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>1008057502</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1015146</v>
-      </c>
-      <c r="C5" s="2">
-        <v>104731300</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="X5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1012607502</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1034238</v>
+      </c>
+      <c r="C6" s="1">
+        <v>104579038</v>
+      </c>
+      <c r="D6" s="1">
         <v>2010</v>
       </c>
-      <c r="E5" s="2">
-        <v>302</v>
-      </c>
-      <c r="F5" s="2">
-        <v>302</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="2">
-        <v>1015146</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1015146</v>
-      </c>
-      <c r="K5" s="2">
-        <v>302</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="2" t="s">
+      <c r="E6" s="1">
+        <v>53</v>
+      </c>
+      <c r="F6" s="1">
+        <v>53</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="1">
+        <v>1034238</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1034238</v>
+      </c>
+      <c r="K6" s="1">
+        <v>53</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4">
+        <v>1034238</v>
+      </c>
+      <c r="P6" s="4">
+        <v>1034238</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>53</v>
+      </c>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>1012607502</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1034238</v>
-      </c>
-      <c r="C6" s="2">
-        <v>104579038</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2010</v>
-      </c>
-      <c r="E6" s="2">
-        <v>53</v>
-      </c>
-      <c r="F6" s="2">
-        <v>53</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="2">
-        <v>1034238</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1034238</v>
-      </c>
-      <c r="K6" s="2">
-        <v>53</v>
-      </c>
-      <c r="O6" s="3"/>
-      <c r="P6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1013227502</v>
       </c>
@@ -1343,11 +1454,20 @@
       <c r="K7">
         <v>76</v>
       </c>
-      <c r="P7">
+      <c r="O7" s="4">
+        <v>1038040</v>
+      </c>
+      <c r="P7" s="4">
+        <v>1038040</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>76</v>
+      </c>
+      <c r="X7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1013697502</v>
       </c>
@@ -1378,11 +1498,20 @@
       <c r="K8">
         <v>6</v>
       </c>
-      <c r="P8">
+      <c r="O8" s="4">
+        <v>1040540</v>
+      </c>
+      <c r="P8" s="4">
+        <v>1040540</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>6</v>
+      </c>
+      <c r="X8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1015297501</v>
       </c>
@@ -1413,38 +1542,65 @@
       <c r="K9">
         <v>3</v>
       </c>
-      <c r="P9">
+      <c r="O9" s="4">
+        <v>1048713</v>
+      </c>
+      <c r="P9" s="4">
+        <v>1048713</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>3</v>
+      </c>
+      <c r="X9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+    <row r="10" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>1016077503</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>1051489</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>104631150</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>2012</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>229</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>229</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="6"/>
-      <c r="Q10" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="O10" s="4">
+        <v>1051489</v>
+      </c>
+      <c r="P10" s="4">
+        <v>1051489</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>229</v>
+      </c>
+      <c r="R10" s="9">
+        <v>67</v>
+      </c>
+      <c r="S10" s="4">
+        <v>41</v>
+      </c>
+      <c r="W10" s="5"/>
+      <c r="Y10" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1016447502</v>
       </c>
@@ -1466,6 +1622,9 @@
       <c r="G11" t="s">
         <v>12</v>
       </c>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
       <c r="I11">
         <v>1052311</v>
       </c>
@@ -1475,11 +1634,23 @@
       <c r="K11">
         <v>19</v>
       </c>
-      <c r="P11">
+      <c r="O11" s="4">
+        <v>1052311</v>
+      </c>
+      <c r="P11" s="4">
+        <v>1052311</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>19</v>
+      </c>
+      <c r="U11" s="4">
+        <v>1</v>
+      </c>
+      <c r="X11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1016600024</v>
       </c>
@@ -1501,6 +1672,9 @@
       <c r="G12" t="s">
         <v>12</v>
       </c>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
       <c r="I12">
         <v>1052468</v>
       </c>
@@ -1510,11 +1684,23 @@
       <c r="K12">
         <v>16</v>
       </c>
-      <c r="P12">
+      <c r="O12" s="4">
+        <v>1052468</v>
+      </c>
+      <c r="P12" s="4">
+        <v>1052468</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>16</v>
+      </c>
+      <c r="U12" s="4">
+        <v>1</v>
+      </c>
+      <c r="X12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1016837502</v>
       </c>
@@ -1536,6 +1722,9 @@
       <c r="G13" t="s">
         <v>12</v>
       </c>
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
       <c r="I13">
         <v>1052875</v>
       </c>
@@ -1545,11 +1734,23 @@
       <c r="K13">
         <v>21</v>
       </c>
-      <c r="P13">
+      <c r="O13" s="4">
+        <v>1052875</v>
+      </c>
+      <c r="P13" s="4">
+        <v>1052875</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>21</v>
+      </c>
+      <c r="U13" s="4">
+        <v>1</v>
+      </c>
+      <c r="X13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1017860045</v>
       </c>
@@ -1571,6 +1772,9 @@
       <c r="G14" t="s">
         <v>12</v>
       </c>
+      <c r="H14" s="4">
+        <v>1</v>
+      </c>
       <c r="I14">
         <v>1054620</v>
       </c>
@@ -1586,14 +1790,29 @@
       <c r="M14">
         <v>0</v>
       </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O14" s="4">
+        <v>1054620</v>
+      </c>
+      <c r="P14" s="4">
+        <v>1054620</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>4</v>
+      </c>
+      <c r="R14" s="4">
+        <v>1</v>
+      </c>
+      <c r="S14" s="4">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1019130038</v>
       </c>
@@ -1615,6 +1834,9 @@
       <c r="G15" t="s">
         <v>12</v>
       </c>
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
       <c r="I15">
         <v>1057953</v>
       </c>
@@ -1624,11 +1846,23 @@
       <c r="K15">
         <v>13</v>
       </c>
-      <c r="P15">
+      <c r="O15" s="4">
+        <v>1057953</v>
+      </c>
+      <c r="P15" s="4">
+        <v>1057953</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>13</v>
+      </c>
+      <c r="U15" s="4">
+        <v>1</v>
+      </c>
+      <c r="X15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1019160154</v>
       </c>
@@ -1650,6 +1884,9 @@
       <c r="G16" t="s">
         <v>12</v>
       </c>
+      <c r="H16" s="4">
+        <v>1</v>
+      </c>
       <c r="I16">
         <v>1058136</v>
       </c>
@@ -1659,11 +1896,23 @@
       <c r="K16">
         <v>2</v>
       </c>
-      <c r="P16">
+      <c r="O16" s="4">
+        <v>1058136</v>
+      </c>
+      <c r="P16" s="4">
+        <v>1058136</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>2</v>
+      </c>
+      <c r="U16" s="4">
+        <v>1</v>
+      </c>
+      <c r="X16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1019530030</v>
       </c>
@@ -1685,6 +1934,9 @@
       <c r="G17" t="s">
         <v>12</v>
       </c>
+      <c r="H17" s="4">
+        <v>1</v>
+      </c>
       <c r="I17">
         <v>1059340</v>
       </c>
@@ -1694,11 +1946,23 @@
       <c r="K17">
         <v>8</v>
       </c>
-      <c r="P17">
+      <c r="O17" s="4">
+        <v>1059340</v>
+      </c>
+      <c r="P17" s="4">
+        <v>1059340</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>8</v>
+      </c>
+      <c r="U17" s="4">
+        <v>1</v>
+      </c>
+      <c r="X17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1020117501</v>
       </c>
@@ -1720,6 +1984,9 @@
       <c r="G18" t="s">
         <v>12</v>
       </c>
+      <c r="H18" s="4">
+        <v>1</v>
+      </c>
       <c r="I18">
         <v>1060104</v>
       </c>
@@ -1729,11 +1996,23 @@
       <c r="K18">
         <v>10</v>
       </c>
-      <c r="P18">
+      <c r="O18" s="4">
+        <v>1060104</v>
+      </c>
+      <c r="P18" s="4">
+        <v>1060104</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>10</v>
+      </c>
+      <c r="U18" s="4">
+        <v>1</v>
+      </c>
+      <c r="X18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1020650022</v>
       </c>
@@ -1755,6 +2034,9 @@
       <c r="G19" t="s">
         <v>12</v>
       </c>
+      <c r="H19" s="4">
+        <v>1</v>
+      </c>
       <c r="I19">
         <v>1061578</v>
       </c>
@@ -1764,50 +2046,82 @@
       <c r="K19">
         <v>16</v>
       </c>
-      <c r="P19">
+      <c r="O19" s="4">
+        <v>1061578</v>
+      </c>
+      <c r="P19" s="4">
+        <v>1061578</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>16</v>
+      </c>
+      <c r="U19" s="4">
+        <v>1</v>
+      </c>
+      <c r="X19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    <row r="20" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>1021550026</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>1063701</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>104551414</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>2015</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>16</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>36</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="2">
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
         <v>1063701</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="1">
         <v>1063701</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="1">
         <v>36</v>
       </c>
-      <c r="O20" s="3"/>
-      <c r="P20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q20" s="2" t="s">
+      <c r="N20" s="4"/>
+      <c r="O20" s="4">
+        <v>1063701</v>
+      </c>
+      <c r="P20" s="4">
+        <v>1063701</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>36</v>
+      </c>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4">
+        <v>1</v>
+      </c>
+      <c r="V20" s="4"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Y20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1016617503</v>
       </c>
@@ -1829,6 +2143,9 @@
       <c r="G21" t="s">
         <v>12</v>
       </c>
+      <c r="H21" s="4">
+        <v>1</v>
+      </c>
       <c r="I21">
         <v>1076370</v>
       </c>
@@ -1838,11 +2155,23 @@
       <c r="K21">
         <v>12</v>
       </c>
-      <c r="P21">
+      <c r="O21" s="4">
+        <v>1076370</v>
+      </c>
+      <c r="P21" s="4">
+        <v>1076370</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>12</v>
+      </c>
+      <c r="U21" s="4">
+        <v>1</v>
+      </c>
+      <c r="X21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1015447502</v>
       </c>
@@ -1873,11 +2202,20 @@
       <c r="K22">
         <v>7</v>
       </c>
-      <c r="P22">
+      <c r="O22" s="4">
+        <v>1077060</v>
+      </c>
+      <c r="P22" s="4">
+        <v>1077060</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>7</v>
+      </c>
+      <c r="X22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1016817503</v>
       </c>
@@ -1899,6 +2237,9 @@
       <c r="G23" t="s">
         <v>12</v>
       </c>
+      <c r="H23" s="4">
+        <v>1</v>
+      </c>
       <c r="I23">
         <v>1081362</v>
       </c>
@@ -1908,11 +2249,23 @@
       <c r="K23">
         <v>35</v>
       </c>
-      <c r="P23">
+      <c r="O23" s="4">
+        <v>1081362</v>
+      </c>
+      <c r="P23" s="4">
+        <v>1081362</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>35</v>
+      </c>
+      <c r="U23" s="4">
+        <v>1</v>
+      </c>
+      <c r="X23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1005090019</v>
       </c>
@@ -1943,11 +2296,20 @@
       <c r="K24">
         <v>9</v>
       </c>
-      <c r="P24">
+      <c r="O24" s="4">
+        <v>1082676</v>
+      </c>
+      <c r="P24" s="4">
+        <v>1082676</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>9</v>
+      </c>
+      <c r="X24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1002847504</v>
       </c>
@@ -1978,11 +2340,20 @@
       <c r="K25">
         <v>20</v>
       </c>
-      <c r="P25">
+      <c r="O25" s="4">
+        <v>1083411</v>
+      </c>
+      <c r="P25" s="4">
+        <v>1083411</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>20</v>
+      </c>
+      <c r="X25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1017360001</v>
       </c>
@@ -2004,49 +2375,72 @@
       <c r="G26" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="H26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>1001060002</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>1086078</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <v>103935191</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="1">
         <v>2010</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="1">
         <v>3</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="1">
         <v>3</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I27" s="2">
+      <c r="G27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="1">
         <v>1086078</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J27" s="1">
         <v>1086078</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K27" s="1">
         <v>3</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="P27" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N27" s="4"/>
+      <c r="O27" s="4">
+        <v>1086078</v>
+      </c>
+      <c r="P27" s="4">
+        <v>1086078</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>3</v>
+      </c>
+      <c r="R27" s="4">
+        <v>1</v>
+      </c>
+      <c r="S27" s="4">
+        <v>26</v>
+      </c>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="X27" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1016390027</v>
       </c>
@@ -2068,6 +2462,9 @@
       <c r="G28" t="s">
         <v>12</v>
       </c>
+      <c r="H28" s="4">
+        <v>1</v>
+      </c>
       <c r="I28">
         <v>1087368</v>
       </c>
@@ -2083,52 +2480,78 @@
       <c r="M28">
         <v>16</v>
       </c>
-      <c r="P28">
+      <c r="O28" s="4">
+        <v>1087368</v>
+      </c>
+      <c r="P28" s="4">
+        <v>1087368</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>30</v>
+      </c>
+      <c r="R28" s="4">
         <v>4</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="S28" s="4">
+        <v>18</v>
+      </c>
+      <c r="X28">
+        <v>4</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>1001007502</v>
+      </c>
+      <c r="B29" s="4">
+        <v>1087485</v>
+      </c>
+      <c r="C29" s="4">
+        <v>104293774</v>
+      </c>
+      <c r="D29" s="4">
+        <v>2011</v>
+      </c>
+      <c r="E29" s="4">
+        <v>898</v>
+      </c>
+      <c r="F29" s="4">
+        <v>898</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="4">
+        <v>1087485</v>
+      </c>
+      <c r="J29" s="4">
+        <v>1087485</v>
+      </c>
+      <c r="K29" s="4">
+        <v>898</v>
+      </c>
+      <c r="O29" s="9">
+        <v>1087485</v>
+      </c>
+      <c r="P29" s="9">
+        <v>1087485</v>
+      </c>
+      <c r="Q29" s="9">
+        <v>898</v>
+      </c>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="X29" s="4">
+        <v>100</v>
+      </c>
+      <c r="Y29" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>1001007502</v>
-      </c>
-      <c r="B29" s="5">
-        <v>1087485</v>
-      </c>
-      <c r="C29" s="5">
-        <v>104293774</v>
-      </c>
-      <c r="D29" s="5">
-        <v>2011</v>
-      </c>
-      <c r="E29" s="5">
-        <v>898</v>
-      </c>
-      <c r="F29" s="5">
-        <v>898</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I29" s="5">
-        <v>1087485</v>
-      </c>
-      <c r="J29" s="5">
-        <v>1087485</v>
-      </c>
-      <c r="K29" s="5">
-        <v>898</v>
-      </c>
-      <c r="P29" s="5">
-        <v>100</v>
-      </c>
-      <c r="Q29" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1004207501</v>
       </c>
@@ -2165,11 +2588,26 @@
       <c r="M30">
         <v>7</v>
       </c>
-      <c r="P30">
+      <c r="O30" s="4">
+        <v>1087549</v>
+      </c>
+      <c r="P30" s="4">
+        <v>1087549</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>54</v>
+      </c>
+      <c r="R30" s="4">
         <v>34</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S30" s="4">
+        <v>7</v>
+      </c>
+      <c r="X30">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1004380018</v>
       </c>
@@ -2200,11 +2638,20 @@
       <c r="K31">
         <v>11</v>
       </c>
-      <c r="P31">
+      <c r="O31" s="4">
+        <v>1087563</v>
+      </c>
+      <c r="P31" s="4">
+        <v>1087563</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>11</v>
+      </c>
+      <c r="X31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1006940039</v>
       </c>
@@ -2235,14 +2682,23 @@
       <c r="K32">
         <v>111</v>
       </c>
-      <c r="P32">
+      <c r="O32" s="4">
+        <v>1087591</v>
+      </c>
+      <c r="P32" s="4">
+        <v>1087591</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>111</v>
+      </c>
+      <c r="X32">
         <v>0</v>
       </c>
-      <c r="Q32" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Y32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1015540023</v>
       </c>
@@ -2273,11 +2729,20 @@
       <c r="K33">
         <v>105</v>
       </c>
-      <c r="P33">
+      <c r="O33" s="4">
+        <v>1087665</v>
+      </c>
+      <c r="P33" s="4">
+        <v>1087665</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>105</v>
+      </c>
+      <c r="X33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1019537502</v>
       </c>
@@ -2299,6 +2764,9 @@
       <c r="G34" t="s">
         <v>12</v>
       </c>
+      <c r="H34" s="4">
+        <v>1</v>
+      </c>
       <c r="I34">
         <v>1087740</v>
       </c>
@@ -2308,11 +2776,23 @@
       <c r="K34">
         <v>11</v>
       </c>
-      <c r="P34">
+      <c r="O34" s="4">
+        <v>1087740</v>
+      </c>
+      <c r="P34" s="4">
+        <v>1087740</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>11</v>
+      </c>
+      <c r="U34" s="4">
+        <v>1</v>
+      </c>
+      <c r="X34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1019320033</v>
       </c>
@@ -2334,6 +2814,9 @@
       <c r="G35" t="s">
         <v>12</v>
       </c>
+      <c r="H35" s="4">
+        <v>1</v>
+      </c>
       <c r="I35">
         <v>1087804</v>
       </c>
@@ -2349,14 +2832,29 @@
       <c r="M35">
         <v>0</v>
       </c>
-      <c r="P35">
+      <c r="O35" s="4">
+        <v>1087804</v>
+      </c>
+      <c r="P35" s="4">
+        <v>1087804</v>
+      </c>
+      <c r="Q35" s="4">
+        <v>46</v>
+      </c>
+      <c r="R35" s="4">
         <v>15</v>
       </c>
-      <c r="Q35" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S35" s="4">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>15</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1010637502</v>
       </c>
@@ -2393,14 +2891,29 @@
       <c r="M36">
         <v>0</v>
       </c>
-      <c r="P36">
+      <c r="O36" s="4">
+        <v>1087823</v>
+      </c>
+      <c r="P36" s="4">
+        <v>1087823</v>
+      </c>
+      <c r="Q36" s="4">
+        <v>83</v>
+      </c>
+      <c r="R36" s="4">
         <v>30</v>
       </c>
-      <c r="Q36" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S36" s="4">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>30</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1020077502</v>
       </c>
@@ -2422,6 +2935,9 @@
       <c r="G37" t="s">
         <v>12</v>
       </c>
+      <c r="H37" s="4">
+        <v>1</v>
+      </c>
       <c r="I37">
         <v>1087838</v>
       </c>
@@ -2431,11 +2947,23 @@
       <c r="K37">
         <v>17</v>
       </c>
-      <c r="P37">
+      <c r="O37" s="4">
+        <v>1087838</v>
+      </c>
+      <c r="P37" s="4">
+        <v>1087838</v>
+      </c>
+      <c r="Q37" s="4">
+        <v>17</v>
+      </c>
+      <c r="U37" s="4">
+        <v>1</v>
+      </c>
+      <c r="X37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1009397501</v>
       </c>
@@ -2466,14 +2994,23 @@
       <c r="K38">
         <v>130</v>
       </c>
-      <c r="P38">
+      <c r="O38" s="4">
+        <v>1087841</v>
+      </c>
+      <c r="P38" s="4">
+        <v>1087841</v>
+      </c>
+      <c r="Q38" s="4">
+        <v>130</v>
+      </c>
+      <c r="X38">
         <v>0</v>
       </c>
-      <c r="Q38" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Y38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1004710015</v>
       </c>
@@ -2504,11 +3041,20 @@
       <c r="K39">
         <v>5</v>
       </c>
-      <c r="P39">
+      <c r="O39" s="4">
+        <v>1087877</v>
+      </c>
+      <c r="P39" s="4">
+        <v>1087877</v>
+      </c>
+      <c r="Q39" s="4">
+        <v>5</v>
+      </c>
+      <c r="X39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1003847505</v>
       </c>
@@ -2539,11 +3085,20 @@
       <c r="K40">
         <v>5</v>
       </c>
-      <c r="P40">
+      <c r="O40" s="4">
+        <v>1087923</v>
+      </c>
+      <c r="P40" s="4">
+        <v>1087923</v>
+      </c>
+      <c r="Q40" s="4">
+        <v>5</v>
+      </c>
+      <c r="X40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1018307502</v>
       </c>
@@ -2565,6 +3120,9 @@
       <c r="G41" t="s">
         <v>12</v>
       </c>
+      <c r="H41" s="4">
+        <v>1</v>
+      </c>
       <c r="I41">
         <v>1087928</v>
       </c>
@@ -2580,53 +3138,84 @@
       <c r="M41">
         <v>16</v>
       </c>
-      <c r="P41">
+      <c r="O41" s="4">
+        <v>1087928</v>
+      </c>
+      <c r="P41" s="4">
+        <v>1087928</v>
+      </c>
+      <c r="Q41" s="4">
+        <v>38</v>
+      </c>
+      <c r="R41" s="4">
         <v>13</v>
       </c>
-      <c r="Q41" t="s">
+      <c r="S41" s="4">
+        <v>18</v>
+      </c>
+      <c r="X41">
+        <v>13</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>1001497502</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1087951</v>
+      </c>
+      <c r="C42" s="1">
+        <v>104409766</v>
+      </c>
+      <c r="D42" s="1">
+        <v>2011</v>
+      </c>
+      <c r="E42" s="1">
+        <v>84</v>
+      </c>
+      <c r="F42" s="1">
+        <v>84</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="4"/>
+      <c r="I42" s="1">
+        <v>1087951</v>
+      </c>
+      <c r="J42" s="1">
+        <v>1087951</v>
+      </c>
+      <c r="K42" s="1">
+        <v>84</v>
+      </c>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4">
+        <v>1087951</v>
+      </c>
+      <c r="P42" s="4">
+        <v>1087951</v>
+      </c>
+      <c r="Q42" s="4">
+        <v>84</v>
+      </c>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y42" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>1001497502</v>
-      </c>
-      <c r="B42" s="2">
-        <v>1087951</v>
-      </c>
-      <c r="C42" s="2">
-        <v>104409766</v>
-      </c>
-      <c r="D42" s="2">
-        <v>2011</v>
-      </c>
-      <c r="E42" s="2">
-        <v>84</v>
-      </c>
-      <c r="F42" s="2">
-        <v>84</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I42" s="2">
-        <v>1087951</v>
-      </c>
-      <c r="J42" s="2">
-        <v>1087951</v>
-      </c>
-      <c r="K42" s="2">
-        <v>84</v>
-      </c>
-      <c r="O42" s="3"/>
-      <c r="P42" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q42" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1018250043</v>
       </c>
@@ -2648,6 +3237,9 @@
       <c r="G43" t="s">
         <v>12</v>
       </c>
+      <c r="H43" s="4">
+        <v>1</v>
+      </c>
       <c r="I43">
         <v>1087969</v>
       </c>
@@ -2657,43 +3249,65 @@
       <c r="K43">
         <v>21</v>
       </c>
-      <c r="P43">
+      <c r="O43" s="4">
+        <v>1087969</v>
+      </c>
+      <c r="P43" s="4">
+        <v>1087860</v>
+      </c>
+      <c r="Q43" s="4">
+        <v>21</v>
+      </c>
+      <c r="U43" s="4">
+        <v>1</v>
+      </c>
+      <c r="X43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+    <row r="44" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>1006417503</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="1">
         <v>1087979</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="1">
         <v>104603216</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="1">
         <v>2010</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="1">
         <v>12</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="1">
         <v>12</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="P44" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q44" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="X44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y44" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1007467507</v>
       </c>
@@ -2724,14 +3338,23 @@
       <c r="K45">
         <v>14</v>
       </c>
-      <c r="P45">
+      <c r="O45" s="4">
+        <v>1087987</v>
+      </c>
+      <c r="P45" s="4">
+        <v>1087987</v>
+      </c>
+      <c r="Q45" s="4">
+        <v>14</v>
+      </c>
+      <c r="X45">
         <v>0</v>
       </c>
-      <c r="Q45" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Y45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1022380014</v>
       </c>
@@ -2753,6 +3376,9 @@
       <c r="G46" t="s">
         <v>12</v>
       </c>
+      <c r="H46" s="4">
+        <v>1</v>
+      </c>
       <c r="I46">
         <v>1088127</v>
       </c>
@@ -2762,11 +3388,23 @@
       <c r="K46">
         <v>22</v>
       </c>
-      <c r="P46">
+      <c r="O46" s="4">
+        <v>1088127</v>
+      </c>
+      <c r="P46" s="4">
+        <v>1088127</v>
+      </c>
+      <c r="Q46" s="4">
+        <v>22</v>
+      </c>
+      <c r="U46" s="4">
+        <v>1</v>
+      </c>
+      <c r="X46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1019280005</v>
       </c>
@@ -2788,6 +3426,9 @@
       <c r="G47" t="s">
         <v>12</v>
       </c>
+      <c r="H47" s="4">
+        <v>1</v>
+      </c>
       <c r="I47">
         <v>1088142</v>
       </c>
@@ -2797,11 +3438,23 @@
       <c r="K47">
         <v>6</v>
       </c>
-      <c r="P47">
+      <c r="O47" s="4">
+        <v>1088142</v>
+      </c>
+      <c r="P47" s="4">
+        <v>1088142</v>
+      </c>
+      <c r="Q47" s="4">
+        <v>6</v>
+      </c>
+      <c r="U47" s="4">
+        <v>1</v>
+      </c>
+      <c r="X47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1018487504</v>
       </c>
@@ -2823,6 +3476,9 @@
       <c r="G48" t="s">
         <v>12</v>
       </c>
+      <c r="H48" s="4">
+        <v>1</v>
+      </c>
       <c r="I48">
         <v>1088149</v>
       </c>
@@ -2832,11 +3488,23 @@
       <c r="K48">
         <v>4</v>
       </c>
-      <c r="P48">
+      <c r="O48" s="4">
+        <v>1088149</v>
+      </c>
+      <c r="P48" s="4">
+        <v>1088149</v>
+      </c>
+      <c r="Q48" s="4">
+        <v>4</v>
+      </c>
+      <c r="U48" s="4">
+        <v>1</v>
+      </c>
+      <c r="X48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1018337507</v>
       </c>
@@ -2867,11 +3535,20 @@
       <c r="K49">
         <v>63</v>
       </c>
-      <c r="P49">
+      <c r="O49" s="4">
+        <v>1088152</v>
+      </c>
+      <c r="P49" s="4">
+        <v>1088152</v>
+      </c>
+      <c r="Q49" s="4">
+        <v>63</v>
+      </c>
+      <c r="X49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1018287506</v>
       </c>
@@ -2893,6 +3570,9 @@
       <c r="G50" t="s">
         <v>12</v>
       </c>
+      <c r="H50" s="4">
+        <v>1</v>
+      </c>
       <c r="I50">
         <v>1088153</v>
       </c>
@@ -2902,11 +3582,23 @@
       <c r="K50">
         <v>36</v>
       </c>
-      <c r="P50">
+      <c r="O50" s="4">
+        <v>1088153</v>
+      </c>
+      <c r="P50" s="4">
+        <v>1088153</v>
+      </c>
+      <c r="Q50" s="4">
+        <v>36</v>
+      </c>
+      <c r="U50" s="4">
+        <v>1</v>
+      </c>
+      <c r="X50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1016767505</v>
       </c>
@@ -2928,6 +3620,9 @@
       <c r="G51" t="s">
         <v>12</v>
       </c>
+      <c r="H51" s="4">
+        <v>1</v>
+      </c>
       <c r="I51">
         <v>1088159</v>
       </c>
@@ -2937,11 +3632,23 @@
       <c r="K51">
         <v>8</v>
       </c>
-      <c r="P51">
+      <c r="O51" s="4">
+        <v>1088159</v>
+      </c>
+      <c r="P51" s="4">
+        <v>1088159</v>
+      </c>
+      <c r="Q51" s="4">
+        <v>8</v>
+      </c>
+      <c r="U51" s="4">
+        <v>1</v>
+      </c>
+      <c r="X51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1016447501</v>
       </c>
@@ -2963,6 +3670,9 @@
       <c r="G52" t="s">
         <v>12</v>
       </c>
+      <c r="H52" s="4">
+        <v>1</v>
+      </c>
       <c r="I52">
         <v>1088162</v>
       </c>
@@ -2972,11 +3682,23 @@
       <c r="K52">
         <v>22</v>
       </c>
-      <c r="P52">
+      <c r="O52" s="4">
+        <v>1088162</v>
+      </c>
+      <c r="P52" s="4">
+        <v>1088162</v>
+      </c>
+      <c r="Q52" s="4">
+        <v>22</v>
+      </c>
+      <c r="U52" s="4">
+        <v>1</v>
+      </c>
+      <c r="X52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1016440041</v>
       </c>
@@ -2998,6 +3720,9 @@
       <c r="G53" t="s">
         <v>12</v>
       </c>
+      <c r="H53" s="4">
+        <v>1</v>
+      </c>
       <c r="I53">
         <v>1088163</v>
       </c>
@@ -3007,11 +3732,23 @@
       <c r="K53">
         <v>1</v>
       </c>
-      <c r="P53">
+      <c r="O53" s="4">
+        <v>1088163</v>
+      </c>
+      <c r="P53" s="4">
+        <v>1088163</v>
+      </c>
+      <c r="Q53" s="4">
+        <v>1</v>
+      </c>
+      <c r="U53" s="4">
+        <v>1</v>
+      </c>
+      <c r="X53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1016330020</v>
       </c>
@@ -3033,6 +3770,9 @@
       <c r="G54" t="s">
         <v>12</v>
       </c>
+      <c r="H54" s="4">
+        <v>1</v>
+      </c>
       <c r="I54">
         <v>1088165</v>
       </c>
@@ -3048,14 +3788,29 @@
       <c r="M54">
         <v>4</v>
       </c>
-      <c r="P54">
+      <c r="O54" s="4">
+        <v>1088165</v>
+      </c>
+      <c r="P54" s="4">
+        <v>1088165</v>
+      </c>
+      <c r="Q54" s="4">
+        <v>37</v>
+      </c>
+      <c r="R54" s="4">
         <v>10</v>
       </c>
-      <c r="Q54" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S54" s="4">
+        <v>4</v>
+      </c>
+      <c r="X54">
+        <v>10</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1007167505</v>
       </c>
@@ -3086,11 +3841,20 @@
       <c r="K55">
         <v>22</v>
       </c>
-      <c r="Q55" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O55" s="4">
+        <v>1088185</v>
+      </c>
+      <c r="P55" s="4">
+        <v>1088185</v>
+      </c>
+      <c r="Q55" s="4">
+        <v>22</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1005440065</v>
       </c>
@@ -3121,11 +3885,20 @@
       <c r="K56">
         <v>133</v>
       </c>
-      <c r="Q56" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O56" s="4">
+        <v>1088207</v>
+      </c>
+      <c r="P56" s="4">
+        <v>1088207</v>
+      </c>
+      <c r="Q56" s="4">
+        <v>133</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1000537502</v>
       </c>
@@ -3156,46 +3929,75 @@
       <c r="K57">
         <v>440</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
+      <c r="O57" s="4">
+        <v>1088442</v>
+      </c>
+      <c r="P57" s="4">
+        <v>1088442</v>
+      </c>
+      <c r="Q57" s="4">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
         <v>1018337505</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58" s="3">
         <v>1088481</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="3">
         <v>104714677</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="3">
         <v>2010</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E58" s="3">
         <v>56</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F58" s="3">
         <v>56</v>
       </c>
-      <c r="G58" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I58" s="4">
+      <c r="G58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" s="4"/>
+      <c r="I58" s="3">
         <v>1088481</v>
       </c>
-      <c r="J58" s="4">
+      <c r="J58" s="3">
         <v>1812106</v>
       </c>
-      <c r="K58" s="4">
+      <c r="K58" s="3">
         <v>56</v>
       </c>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4">
+        <v>1088481</v>
+      </c>
       <c r="P58" s="4">
+        <v>1812106</v>
+      </c>
+      <c r="Q58" s="4">
+        <v>56</v>
+      </c>
+      <c r="R58" s="4">
         <v>28</v>
       </c>
-      <c r="Q58" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S58" s="4">
+        <v>7</v>
+      </c>
+      <c r="T58" s="4"/>
+      <c r="U58" s="4"/>
+      <c r="V58" s="4"/>
+      <c r="X58" s="3">
+        <v>28</v>
+      </c>
+      <c r="Y58" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1003450058</v>
       </c>
@@ -3226,11 +4028,20 @@
       <c r="K59">
         <v>263</v>
       </c>
-      <c r="Q59" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O59" s="4">
+        <v>1088482</v>
+      </c>
+      <c r="P59" s="4">
+        <v>1088482</v>
+      </c>
+      <c r="Q59" s="4">
+        <v>263</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1001070028</v>
       </c>
@@ -3261,8 +4072,17 @@
       <c r="K60">
         <v>40</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O60" s="4">
+        <v>1088490</v>
+      </c>
+      <c r="P60" s="4">
+        <v>1088490</v>
+      </c>
+      <c r="Q60" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1005777504</v>
       </c>
@@ -3293,8 +4113,17 @@
       <c r="K61">
         <v>30</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O61" s="4">
+        <v>1088513</v>
+      </c>
+      <c r="P61" s="4">
+        <v>1009715</v>
+      </c>
+      <c r="Q61" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1011697502</v>
       </c>
@@ -3325,11 +4154,20 @@
       <c r="K62">
         <v>33</v>
       </c>
-      <c r="Q62" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O62" s="4">
+        <v>1088577</v>
+      </c>
+      <c r="P62" s="4">
+        <v>1088577</v>
+      </c>
+      <c r="Q62" s="4">
+        <v>33</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1017857502</v>
       </c>
@@ -3351,6 +4189,9 @@
       <c r="G63" t="s">
         <v>12</v>
       </c>
+      <c r="H63" s="4">
+        <v>1</v>
+      </c>
       <c r="I63">
         <v>1088601</v>
       </c>
@@ -3360,8 +4201,20 @@
       <c r="K63">
         <v>64</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O63" s="4">
+        <v>1088601</v>
+      </c>
+      <c r="P63" s="4">
+        <v>1088601</v>
+      </c>
+      <c r="Q63" s="4">
+        <v>64</v>
+      </c>
+      <c r="U63" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1008810060</v>
       </c>
@@ -3392,8 +4245,17 @@
       <c r="K64">
         <v>8</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O64" s="4">
+        <v>1088613</v>
+      </c>
+      <c r="P64" s="4">
+        <v>1088613</v>
+      </c>
+      <c r="Q64" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1018337506</v>
       </c>
@@ -3424,11 +4286,20 @@
       <c r="K65">
         <v>132</v>
       </c>
-      <c r="Q65" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O65" s="4">
+        <v>1088631</v>
+      </c>
+      <c r="P65" s="4">
+        <v>1055286</v>
+      </c>
+      <c r="Q65" s="4">
+        <v>132</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1006957507</v>
       </c>
@@ -3459,11 +4330,20 @@
       <c r="K66">
         <v>11</v>
       </c>
-      <c r="Q66" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O66" s="4">
+        <v>1088639</v>
+      </c>
+      <c r="P66" s="4">
+        <v>1088639</v>
+      </c>
+      <c r="Q66" s="4">
+        <v>11</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1002197505</v>
       </c>
@@ -3500,14 +4380,29 @@
       <c r="M67">
         <v>4</v>
       </c>
-      <c r="P67">
+      <c r="O67" s="4">
+        <v>1088677</v>
+      </c>
+      <c r="P67" s="4">
+        <v>1088677</v>
+      </c>
+      <c r="Q67" s="4">
         <v>7</v>
       </c>
-      <c r="Q67" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R67" s="4">
+        <v>7</v>
+      </c>
+      <c r="S67" s="4">
+        <v>4</v>
+      </c>
+      <c r="X67">
+        <v>7</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1002767503</v>
       </c>
@@ -3544,11 +4439,26 @@
       <c r="M68">
         <v>2</v>
       </c>
-      <c r="Q68" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O68" s="4">
+        <v>1088682</v>
+      </c>
+      <c r="P68" s="4">
+        <v>1088682</v>
+      </c>
+      <c r="Q68" s="4">
+        <v>28</v>
+      </c>
+      <c r="R68" s="4">
+        <v>12</v>
+      </c>
+      <c r="S68" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1019167501</v>
       </c>
@@ -3570,6 +4480,9 @@
       <c r="G69" t="s">
         <v>12</v>
       </c>
+      <c r="H69" s="4">
+        <v>1</v>
+      </c>
       <c r="I69">
         <v>1088684</v>
       </c>
@@ -3579,8 +4492,20 @@
       <c r="K69">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O69" s="4">
+        <v>1088684</v>
+      </c>
+      <c r="P69" s="4">
+        <v>1088684</v>
+      </c>
+      <c r="Q69" s="4">
+        <v>8</v>
+      </c>
+      <c r="U69" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1008330040</v>
       </c>
@@ -3611,8 +4536,17 @@
       <c r="K70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O70" s="4">
+        <v>1088687</v>
+      </c>
+      <c r="P70" s="4">
+        <v>1088687</v>
+      </c>
+      <c r="Q70" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1005867502</v>
       </c>
@@ -3643,32 +4577,51 @@
       <c r="K71">
         <v>5</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
+      <c r="O71" s="4">
+        <v>1088707</v>
+      </c>
+      <c r="P71" s="4">
+        <v>1009913</v>
+      </c>
+      <c r="Q71" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
         <v>1003537503</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="1">
         <v>1088708</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72" s="1">
         <v>104403511</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72" s="1">
         <v>2011</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E72" s="1">
         <v>24</v>
       </c>
-      <c r="F72" s="2">
+      <c r="F72" s="1">
         <v>24</v>
       </c>
-      <c r="G72" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H72" s="4"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4"/>
+      <c r="Q72" s="4"/>
+      <c r="R72" s="4"/>
+      <c r="S72" s="4"/>
+      <c r="T72" s="4"/>
+      <c r="U72" s="4"/>
+      <c r="V72" s="4"/>
+      <c r="W72" s="2"/>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1008947504</v>
       </c>
@@ -3699,8 +4652,17 @@
       <c r="K73">
         <v>125</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O73" s="4">
+        <v>1088713</v>
+      </c>
+      <c r="P73" s="4">
+        <v>1088713</v>
+      </c>
+      <c r="Q73" s="4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1015157504</v>
       </c>
@@ -3731,49 +4693,80 @@
       <c r="K74">
         <v>6</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
+      <c r="O74" s="4">
+        <v>1088727</v>
+      </c>
+      <c r="P74" s="4">
+        <v>1047970</v>
+      </c>
+      <c r="Q74" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
         <v>1018487503</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="1">
         <v>1088733</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75" s="1">
         <v>104585325</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D75" s="1">
         <v>2010</v>
       </c>
-      <c r="E75" s="2">
+      <c r="E75" s="1">
         <v>73</v>
       </c>
-      <c r="F75" s="2">
+      <c r="F75" s="1">
         <v>73</v>
       </c>
-      <c r="G75" s="2" t="s">
+      <c r="G75" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I75" s="2">
+      <c r="H75" s="1">
+        <v>1</v>
+      </c>
+      <c r="I75" s="1">
         <v>1088733</v>
       </c>
-      <c r="J75" s="2">
+      <c r="J75" s="1">
         <v>1087812</v>
       </c>
-      <c r="K75" s="2">
+      <c r="K75" s="1">
         <v>73</v>
       </c>
-      <c r="O75" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="P75" s="2">
+      <c r="N75" s="4"/>
+      <c r="O75" s="4">
+        <v>1088733</v>
+      </c>
+      <c r="P75" s="4">
+        <v>1087812</v>
+      </c>
+      <c r="Q75" s="4">
+        <v>73</v>
+      </c>
+      <c r="R75" s="4">
         <v>47</v>
       </c>
-      <c r="Q75" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S75" s="4">
+        <v>10</v>
+      </c>
+      <c r="T75" s="4"/>
+      <c r="U75" s="4"/>
+      <c r="V75" s="4"/>
+      <c r="W75" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="X75" s="1">
+        <v>47</v>
+      </c>
+      <c r="Y75" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1021807504</v>
       </c>
@@ -3795,6 +4788,9 @@
       <c r="G76" t="s">
         <v>12</v>
       </c>
+      <c r="H76" s="4">
+        <v>1</v>
+      </c>
       <c r="I76">
         <v>1088734</v>
       </c>
@@ -3804,8 +4800,20 @@
       <c r="K76">
         <v>40</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O76" s="4">
+        <v>1088734</v>
+      </c>
+      <c r="P76" s="4">
+        <v>1813280</v>
+      </c>
+      <c r="Q76" s="4">
+        <v>40</v>
+      </c>
+      <c r="U76" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1006967502</v>
       </c>
@@ -3836,8 +4844,17 @@
       <c r="K77">
         <v>18</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O77" s="4">
+        <v>1088748</v>
+      </c>
+      <c r="P77" s="4">
+        <v>1088748</v>
+      </c>
+      <c r="Q77" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1017720009</v>
       </c>
@@ -3859,6 +4876,9 @@
       <c r="G78" t="s">
         <v>12</v>
       </c>
+      <c r="H78" s="4">
+        <v>1</v>
+      </c>
       <c r="I78">
         <v>1088783</v>
       </c>
@@ -3868,8 +4888,20 @@
       <c r="K78">
         <v>50</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O78" s="4">
+        <v>1088783</v>
+      </c>
+      <c r="P78" s="4">
+        <v>1088783</v>
+      </c>
+      <c r="Q78" s="4">
+        <v>50</v>
+      </c>
+      <c r="U78" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1019557502</v>
       </c>
@@ -3891,6 +4923,9 @@
       <c r="G79" t="s">
         <v>12</v>
       </c>
+      <c r="H79" s="4">
+        <v>1</v>
+      </c>
       <c r="I79">
         <v>1088814</v>
       </c>
@@ -3900,8 +4935,20 @@
       <c r="K79">
         <v>22</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O79" s="4">
+        <v>1088814</v>
+      </c>
+      <c r="P79" s="4">
+        <v>1813287</v>
+      </c>
+      <c r="Q79" s="4">
+        <v>22</v>
+      </c>
+      <c r="U79" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1005957505</v>
       </c>
@@ -3932,8 +4979,17 @@
       <c r="K80">
         <v>9</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O80" s="4">
+        <v>1088839</v>
+      </c>
+      <c r="P80" s="4">
+        <v>1010330</v>
+      </c>
+      <c r="Q80" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1005077502</v>
       </c>
@@ -3964,35 +5020,54 @@
       <c r="K81">
         <v>24</v>
       </c>
-      <c r="Q81" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
+      <c r="O81" s="4">
+        <v>1088895</v>
+      </c>
+      <c r="P81" s="4">
+        <v>1088895</v>
+      </c>
+      <c r="Q81" s="4">
+        <v>24</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
         <v>1001907508</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" s="1">
         <v>1088918</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C82" s="1">
         <v>104631837</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D82" s="1">
         <v>2012</v>
       </c>
-      <c r="E82" s="2">
+      <c r="E82" s="1">
         <v>6</v>
       </c>
-      <c r="F82" s="2">
+      <c r="F82" s="1">
         <v>6</v>
       </c>
-      <c r="G82" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H82" s="4"/>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="4"/>
+      <c r="Q82" s="4"/>
+      <c r="R82" s="4"/>
+      <c r="S82" s="4"/>
+      <c r="T82" s="4"/>
+      <c r="U82" s="4"/>
+      <c r="V82" s="4"/>
+      <c r="W82" s="2"/>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1002837503</v>
       </c>
@@ -4023,8 +5098,17 @@
       <c r="K83">
         <v>23</v>
       </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O83" s="4">
+        <v>1089025</v>
+      </c>
+      <c r="P83" s="4">
+        <v>1089025</v>
+      </c>
+      <c r="Q83" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1018070015</v>
       </c>
@@ -4046,6 +5130,9 @@
       <c r="G84" t="s">
         <v>12</v>
       </c>
+      <c r="H84" s="4">
+        <v>1</v>
+      </c>
       <c r="I84">
         <v>1089085</v>
       </c>
@@ -4055,8 +5142,20 @@
       <c r="K84">
         <v>41</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O84" s="4">
+        <v>1089085</v>
+      </c>
+      <c r="P84" s="4">
+        <v>1803181</v>
+      </c>
+      <c r="Q84" s="4">
+        <v>41</v>
+      </c>
+      <c r="U84" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1020067501</v>
       </c>
@@ -4078,6 +5177,9 @@
       <c r="G85" t="s">
         <v>12</v>
       </c>
+      <c r="H85" s="4">
+        <v>1</v>
+      </c>
       <c r="I85">
         <v>1089124</v>
       </c>
@@ -4087,8 +5189,20 @@
       <c r="K85">
         <v>15</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O85" s="4">
+        <v>1089124</v>
+      </c>
+      <c r="P85" s="4">
+        <v>1813227</v>
+      </c>
+      <c r="Q85" s="4">
+        <v>15</v>
+      </c>
+      <c r="U85" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1016317501</v>
       </c>
@@ -4110,6 +5224,9 @@
       <c r="G86" t="s">
         <v>12</v>
       </c>
+      <c r="H86" s="4">
+        <v>1</v>
+      </c>
       <c r="I86">
         <v>1089312</v>
       </c>
@@ -4119,8 +5236,20 @@
       <c r="K86">
         <v>42</v>
       </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O86" s="4">
+        <v>1089312</v>
+      </c>
+      <c r="P86" s="4">
+        <v>1089312</v>
+      </c>
+      <c r="Q86" s="4">
+        <v>42</v>
+      </c>
+      <c r="U86" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1020627501</v>
       </c>
@@ -4142,6 +5271,9 @@
       <c r="G87" t="s">
         <v>12</v>
       </c>
+      <c r="H87" s="4">
+        <v>1</v>
+      </c>
       <c r="I87">
         <v>1089332</v>
       </c>
@@ -4151,8 +5283,20 @@
       <c r="K87">
         <v>12</v>
       </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O87" s="4">
+        <v>1089332</v>
+      </c>
+      <c r="P87" s="4">
+        <v>1081822</v>
+      </c>
+      <c r="Q87" s="4">
+        <v>12</v>
+      </c>
+      <c r="U87" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1017160051</v>
       </c>
@@ -4174,6 +5318,9 @@
       <c r="G88" t="s">
         <v>12</v>
       </c>
+      <c r="H88" s="4">
+        <v>1</v>
+      </c>
       <c r="I88">
         <v>1089401</v>
       </c>
@@ -4183,8 +5330,20 @@
       <c r="K88">
         <v>39</v>
       </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O88" s="4">
+        <v>1089401</v>
+      </c>
+      <c r="P88" s="4">
+        <v>1804936</v>
+      </c>
+      <c r="Q88" s="4">
+        <v>39</v>
+      </c>
+      <c r="U88" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1004150010</v>
       </c>
@@ -4215,55 +5374,86 @@
       <c r="K89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
+      <c r="O89" s="4">
+        <v>1089458</v>
+      </c>
+      <c r="P89" s="4">
+        <v>1089458</v>
+      </c>
+      <c r="Q89" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
         <v>1017090015</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90" s="1">
         <v>1089523</v>
       </c>
-      <c r="C90" s="2">
+      <c r="C90" s="1">
         <v>104160916</v>
       </c>
-      <c r="D90" s="2">
+      <c r="D90" s="1">
         <v>2019</v>
       </c>
-      <c r="E90" s="2">
+      <c r="E90" s="1">
         <v>13</v>
       </c>
-      <c r="F90" s="2">
+      <c r="F90" s="1">
         <v>13</v>
       </c>
-      <c r="G90" s="2" t="s">
+      <c r="G90" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I90" s="2">
+      <c r="H90" s="1">
+        <v>1</v>
+      </c>
+      <c r="I90" s="1">
         <v>1089523</v>
       </c>
-      <c r="J90" s="2">
+      <c r="J90" s="1">
         <v>1089523</v>
       </c>
-      <c r="K90" s="2">
+      <c r="K90" s="1">
         <v>13</v>
       </c>
-      <c r="L90" s="2">
+      <c r="L90" s="1">
         <v>4</v>
       </c>
-      <c r="M90" s="2">
+      <c r="M90" s="1">
         <v>7</v>
       </c>
-      <c r="O90" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="P90" s="2">
+      <c r="N90" s="4"/>
+      <c r="O90" s="4">
+        <v>1089523</v>
+      </c>
+      <c r="P90" s="4">
+        <v>1089523</v>
+      </c>
+      <c r="Q90" s="4">
+        <v>13</v>
+      </c>
+      <c r="R90" s="4">
+        <v>4</v>
+      </c>
+      <c r="S90" s="4">
+        <v>7</v>
+      </c>
+      <c r="T90" s="4"/>
+      <c r="U90" s="4"/>
+      <c r="V90" s="4"/>
+      <c r="W90" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="X90" s="1">
         <v>8</v>
       </c>
-      <c r="Q90" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Y90" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1020457505</v>
       </c>
@@ -4285,6 +5475,9 @@
       <c r="G91" t="s">
         <v>12</v>
       </c>
+      <c r="H91" s="4">
+        <v>1</v>
+      </c>
       <c r="I91">
         <v>1089581</v>
       </c>
@@ -4294,8 +5487,20 @@
       <c r="K91">
         <v>14</v>
       </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O91" s="4">
+        <v>1089581</v>
+      </c>
+      <c r="P91" s="4">
+        <v>1089581</v>
+      </c>
+      <c r="Q91" s="4">
+        <v>14</v>
+      </c>
+      <c r="U91" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1019537503</v>
       </c>
@@ -4317,6 +5522,9 @@
       <c r="G92" t="s">
         <v>12</v>
       </c>
+      <c r="H92" s="4">
+        <v>1</v>
+      </c>
       <c r="I92">
         <v>1089730</v>
       </c>
@@ -4326,53 +5534,85 @@
       <c r="K92">
         <v>12</v>
       </c>
-    </row>
-    <row r="93" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
+      <c r="O92" s="4">
+        <v>1089730</v>
+      </c>
+      <c r="P92" s="4">
+        <v>1059325</v>
+      </c>
+      <c r="Q92" s="4">
+        <v>12</v>
+      </c>
+      <c r="U92" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
         <v>1013447503</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="1">
         <v>1089775</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C93" s="1">
         <v>104560235</v>
       </c>
-      <c r="D93" s="2">
+      <c r="D93" s="1">
         <v>2015</v>
       </c>
-      <c r="E93" s="2">
+      <c r="E93" s="1">
         <v>123</v>
       </c>
-      <c r="F93" s="2">
+      <c r="F93" s="1">
         <v>123</v>
       </c>
-      <c r="G93" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I93" s="2">
+      <c r="G93" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H93" s="4"/>
+      <c r="I93" s="1">
         <v>1089775</v>
       </c>
-      <c r="J93" s="2">
+      <c r="J93" s="1">
         <v>1039675</v>
       </c>
-      <c r="K93" s="2">
+      <c r="K93" s="1">
         <v>123</v>
       </c>
-      <c r="L93" s="2">
+      <c r="L93" s="1">
         <v>8</v>
       </c>
-      <c r="M93" s="2">
-        <v>1</v>
-      </c>
-      <c r="O93" s="3"/>
-      <c r="P93" s="2">
+      <c r="M93" s="1">
+        <v>1</v>
+      </c>
+      <c r="N93" s="4"/>
+      <c r="O93" s="4">
+        <v>1089775</v>
+      </c>
+      <c r="P93" s="4">
+        <v>1039675</v>
+      </c>
+      <c r="Q93" s="4">
+        <v>123</v>
+      </c>
+      <c r="R93" s="4">
         <v>8</v>
       </c>
-      <c r="Q93" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S93" s="4">
+        <v>1</v>
+      </c>
+      <c r="T93" s="4"/>
+      <c r="U93" s="4"/>
+      <c r="V93" s="4"/>
+      <c r="W93" s="2"/>
+      <c r="X93" s="1">
+        <v>8</v>
+      </c>
+      <c r="Y93" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1019270061</v>
       </c>
@@ -4394,6 +5634,9 @@
       <c r="G94" t="s">
         <v>12</v>
       </c>
+      <c r="H94" s="4">
+        <v>1</v>
+      </c>
       <c r="I94">
         <v>1089789</v>
       </c>
@@ -4403,11 +5646,23 @@
       <c r="K94">
         <v>41</v>
       </c>
-      <c r="Q94" t="s">
+      <c r="O94" s="4">
+        <v>1089789</v>
+      </c>
+      <c r="P94" s="4">
+        <v>1800518</v>
+      </c>
+      <c r="Q94" s="4">
         <v>41</v>
       </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U94" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1000900017</v>
       </c>
@@ -4438,11 +5693,20 @@
       <c r="K95">
         <v>168</v>
       </c>
-      <c r="Q95" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O95" s="4">
+        <v>1089790</v>
+      </c>
+      <c r="P95" s="4">
+        <v>1089790</v>
+      </c>
+      <c r="Q95" s="4">
+        <v>168</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1005947510</v>
       </c>
@@ -4473,11 +5737,20 @@
       <c r="K96">
         <v>31</v>
       </c>
-      <c r="Q96" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O96" s="4">
+        <v>1089837</v>
+      </c>
+      <c r="P96" s="4">
+        <v>1089837</v>
+      </c>
+      <c r="Q96" s="4">
+        <v>31</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1003787501</v>
       </c>
@@ -4508,89 +5781,134 @@
       <c r="K97">
         <v>30</v>
       </c>
-      <c r="Q97" t="s">
+      <c r="O97" s="4">
+        <v>1089859</v>
+      </c>
+      <c r="P97" s="4">
+        <v>1089859</v>
+      </c>
+      <c r="Q97" s="4">
+        <v>30</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>1004067503</v>
+      </c>
+      <c r="B98" s="1">
+        <v>1089863</v>
+      </c>
+      <c r="C98" s="1">
+        <v>104325650</v>
+      </c>
+      <c r="D98" s="1">
+        <v>2016</v>
+      </c>
+      <c r="E98" s="1">
+        <v>11</v>
+      </c>
+      <c r="F98" s="1">
+        <v>11</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H98" s="4"/>
+      <c r="I98" s="1">
+        <v>1089863</v>
+      </c>
+      <c r="J98" s="1">
+        <v>1089863</v>
+      </c>
+      <c r="K98" s="1">
+        <v>11</v>
+      </c>
+      <c r="N98" s="4"/>
+      <c r="O98" s="4">
+        <v>1089863</v>
+      </c>
+      <c r="P98" s="4">
+        <v>1089863</v>
+      </c>
+      <c r="Q98" s="4">
+        <v>11</v>
+      </c>
+      <c r="R98" s="4"/>
+      <c r="S98" s="4"/>
+      <c r="T98" s="4"/>
+      <c r="U98" s="4"/>
+      <c r="V98" s="4"/>
+      <c r="W98" s="2"/>
+    </row>
+    <row r="99" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>1007367501</v>
+      </c>
+      <c r="B99" s="1">
+        <v>1089889</v>
+      </c>
+      <c r="C99" s="1">
+        <v>104576246</v>
+      </c>
+      <c r="D99" s="1">
+        <v>2014</v>
+      </c>
+      <c r="E99" s="1">
+        <v>108</v>
+      </c>
+      <c r="F99" s="1">
+        <v>194</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H99" s="4"/>
+      <c r="I99" s="1">
+        <v>1089889</v>
+      </c>
+      <c r="J99" s="1">
+        <v>1089889</v>
+      </c>
+      <c r="K99" s="1">
+        <v>194</v>
+      </c>
+      <c r="L99" s="1">
+        <v>64</v>
+      </c>
+      <c r="M99" s="1">
+        <v>0</v>
+      </c>
+      <c r="N99" s="4"/>
+      <c r="O99" s="4">
+        <v>1089889</v>
+      </c>
+      <c r="P99" s="4">
+        <v>1089889</v>
+      </c>
+      <c r="Q99" s="4">
+        <v>194</v>
+      </c>
+      <c r="R99" s="4">
+        <v>64</v>
+      </c>
+      <c r="S99" s="4">
+        <v>0</v>
+      </c>
+      <c r="T99" s="4"/>
+      <c r="U99" s="4"/>
+      <c r="V99" s="4"/>
+      <c r="W99" s="2"/>
+      <c r="X99" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y99" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="98" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="2">
-        <v>1004067503</v>
-      </c>
-      <c r="B98" s="2">
-        <v>1089863</v>
-      </c>
-      <c r="C98" s="2">
-        <v>104325650</v>
-      </c>
-      <c r="D98" s="2">
-        <v>2016</v>
-      </c>
-      <c r="E98" s="2">
-        <v>11</v>
-      </c>
-      <c r="F98" s="2">
-        <v>11</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I98" s="2">
-        <v>1089863</v>
-      </c>
-      <c r="J98" s="2">
-        <v>1089863</v>
-      </c>
-      <c r="K98" s="2">
-        <v>11</v>
-      </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="2">
-        <v>1007367501</v>
-      </c>
-      <c r="B99" s="2">
-        <v>1089889</v>
-      </c>
-      <c r="C99" s="2">
-        <v>104576246</v>
-      </c>
-      <c r="D99" s="2">
-        <v>2014</v>
-      </c>
-      <c r="E99" s="2">
-        <v>108</v>
-      </c>
-      <c r="F99" s="2">
-        <v>194</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I99" s="2">
-        <v>1089889</v>
-      </c>
-      <c r="J99" s="2">
-        <v>1089889</v>
-      </c>
-      <c r="K99" s="2">
-        <v>194</v>
-      </c>
-      <c r="L99" s="2">
-        <v>64</v>
-      </c>
-      <c r="M99" s="2">
-        <v>0</v>
-      </c>
-      <c r="O99" s="3"/>
-      <c r="P99" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q99" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1008610004</v>
       </c>
@@ -4621,8 +5939,17 @@
       <c r="K100">
         <v>165</v>
       </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O100" s="4">
+        <v>1089951</v>
+      </c>
+      <c r="P100" s="4">
+        <v>1089951</v>
+      </c>
+      <c r="Q100" s="4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1005267502</v>
       </c>
@@ -4653,8 +5980,17 @@
       <c r="K101">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O101" s="4">
+        <v>1089989</v>
+      </c>
+      <c r="P101" s="4">
+        <v>1089989</v>
+      </c>
+      <c r="Q101" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1006957510</v>
       </c>
@@ -4685,14 +6021,36 @@
       <c r="K102">
         <v>6</v>
       </c>
+      <c r="O102" s="4">
+        <v>1090389</v>
+      </c>
+      <c r="P102" s="4">
+        <v>1012344</v>
+      </c>
+      <c r="Q102" s="4">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="I1:M1"/>
-    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="O1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{277A3E7C-4EA5-4D76-94C4-0FFDD94022F0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/COs/output/results_test.xlsx
+++ b/COs/output/results_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M_Free\Desktop\td-parking\COs\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3409A2-CCDE-41F7-A6E8-0050E27D69CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845AA48C-5FD8-48D9-A8AD-880FDC3782DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results_test" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,23 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">results_test!$I$2:$M$2</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="50">
   <si>
     <t>filename</t>
   </si>
@@ -167,35 +178,20 @@
     <t>four (4) accessory parking spaces, four (4) accessory parking spaces</t>
   </si>
   <si>
-    <t>multiple cos</t>
-  </si>
-  <si>
-    <t>new pattern</t>
-  </si>
-  <si>
-    <t>multiple patterns</t>
-  </si>
-  <si>
-    <t>public parking</t>
-  </si>
-  <si>
-    <t>multiple instances</t>
-  </si>
-  <si>
-    <t>manual download</t>
-  </si>
-  <si>
     <t>OUTPUT: SPACES TEST 2</t>
   </si>
   <si>
     <t>OUTPUT: SPACES TEST 1</t>
+  </si>
+  <si>
+    <t>accessory off street parking (72) cars, accessory off street parking (67) cars, accessory off street attended parking (49) cars</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,13 +322,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="6"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -526,12 +515,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -539,6 +522,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,17 +692,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1075,11 +1063,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y102"/>
+  <dimension ref="A1:AB102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB19" sqref="AB19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1091,25 +1079,30 @@
     <col min="5" max="5" width="5.42578125" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" customWidth="1"/>
     <col min="7" max="7" width="21.5703125" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="3" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5703125" style="4" customWidth="1"/>
-    <col min="15" max="15" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="7.5703125" style="4" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="4"/>
-    <col min="23" max="23" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="130" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5703125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.5703125" style="3" customWidth="1"/>
+    <col min="21" max="21" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="9.140625" style="3"/>
+    <col min="28" max="28" width="130" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>13</v>
       </c>
@@ -1120,28 +1113,34 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="I1" s="6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
-      <c r="N1" s="8"/>
+      <c r="N1" s="4"/>
       <c r="O1" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="P1" s="7"/>
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
       <c r="S1" s="7"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="X1" s="6" t="s">
+      <c r="T1" s="4"/>
+      <c r="U1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="AA1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" s="6"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB1" s="7"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1178,29 +1177,44 @@
       <c r="M2" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="4" t="s">
+      <c r="P2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X2" t="s">
+      <c r="U2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="X2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1006370051</v>
       </c>
@@ -1231,20 +1245,29 @@
       <c r="K3">
         <v>6</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="3">
         <v>1012002</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="3">
         <v>1012002</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="3">
         <v>6</v>
       </c>
-      <c r="X3">
+      <c r="U3" s="3">
+        <v>1012002</v>
+      </c>
+      <c r="V3" s="3">
+        <v>1012002</v>
+      </c>
+      <c r="W3" s="3">
+        <v>6</v>
+      </c>
+      <c r="AA3" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1007600068</v>
       </c>
@@ -1266,7 +1289,6 @@
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="4"/>
       <c r="I4" s="1">
         <v>1013606</v>
       </c>
@@ -1282,36 +1304,44 @@
       <c r="M4" s="1">
         <v>2</v>
       </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="9">
+      <c r="O4" s="5">
         <v>1013606</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="5">
         <v>1013606</v>
       </c>
-      <c r="Q4" s="9">
+      <c r="Q4" s="5">
         <v>207</v>
       </c>
-      <c r="R4" s="9">
+      <c r="R4" s="5">
         <v>12</v>
       </c>
-      <c r="S4" s="9">
+      <c r="S4" s="5">
         <v>2</v>
       </c>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X4" s="1">
+      <c r="U4" s="3">
+        <v>1013606</v>
+      </c>
+      <c r="V4" s="3">
+        <v>1013606</v>
+      </c>
+      <c r="W4" s="3">
+        <v>207</v>
+      </c>
+      <c r="X4" s="3">
         <v>83</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Y4" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>83</v>
+      </c>
+      <c r="AB4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1008057502</v>
       </c>
@@ -1333,7 +1363,6 @@
       <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="4"/>
       <c r="I5" s="1">
         <v>1015146</v>
       </c>
@@ -1343,32 +1372,34 @@
       <c r="K5" s="1">
         <v>302</v>
       </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4">
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="O5" s="3">
         <v>1015146</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="3">
         <v>1015146</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="3">
         <v>302</v>
       </c>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="X5" s="1" t="s">
+      <c r="U5" s="3">
+        <v>1015146</v>
+      </c>
+      <c r="V5" s="3">
+        <v>1015146</v>
+      </c>
+      <c r="W5" s="3">
+        <v>302</v>
+      </c>
+      <c r="AA5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="AB5" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1012607502</v>
       </c>
@@ -1390,7 +1421,6 @@
       <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="4"/>
       <c r="I6" s="1">
         <v>1034238</v>
       </c>
@@ -1400,30 +1430,34 @@
       <c r="K6" s="1">
         <v>53</v>
       </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4">
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="O6" s="3">
         <v>1034238</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="3">
         <v>1034238</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="3">
         <v>53</v>
       </c>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="1" t="s">
+      <c r="U6" s="3">
+        <v>1034238</v>
+      </c>
+      <c r="V6" s="3">
+        <v>1034238</v>
+      </c>
+      <c r="W6" s="3">
+        <v>53</v>
+      </c>
+      <c r="AA6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="AB6" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1013227502</v>
       </c>
@@ -1454,20 +1488,29 @@
       <c r="K7">
         <v>76</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="3">
         <v>1038040</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="3">
         <v>1038040</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="3">
         <v>76</v>
       </c>
-      <c r="X7">
+      <c r="U7" s="3">
+        <v>1038040</v>
+      </c>
+      <c r="V7" s="3">
+        <v>1038040</v>
+      </c>
+      <c r="W7" s="3">
+        <v>76</v>
+      </c>
+      <c r="AA7" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1013697502</v>
       </c>
@@ -1498,20 +1541,29 @@
       <c r="K8">
         <v>6</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="3">
         <v>1040540</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="3">
         <v>1040540</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="3">
         <v>6</v>
       </c>
-      <c r="X8">
+      <c r="U8" s="3">
+        <v>1040540</v>
+      </c>
+      <c r="V8" s="3">
+        <v>1040540</v>
+      </c>
+      <c r="W8" s="3">
+        <v>6</v>
+      </c>
+      <c r="AA8" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1015297501</v>
       </c>
@@ -1542,65 +1594,96 @@
       <c r="K9">
         <v>3</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="3">
         <v>1048713</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="3">
         <v>1048713</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="3">
         <v>3</v>
       </c>
-      <c r="X9">
+      <c r="U9" s="3">
+        <v>1048713</v>
+      </c>
+      <c r="V9" s="3">
+        <v>1048713</v>
+      </c>
+      <c r="W9" s="3">
+        <v>3</v>
+      </c>
+      <c r="AA9" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>1016077503</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>1051489</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>104631150</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>2012</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>229</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>229</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="4">
-        <v>1</v>
-      </c>
-      <c r="O10" s="4">
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="O10" s="3">
         <v>1051489</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="3">
         <v>1051489</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="3">
         <v>229</v>
       </c>
-      <c r="R10" s="9">
+      <c r="R10" s="5">
         <v>67</v>
       </c>
-      <c r="S10" s="4">
+      <c r="S10" s="3">
         <v>41</v>
       </c>
-      <c r="W10" s="5"/>
-      <c r="Y10" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U10" s="8">
+        <v>1051489</v>
+      </c>
+      <c r="V10" s="8">
+        <v>1051489</v>
+      </c>
+      <c r="W10" s="8">
+        <v>229</v>
+      </c>
+      <c r="X10" s="8">
+        <v>116</v>
+      </c>
+      <c r="Y10" s="8">
+        <v>43</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>188</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1016447502</v>
       </c>
@@ -1622,7 +1705,7 @@
       <c r="G11" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>1</v>
       </c>
       <c r="I11">
@@ -1634,23 +1717,29 @@
       <c r="K11">
         <v>19</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="3">
         <v>1052311</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="3">
         <v>1052311</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="3">
         <v>19</v>
       </c>
-      <c r="U11" s="4">
-        <v>1</v>
-      </c>
-      <c r="X11">
+      <c r="U11" s="3">
+        <v>1052311</v>
+      </c>
+      <c r="V11" s="3">
+        <v>1052311</v>
+      </c>
+      <c r="W11" s="3">
+        <v>19</v>
+      </c>
+      <c r="AA11" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1016600024</v>
       </c>
@@ -1672,7 +1761,7 @@
       <c r="G12" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>1</v>
       </c>
       <c r="I12">
@@ -1684,23 +1773,29 @@
       <c r="K12">
         <v>16</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="3">
         <v>1052468</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="3">
         <v>1052468</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="3">
         <v>16</v>
       </c>
-      <c r="U12" s="4">
-        <v>1</v>
-      </c>
-      <c r="X12">
+      <c r="U12" s="3">
+        <v>1052468</v>
+      </c>
+      <c r="V12" s="3">
+        <v>1052468</v>
+      </c>
+      <c r="W12" s="3">
+        <v>16</v>
+      </c>
+      <c r="AA12" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1016837502</v>
       </c>
@@ -1722,7 +1817,7 @@
       <c r="G13" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>1</v>
       </c>
       <c r="I13">
@@ -1734,23 +1829,29 @@
       <c r="K13">
         <v>21</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="3">
         <v>1052875</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="3">
         <v>1052875</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="3">
         <v>21</v>
       </c>
-      <c r="U13" s="4">
-        <v>1</v>
-      </c>
-      <c r="X13">
+      <c r="U13" s="3">
+        <v>1052875</v>
+      </c>
+      <c r="V13" s="3">
+        <v>1052875</v>
+      </c>
+      <c r="W13" s="3">
+        <v>21</v>
+      </c>
+      <c r="AA13" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1017860045</v>
       </c>
@@ -1772,7 +1873,7 @@
       <c r="G14" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <v>1</v>
       </c>
       <c r="I14">
@@ -1790,29 +1891,44 @@
       <c r="M14">
         <v>0</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="3">
         <v>1054620</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="3">
         <v>1054620</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14" s="3">
         <v>4</v>
       </c>
-      <c r="R14" s="4">
-        <v>1</v>
-      </c>
-      <c r="S14" s="4">
+      <c r="R14" s="3">
+        <v>1</v>
+      </c>
+      <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="X14">
-        <v>1</v>
-      </c>
-      <c r="Y14" t="s">
+      <c r="U14" s="3">
+        <v>1054620</v>
+      </c>
+      <c r="V14" s="3">
+        <v>1054620</v>
+      </c>
+      <c r="W14" s="3">
+        <v>4</v>
+      </c>
+      <c r="X14" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1019130038</v>
       </c>
@@ -1834,7 +1950,7 @@
       <c r="G15" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>1</v>
       </c>
       <c r="I15">
@@ -1846,23 +1962,29 @@
       <c r="K15">
         <v>13</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="3">
         <v>1057953</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="3">
         <v>1057953</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15" s="3">
         <v>13</v>
       </c>
-      <c r="U15" s="4">
-        <v>1</v>
-      </c>
-      <c r="X15">
+      <c r="U15" s="3">
+        <v>1057953</v>
+      </c>
+      <c r="V15" s="3">
+        <v>1057953</v>
+      </c>
+      <c r="W15" s="3">
+        <v>13</v>
+      </c>
+      <c r="AA15" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1019160154</v>
       </c>
@@ -1884,7 +2006,7 @@
       <c r="G16" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <v>1</v>
       </c>
       <c r="I16">
@@ -1896,23 +2018,29 @@
       <c r="K16">
         <v>2</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="3">
         <v>1058136</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="3">
         <v>1058136</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16" s="3">
         <v>2</v>
       </c>
-      <c r="U16" s="4">
-        <v>1</v>
-      </c>
-      <c r="X16">
+      <c r="U16" s="3">
+        <v>1058136</v>
+      </c>
+      <c r="V16" s="3">
+        <v>1058136</v>
+      </c>
+      <c r="W16" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA16" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1019530030</v>
       </c>
@@ -1934,7 +2062,7 @@
       <c r="G17" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <v>1</v>
       </c>
       <c r="I17">
@@ -1946,23 +2074,29 @@
       <c r="K17">
         <v>8</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" s="3">
         <v>1059340</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17" s="3">
         <v>1059340</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="Q17" s="3">
         <v>8</v>
       </c>
-      <c r="U17" s="4">
-        <v>1</v>
-      </c>
-      <c r="X17">
+      <c r="U17" s="3">
+        <v>1059340</v>
+      </c>
+      <c r="V17" s="3">
+        <v>1059340</v>
+      </c>
+      <c r="W17" s="3">
+        <v>8</v>
+      </c>
+      <c r="AA17" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1020117501</v>
       </c>
@@ -1984,7 +2118,7 @@
       <c r="G18" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="3">
         <v>1</v>
       </c>
       <c r="I18">
@@ -1996,23 +2130,29 @@
       <c r="K18">
         <v>10</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="3">
         <v>1060104</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="3">
         <v>1060104</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="Q18" s="3">
         <v>10</v>
       </c>
-      <c r="U18" s="4">
-        <v>1</v>
-      </c>
-      <c r="X18">
+      <c r="U18" s="3">
+        <v>1060104</v>
+      </c>
+      <c r="V18" s="3">
+        <v>1060104</v>
+      </c>
+      <c r="W18" s="3">
+        <v>10</v>
+      </c>
+      <c r="AA18" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1020650022</v>
       </c>
@@ -2034,7 +2174,7 @@
       <c r="G19" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="3">
         <v>1</v>
       </c>
       <c r="I19">
@@ -2046,23 +2186,29 @@
       <c r="K19">
         <v>16</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" s="3">
         <v>1061578</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P19" s="3">
         <v>1061578</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="Q19" s="3">
         <v>16</v>
       </c>
-      <c r="U19" s="4">
-        <v>1</v>
-      </c>
-      <c r="X19">
+      <c r="U19" s="3">
+        <v>1061578</v>
+      </c>
+      <c r="V19" s="3">
+        <v>1061578</v>
+      </c>
+      <c r="W19" s="3">
+        <v>16</v>
+      </c>
+      <c r="AA19" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1021550026</v>
       </c>
@@ -2096,32 +2242,34 @@
       <c r="K20" s="1">
         <v>36</v>
       </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4">
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="O20" s="3">
         <v>1063701</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P20" s="3">
         <v>1063701</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="Q20" s="3">
         <v>36</v>
       </c>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4">
-        <v>1</v>
-      </c>
-      <c r="V20" s="4"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="1" t="s">
+      <c r="U20" s="3">
+        <v>1063701</v>
+      </c>
+      <c r="V20" s="3">
+        <v>1063701</v>
+      </c>
+      <c r="W20" s="3">
+        <v>36</v>
+      </c>
+      <c r="AA20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Y20" s="1" t="s">
+      <c r="AB20" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1016617503</v>
       </c>
@@ -2143,7 +2291,7 @@
       <c r="G21" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="3">
         <v>1</v>
       </c>
       <c r="I21">
@@ -2155,23 +2303,29 @@
       <c r="K21">
         <v>12</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O21" s="3">
         <v>1076370</v>
       </c>
-      <c r="P21" s="4">
+      <c r="P21" s="3">
         <v>1076370</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="Q21" s="3">
         <v>12</v>
       </c>
-      <c r="U21" s="4">
-        <v>1</v>
-      </c>
-      <c r="X21">
+      <c r="U21" s="3">
+        <v>1076370</v>
+      </c>
+      <c r="V21" s="3">
+        <v>1076370</v>
+      </c>
+      <c r="W21" s="3">
+        <v>12</v>
+      </c>
+      <c r="AA21" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1015447502</v>
       </c>
@@ -2202,20 +2356,29 @@
       <c r="K22">
         <v>7</v>
       </c>
-      <c r="O22" s="4">
+      <c r="O22" s="3">
         <v>1077060</v>
       </c>
-      <c r="P22" s="4">
+      <c r="P22" s="3">
         <v>1077060</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="Q22" s="3">
         <v>7</v>
       </c>
-      <c r="X22">
+      <c r="U22" s="3">
+        <v>1077060</v>
+      </c>
+      <c r="V22" s="3">
+        <v>1077060</v>
+      </c>
+      <c r="W22" s="3">
+        <v>7</v>
+      </c>
+      <c r="AA22" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1016817503</v>
       </c>
@@ -2237,7 +2400,7 @@
       <c r="G23" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="3">
         <v>1</v>
       </c>
       <c r="I23">
@@ -2249,23 +2412,29 @@
       <c r="K23">
         <v>35</v>
       </c>
-      <c r="O23" s="4">
+      <c r="O23" s="3">
         <v>1081362</v>
       </c>
-      <c r="P23" s="4">
+      <c r="P23" s="3">
         <v>1081362</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="Q23" s="3">
         <v>35</v>
       </c>
-      <c r="U23" s="4">
-        <v>1</v>
-      </c>
-      <c r="X23">
+      <c r="U23" s="3">
+        <v>1081362</v>
+      </c>
+      <c r="V23" s="3">
+        <v>1081362</v>
+      </c>
+      <c r="W23" s="3">
+        <v>35</v>
+      </c>
+      <c r="AA23" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1005090019</v>
       </c>
@@ -2296,20 +2465,29 @@
       <c r="K24">
         <v>9</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O24" s="3">
         <v>1082676</v>
       </c>
-      <c r="P24" s="4">
+      <c r="P24" s="3">
         <v>1082676</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="Q24" s="3">
         <v>9</v>
       </c>
-      <c r="X24">
+      <c r="U24" s="3">
+        <v>1082676</v>
+      </c>
+      <c r="V24" s="3">
+        <v>1082676</v>
+      </c>
+      <c r="W24" s="3">
+        <v>9</v>
+      </c>
+      <c r="AA24" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1002847504</v>
       </c>
@@ -2340,20 +2518,29 @@
       <c r="K25">
         <v>20</v>
       </c>
-      <c r="O25" s="4">
+      <c r="O25" s="3">
         <v>1083411</v>
       </c>
-      <c r="P25" s="4">
+      <c r="P25" s="3">
         <v>1083411</v>
       </c>
-      <c r="Q25" s="4">
+      <c r="Q25" s="3">
         <v>20</v>
       </c>
-      <c r="X25">
+      <c r="U25" s="3">
+        <v>1083411</v>
+      </c>
+      <c r="V25" s="3">
+        <v>1083411</v>
+      </c>
+      <c r="W25" s="3">
+        <v>20</v>
+      </c>
+      <c r="AA25" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1017360001</v>
       </c>
@@ -2375,11 +2562,11 @@
       <c r="G26" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1001060002</v>
       </c>
@@ -2401,7 +2588,6 @@
       <c r="G27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="4"/>
       <c r="I27" s="1">
         <v>1086078</v>
       </c>
@@ -2411,36 +2597,46 @@
       <c r="K27" s="1">
         <v>3</v>
       </c>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4">
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="O27" s="3">
         <v>1086078</v>
       </c>
-      <c r="P27" s="4">
+      <c r="P27" s="3">
         <v>1086078</v>
       </c>
-      <c r="Q27" s="4">
+      <c r="Q27" s="3">
         <v>3</v>
       </c>
-      <c r="R27" s="4">
-        <v>1</v>
-      </c>
-      <c r="S27" s="4">
+      <c r="R27" s="3">
+        <v>1</v>
+      </c>
+      <c r="S27" s="3">
         <v>26</v>
       </c>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="X27" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y27" s="1" t="s">
+      <c r="U27" s="3">
+        <v>1086078</v>
+      </c>
+      <c r="V27" s="3">
+        <v>1086078</v>
+      </c>
+      <c r="W27" s="3">
+        <v>3</v>
+      </c>
+      <c r="X27" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>28</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1016390027</v>
       </c>
@@ -2462,7 +2658,7 @@
       <c r="G28" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="3">
         <v>1</v>
       </c>
       <c r="I28">
@@ -2480,78 +2676,110 @@
       <c r="M28">
         <v>16</v>
       </c>
-      <c r="O28" s="4">
+      <c r="O28" s="3">
         <v>1087368</v>
       </c>
-      <c r="P28" s="4">
+      <c r="P28" s="3">
         <v>1087368</v>
       </c>
-      <c r="Q28" s="4">
+      <c r="Q28" s="3">
         <v>30</v>
       </c>
-      <c r="R28" s="4">
+      <c r="R28" s="3">
         <v>4</v>
       </c>
-      <c r="S28" s="4">
+      <c r="S28" s="3">
         <v>18</v>
       </c>
-      <c r="X28">
+      <c r="U28" s="3">
+        <v>1087368</v>
+      </c>
+      <c r="V28" s="3">
+        <v>1087368</v>
+      </c>
+      <c r="W28" s="3">
+        <v>30</v>
+      </c>
+      <c r="X28" s="3">
         <v>4</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Y28" s="3">
+        <v>20</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>4</v>
+      </c>
+      <c r="AB28" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>1001007502</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <v>1087485</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>104293774</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <v>2011</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="3">
         <v>898</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="3">
         <v>898</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I29" s="4">
+      <c r="G29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="3">
         <v>1087485</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="3">
         <v>1087485</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="3">
         <v>898</v>
       </c>
-      <c r="O29" s="9">
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="O29" s="5">
         <v>1087485</v>
       </c>
-      <c r="P29" s="9">
+      <c r="P29" s="5">
         <v>1087485</v>
       </c>
-      <c r="Q29" s="9">
+      <c r="Q29" s="5">
         <v>898</v>
       </c>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="X29" s="4">
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="U29" s="8">
+        <v>1087485</v>
+      </c>
+      <c r="V29" s="8">
+        <v>1087485</v>
+      </c>
+      <c r="W29" s="8">
+        <v>898</v>
+      </c>
+      <c r="X29" s="8">
+        <v>175</v>
+      </c>
+      <c r="Y29" s="8">
+        <v>7</v>
+      </c>
+      <c r="AA29" s="3">
         <v>100</v>
       </c>
-      <c r="Y29" s="4" t="s">
+      <c r="AB29" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1004207501</v>
       </c>
@@ -2588,26 +2816,41 @@
       <c r="M30">
         <v>7</v>
       </c>
-      <c r="O30" s="4">
+      <c r="O30" s="3">
         <v>1087549</v>
       </c>
-      <c r="P30" s="4">
+      <c r="P30" s="3">
         <v>1087549</v>
       </c>
-      <c r="Q30" s="4">
+      <c r="Q30" s="3">
         <v>54</v>
       </c>
-      <c r="R30" s="4">
+      <c r="R30" s="3">
         <v>34</v>
       </c>
-      <c r="S30" s="4">
+      <c r="S30" s="3">
         <v>7</v>
       </c>
-      <c r="X30">
+      <c r="U30" s="3">
+        <v>1087549</v>
+      </c>
+      <c r="V30" s="3">
+        <v>1087549</v>
+      </c>
+      <c r="W30" s="3">
+        <v>54</v>
+      </c>
+      <c r="X30" s="3">
         <v>34</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y30" s="3">
+        <v>9</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1004380018</v>
       </c>
@@ -2638,20 +2881,29 @@
       <c r="K31">
         <v>11</v>
       </c>
-      <c r="O31" s="4">
+      <c r="O31" s="3">
         <v>1087563</v>
       </c>
-      <c r="P31" s="4">
+      <c r="P31" s="3">
         <v>1087563</v>
       </c>
-      <c r="Q31" s="4">
-        <v>11</v>
-      </c>
-      <c r="X31">
+      <c r="Q31" s="3">
+        <v>11</v>
+      </c>
+      <c r="U31" s="3">
+        <v>1087563</v>
+      </c>
+      <c r="V31" s="3">
+        <v>1087563</v>
+      </c>
+      <c r="W31" s="3">
+        <v>11</v>
+      </c>
+      <c r="AA31" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1006940039</v>
       </c>
@@ -2682,23 +2934,32 @@
       <c r="K32">
         <v>111</v>
       </c>
-      <c r="O32" s="4">
+      <c r="O32" s="3">
         <v>1087591</v>
       </c>
-      <c r="P32" s="4">
+      <c r="P32" s="3">
         <v>1087591</v>
       </c>
-      <c r="Q32" s="4">
+      <c r="Q32" s="3">
         <v>111</v>
       </c>
-      <c r="X32">
+      <c r="U32" s="3">
+        <v>1087591</v>
+      </c>
+      <c r="V32" s="3">
+        <v>1087591</v>
+      </c>
+      <c r="W32" s="3">
+        <v>111</v>
+      </c>
+      <c r="AA32" s="3">
         <v>0</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="AB32" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1015540023</v>
       </c>
@@ -2729,20 +2990,29 @@
       <c r="K33">
         <v>105</v>
       </c>
-      <c r="O33" s="4">
+      <c r="O33" s="3">
         <v>1087665</v>
       </c>
-      <c r="P33" s="4">
+      <c r="P33" s="3">
         <v>1087665</v>
       </c>
-      <c r="Q33" s="4">
+      <c r="Q33" s="3">
         <v>105</v>
       </c>
-      <c r="X33">
+      <c r="U33" s="3">
+        <v>1087665</v>
+      </c>
+      <c r="V33" s="3">
+        <v>1087665</v>
+      </c>
+      <c r="W33" s="3">
+        <v>105</v>
+      </c>
+      <c r="AA33" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1019537502</v>
       </c>
@@ -2764,7 +3034,7 @@
       <c r="G34" t="s">
         <v>12</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="3">
         <v>1</v>
       </c>
       <c r="I34">
@@ -2776,23 +3046,29 @@
       <c r="K34">
         <v>11</v>
       </c>
-      <c r="O34" s="4">
+      <c r="O34" s="3">
         <v>1087740</v>
       </c>
-      <c r="P34" s="4">
+      <c r="P34" s="3">
         <v>1087740</v>
       </c>
-      <c r="Q34" s="4">
-        <v>11</v>
-      </c>
-      <c r="U34" s="4">
-        <v>1</v>
-      </c>
-      <c r="X34">
+      <c r="Q34" s="3">
+        <v>11</v>
+      </c>
+      <c r="U34" s="3">
+        <v>1087740</v>
+      </c>
+      <c r="V34" s="3">
+        <v>1087740</v>
+      </c>
+      <c r="W34" s="3">
+        <v>11</v>
+      </c>
+      <c r="AA34" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1019320033</v>
       </c>
@@ -2814,7 +3090,7 @@
       <c r="G35" t="s">
         <v>12</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="3">
         <v>1</v>
       </c>
       <c r="I35">
@@ -2832,29 +3108,44 @@
       <c r="M35">
         <v>0</v>
       </c>
-      <c r="O35" s="4">
+      <c r="O35" s="3">
         <v>1087804</v>
       </c>
-      <c r="P35" s="4">
+      <c r="P35" s="3">
         <v>1087804</v>
       </c>
-      <c r="Q35" s="4">
+      <c r="Q35" s="3">
         <v>46</v>
       </c>
-      <c r="R35" s="4">
+      <c r="R35" s="3">
         <v>15</v>
       </c>
-      <c r="S35" s="4">
+      <c r="S35" s="3">
         <v>0</v>
       </c>
-      <c r="X35">
+      <c r="U35" s="3">
+        <v>1087804</v>
+      </c>
+      <c r="V35" s="3">
+        <v>1087804</v>
+      </c>
+      <c r="W35" s="3">
+        <v>46</v>
+      </c>
+      <c r="X35" s="3">
         <v>15</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>15</v>
+      </c>
+      <c r="AB35" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1010637502</v>
       </c>
@@ -2891,29 +3182,44 @@
       <c r="M36">
         <v>0</v>
       </c>
-      <c r="O36" s="4">
+      <c r="O36" s="3">
         <v>1087823</v>
       </c>
-      <c r="P36" s="4">
+      <c r="P36" s="3">
         <v>1087823</v>
       </c>
-      <c r="Q36" s="4">
+      <c r="Q36" s="3">
         <v>83</v>
       </c>
-      <c r="R36" s="4">
+      <c r="R36" s="3">
         <v>30</v>
       </c>
-      <c r="S36" s="4">
+      <c r="S36" s="3">
         <v>0</v>
       </c>
-      <c r="X36">
+      <c r="U36" s="3">
+        <v>1087823</v>
+      </c>
+      <c r="V36" s="3">
+        <v>1087823</v>
+      </c>
+      <c r="W36" s="3">
+        <v>83</v>
+      </c>
+      <c r="X36" s="3">
         <v>30</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Y36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="3">
+        <v>30</v>
+      </c>
+      <c r="AB36" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1020077502</v>
       </c>
@@ -2935,7 +3241,7 @@
       <c r="G37" t="s">
         <v>12</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="3">
         <v>1</v>
       </c>
       <c r="I37">
@@ -2947,23 +3253,29 @@
       <c r="K37">
         <v>17</v>
       </c>
-      <c r="O37" s="4">
+      <c r="O37" s="3">
         <v>1087838</v>
       </c>
-      <c r="P37" s="4">
+      <c r="P37" s="3">
         <v>1087838</v>
       </c>
-      <c r="Q37" s="4">
+      <c r="Q37" s="3">
         <v>17</v>
       </c>
-      <c r="U37" s="4">
-        <v>1</v>
-      </c>
-      <c r="X37">
+      <c r="U37" s="3">
+        <v>1087838</v>
+      </c>
+      <c r="V37" s="3">
+        <v>1087838</v>
+      </c>
+      <c r="W37" s="3">
+        <v>17</v>
+      </c>
+      <c r="AA37" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1009397501</v>
       </c>
@@ -2994,23 +3306,32 @@
       <c r="K38">
         <v>130</v>
       </c>
-      <c r="O38" s="4">
+      <c r="O38" s="3">
         <v>1087841</v>
       </c>
-      <c r="P38" s="4">
+      <c r="P38" s="3">
         <v>1087841</v>
       </c>
-      <c r="Q38" s="4">
+      <c r="Q38" s="3">
         <v>130</v>
       </c>
-      <c r="X38">
+      <c r="U38" s="3">
+        <v>1087841</v>
+      </c>
+      <c r="V38" s="3">
+        <v>1087841</v>
+      </c>
+      <c r="W38" s="3">
+        <v>130</v>
+      </c>
+      <c r="AA38" s="3">
         <v>0</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="AB38" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1004710015</v>
       </c>
@@ -3041,20 +3362,29 @@
       <c r="K39">
         <v>5</v>
       </c>
-      <c r="O39" s="4">
+      <c r="O39" s="3">
         <v>1087877</v>
       </c>
-      <c r="P39" s="4">
+      <c r="P39" s="3">
         <v>1087877</v>
       </c>
-      <c r="Q39" s="4">
+      <c r="Q39" s="3">
         <v>5</v>
       </c>
-      <c r="X39">
+      <c r="U39" s="3">
+        <v>1087877</v>
+      </c>
+      <c r="V39" s="3">
+        <v>1087877</v>
+      </c>
+      <c r="W39" s="3">
+        <v>5</v>
+      </c>
+      <c r="AA39" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1003847505</v>
       </c>
@@ -3085,20 +3415,29 @@
       <c r="K40">
         <v>5</v>
       </c>
-      <c r="O40" s="4">
+      <c r="O40" s="3">
         <v>1087923</v>
       </c>
-      <c r="P40" s="4">
+      <c r="P40" s="3">
         <v>1087923</v>
       </c>
-      <c r="Q40" s="4">
+      <c r="Q40" s="3">
         <v>5</v>
       </c>
-      <c r="X40">
+      <c r="U40" s="3">
+        <v>1087923</v>
+      </c>
+      <c r="V40" s="3">
+        <v>1087923</v>
+      </c>
+      <c r="W40" s="3">
+        <v>5</v>
+      </c>
+      <c r="AA40" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1018307502</v>
       </c>
@@ -3120,7 +3459,7 @@
       <c r="G41" t="s">
         <v>12</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H41" s="3">
         <v>1</v>
       </c>
       <c r="I41">
@@ -3138,29 +3477,44 @@
       <c r="M41">
         <v>16</v>
       </c>
-      <c r="O41" s="4">
+      <c r="O41" s="3">
         <v>1087928</v>
       </c>
-      <c r="P41" s="4">
+      <c r="P41" s="3">
         <v>1087928</v>
       </c>
-      <c r="Q41" s="4">
+      <c r="Q41" s="3">
         <v>38</v>
       </c>
-      <c r="R41" s="4">
+      <c r="R41" s="3">
         <v>13</v>
       </c>
-      <c r="S41" s="4">
+      <c r="S41" s="3">
         <v>18</v>
       </c>
-      <c r="X41">
+      <c r="U41" s="3">
+        <v>1087928</v>
+      </c>
+      <c r="V41" s="3">
+        <v>1087928</v>
+      </c>
+      <c r="W41" s="3">
+        <v>38</v>
+      </c>
+      <c r="X41" s="3">
         <v>13</v>
       </c>
-      <c r="Y41" t="s">
+      <c r="Y41" s="3">
+        <v>8</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>13</v>
+      </c>
+      <c r="AB41" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1001497502</v>
       </c>
@@ -3182,7 +3536,6 @@
       <c r="G42" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H42" s="4"/>
       <c r="I42" s="1">
         <v>1087951</v>
       </c>
@@ -3192,30 +3545,34 @@
       <c r="K42" s="1">
         <v>84</v>
       </c>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4">
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="O42" s="3">
         <v>1087951</v>
       </c>
-      <c r="P42" s="4">
+      <c r="P42" s="3">
         <v>1087951</v>
       </c>
-      <c r="Q42" s="4">
+      <c r="Q42" s="3">
         <v>84</v>
       </c>
-      <c r="R42" s="4"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="4"/>
-      <c r="U42" s="4"/>
-      <c r="V42" s="4"/>
-      <c r="W42" s="2"/>
-      <c r="X42" s="1" t="s">
+      <c r="U42" s="3">
+        <v>1087951</v>
+      </c>
+      <c r="V42" s="3">
+        <v>1087951</v>
+      </c>
+      <c r="W42" s="3">
+        <v>84</v>
+      </c>
+      <c r="AA42" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Y42" s="1" t="s">
+      <c r="AB42" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1018250043</v>
       </c>
@@ -3237,7 +3594,7 @@
       <c r="G43" t="s">
         <v>12</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H43" s="3">
         <v>1</v>
       </c>
       <c r="I43">
@@ -3249,23 +3606,29 @@
       <c r="K43">
         <v>21</v>
       </c>
-      <c r="O43" s="4">
+      <c r="O43" s="3">
         <v>1087969</v>
       </c>
-      <c r="P43" s="4">
+      <c r="P43" s="3">
         <v>1087860</v>
       </c>
-      <c r="Q43" s="4">
+      <c r="Q43" s="3">
         <v>21</v>
       </c>
-      <c r="U43" s="4">
-        <v>1</v>
-      </c>
-      <c r="X43">
+      <c r="U43" s="3">
+        <v>1087969</v>
+      </c>
+      <c r="V43" s="3">
+        <v>1087860</v>
+      </c>
+      <c r="W43" s="3">
+        <v>21</v>
+      </c>
+      <c r="AA43" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1006417503</v>
       </c>
@@ -3287,27 +3650,28 @@
       <c r="G44" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="4"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="4"/>
-      <c r="U44" s="4"/>
-      <c r="V44" s="4"/>
-      <c r="W44" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="X44" s="1" t="s">
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="U44" s="3">
+        <v>1087979</v>
+      </c>
+      <c r="V44" s="3">
+        <v>1087979</v>
+      </c>
+      <c r="W44" s="3">
+        <v>12</v>
+      </c>
+      <c r="AA44" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Y44" s="1" t="s">
+      <c r="AB44" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1007467507</v>
       </c>
@@ -3338,23 +3702,32 @@
       <c r="K45">
         <v>14</v>
       </c>
-      <c r="O45" s="4">
+      <c r="O45" s="3">
         <v>1087987</v>
       </c>
-      <c r="P45" s="4">
+      <c r="P45" s="3">
         <v>1087987</v>
       </c>
-      <c r="Q45" s="4">
+      <c r="Q45" s="3">
         <v>14</v>
       </c>
-      <c r="X45">
+      <c r="U45" s="3">
+        <v>1087987</v>
+      </c>
+      <c r="V45" s="3">
+        <v>1087987</v>
+      </c>
+      <c r="W45" s="3">
+        <v>14</v>
+      </c>
+      <c r="AA45" s="3">
         <v>0</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="AB45" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1022380014</v>
       </c>
@@ -3376,7 +3749,7 @@
       <c r="G46" t="s">
         <v>12</v>
       </c>
-      <c r="H46" s="4">
+      <c r="H46" s="3">
         <v>1</v>
       </c>
       <c r="I46">
@@ -3388,23 +3761,29 @@
       <c r="K46">
         <v>22</v>
       </c>
-      <c r="O46" s="4">
+      <c r="O46" s="3">
         <v>1088127</v>
       </c>
-      <c r="P46" s="4">
+      <c r="P46" s="3">
         <v>1088127</v>
       </c>
-      <c r="Q46" s="4">
+      <c r="Q46" s="3">
         <v>22</v>
       </c>
-      <c r="U46" s="4">
-        <v>1</v>
-      </c>
-      <c r="X46">
+      <c r="U46" s="3">
+        <v>1088127</v>
+      </c>
+      <c r="V46" s="3">
+        <v>1088127</v>
+      </c>
+      <c r="W46" s="3">
+        <v>22</v>
+      </c>
+      <c r="AA46" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1019280005</v>
       </c>
@@ -3426,7 +3805,7 @@
       <c r="G47" t="s">
         <v>12</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H47" s="3">
         <v>1</v>
       </c>
       <c r="I47">
@@ -3438,23 +3817,29 @@
       <c r="K47">
         <v>6</v>
       </c>
-      <c r="O47" s="4">
+      <c r="O47" s="3">
         <v>1088142</v>
       </c>
-      <c r="P47" s="4">
+      <c r="P47" s="3">
         <v>1088142</v>
       </c>
-      <c r="Q47" s="4">
+      <c r="Q47" s="3">
         <v>6</v>
       </c>
-      <c r="U47" s="4">
-        <v>1</v>
-      </c>
-      <c r="X47">
+      <c r="U47" s="3">
+        <v>1088142</v>
+      </c>
+      <c r="V47" s="3">
+        <v>1088142</v>
+      </c>
+      <c r="W47" s="3">
+        <v>6</v>
+      </c>
+      <c r="AA47" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1018487504</v>
       </c>
@@ -3476,7 +3861,7 @@
       <c r="G48" t="s">
         <v>12</v>
       </c>
-      <c r="H48" s="4">
+      <c r="H48" s="3">
         <v>1</v>
       </c>
       <c r="I48">
@@ -3488,23 +3873,29 @@
       <c r="K48">
         <v>4</v>
       </c>
-      <c r="O48" s="4">
+      <c r="O48" s="3">
         <v>1088149</v>
       </c>
-      <c r="P48" s="4">
+      <c r="P48" s="3">
         <v>1088149</v>
       </c>
-      <c r="Q48" s="4">
+      <c r="Q48" s="3">
         <v>4</v>
       </c>
-      <c r="U48" s="4">
-        <v>1</v>
-      </c>
-      <c r="X48">
+      <c r="U48" s="3">
+        <v>1088149</v>
+      </c>
+      <c r="V48" s="3">
+        <v>1088149</v>
+      </c>
+      <c r="W48" s="3">
+        <v>4</v>
+      </c>
+      <c r="AA48" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1018337507</v>
       </c>
@@ -3535,20 +3926,29 @@
       <c r="K49">
         <v>63</v>
       </c>
-      <c r="O49" s="4">
+      <c r="O49" s="3">
         <v>1088152</v>
       </c>
-      <c r="P49" s="4">
+      <c r="P49" s="3">
         <v>1088152</v>
       </c>
-      <c r="Q49" s="4">
+      <c r="Q49" s="3">
         <v>63</v>
       </c>
-      <c r="X49">
+      <c r="U49" s="3">
+        <v>1088152</v>
+      </c>
+      <c r="V49" s="3">
+        <v>1088152</v>
+      </c>
+      <c r="W49" s="3">
+        <v>63</v>
+      </c>
+      <c r="AA49" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1018287506</v>
       </c>
@@ -3570,7 +3970,7 @@
       <c r="G50" t="s">
         <v>12</v>
       </c>
-      <c r="H50" s="4">
+      <c r="H50" s="3">
         <v>1</v>
       </c>
       <c r="I50">
@@ -3582,23 +3982,29 @@
       <c r="K50">
         <v>36</v>
       </c>
-      <c r="O50" s="4">
+      <c r="O50" s="3">
         <v>1088153</v>
       </c>
-      <c r="P50" s="4">
+      <c r="P50" s="3">
         <v>1088153</v>
       </c>
-      <c r="Q50" s="4">
+      <c r="Q50" s="3">
         <v>36</v>
       </c>
-      <c r="U50" s="4">
-        <v>1</v>
-      </c>
-      <c r="X50">
+      <c r="U50" s="3">
+        <v>1088153</v>
+      </c>
+      <c r="V50" s="3">
+        <v>1088153</v>
+      </c>
+      <c r="W50" s="3">
+        <v>36</v>
+      </c>
+      <c r="AA50" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1016767505</v>
       </c>
@@ -3620,7 +4026,7 @@
       <c r="G51" t="s">
         <v>12</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H51" s="3">
         <v>1</v>
       </c>
       <c r="I51">
@@ -3632,23 +4038,29 @@
       <c r="K51">
         <v>8</v>
       </c>
-      <c r="O51" s="4">
+      <c r="O51" s="3">
         <v>1088159</v>
       </c>
-      <c r="P51" s="4">
+      <c r="P51" s="3">
         <v>1088159</v>
       </c>
-      <c r="Q51" s="4">
+      <c r="Q51" s="3">
         <v>8</v>
       </c>
-      <c r="U51" s="4">
-        <v>1</v>
-      </c>
-      <c r="X51">
+      <c r="U51" s="3">
+        <v>1088159</v>
+      </c>
+      <c r="V51" s="3">
+        <v>1088159</v>
+      </c>
+      <c r="W51" s="3">
+        <v>8</v>
+      </c>
+      <c r="AA51" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1016447501</v>
       </c>
@@ -3670,7 +4082,7 @@
       <c r="G52" t="s">
         <v>12</v>
       </c>
-      <c r="H52" s="4">
+      <c r="H52" s="3">
         <v>1</v>
       </c>
       <c r="I52">
@@ -3682,23 +4094,29 @@
       <c r="K52">
         <v>22</v>
       </c>
-      <c r="O52" s="4">
+      <c r="O52" s="3">
         <v>1088162</v>
       </c>
-      <c r="P52" s="4">
+      <c r="P52" s="3">
         <v>1088162</v>
       </c>
-      <c r="Q52" s="4">
+      <c r="Q52" s="3">
         <v>22</v>
       </c>
-      <c r="U52" s="4">
-        <v>1</v>
-      </c>
-      <c r="X52">
+      <c r="U52" s="3">
+        <v>1088162</v>
+      </c>
+      <c r="V52" s="3">
+        <v>1088162</v>
+      </c>
+      <c r="W52" s="3">
+        <v>22</v>
+      </c>
+      <c r="AA52" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1016440041</v>
       </c>
@@ -3720,7 +4138,7 @@
       <c r="G53" t="s">
         <v>12</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H53" s="3">
         <v>1</v>
       </c>
       <c r="I53">
@@ -3732,23 +4150,29 @@
       <c r="K53">
         <v>1</v>
       </c>
-      <c r="O53" s="4">
+      <c r="O53" s="3">
         <v>1088163</v>
       </c>
-      <c r="P53" s="4">
+      <c r="P53" s="3">
         <v>1088163</v>
       </c>
-      <c r="Q53" s="4">
-        <v>1</v>
-      </c>
-      <c r="U53" s="4">
-        <v>1</v>
-      </c>
-      <c r="X53">
+      <c r="Q53" s="3">
+        <v>1</v>
+      </c>
+      <c r="U53" s="3">
+        <v>1088163</v>
+      </c>
+      <c r="V53" s="3">
+        <v>1088163</v>
+      </c>
+      <c r="W53" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA53" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1016330020</v>
       </c>
@@ -3770,7 +4194,7 @@
       <c r="G54" t="s">
         <v>12</v>
       </c>
-      <c r="H54" s="4">
+      <c r="H54" s="3">
         <v>1</v>
       </c>
       <c r="I54">
@@ -3788,29 +4212,44 @@
       <c r="M54">
         <v>4</v>
       </c>
-      <c r="O54" s="4">
+      <c r="O54" s="3">
         <v>1088165</v>
       </c>
-      <c r="P54" s="4">
+      <c r="P54" s="3">
         <v>1088165</v>
       </c>
-      <c r="Q54" s="4">
+      <c r="Q54" s="3">
         <v>37</v>
       </c>
-      <c r="R54" s="4">
+      <c r="R54" s="3">
         <v>10</v>
       </c>
-      <c r="S54" s="4">
+      <c r="S54" s="3">
         <v>4</v>
       </c>
-      <c r="X54">
+      <c r="U54" s="3">
+        <v>1088165</v>
+      </c>
+      <c r="V54" s="3">
+        <v>1088165</v>
+      </c>
+      <c r="W54" s="3">
+        <v>37</v>
+      </c>
+      <c r="X54" s="3">
         <v>10</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Y54" s="3">
+        <v>4</v>
+      </c>
+      <c r="AA54" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB54" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1007167505</v>
       </c>
@@ -3841,20 +4280,29 @@
       <c r="K55">
         <v>22</v>
       </c>
-      <c r="O55" s="4">
+      <c r="O55" s="3">
         <v>1088185</v>
       </c>
-      <c r="P55" s="4">
+      <c r="P55" s="3">
         <v>1088185</v>
       </c>
-      <c r="Q55" s="4">
+      <c r="Q55" s="3">
         <v>22</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="U55" s="3">
+        <v>1088185</v>
+      </c>
+      <c r="V55" s="3">
+        <v>1088185</v>
+      </c>
+      <c r="W55" s="3">
+        <v>22</v>
+      </c>
+      <c r="AB55" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1005440065</v>
       </c>
@@ -3885,20 +4333,29 @@
       <c r="K56">
         <v>133</v>
       </c>
-      <c r="O56" s="4">
+      <c r="O56" s="3">
         <v>1088207</v>
       </c>
-      <c r="P56" s="4">
+      <c r="P56" s="3">
         <v>1088207</v>
       </c>
-      <c r="Q56" s="4">
+      <c r="Q56" s="3">
         <v>133</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="U56" s="3">
+        <v>1088207</v>
+      </c>
+      <c r="V56" s="3">
+        <v>1088207</v>
+      </c>
+      <c r="W56" s="3">
+        <v>133</v>
+      </c>
+      <c r="AB56" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1000537502</v>
       </c>
@@ -3929,75 +4386,96 @@
       <c r="K57">
         <v>440</v>
       </c>
-      <c r="O57" s="4">
+      <c r="O57" s="3">
         <v>1088442</v>
       </c>
-      <c r="P57" s="4">
+      <c r="P57" s="3">
         <v>1088442</v>
       </c>
-      <c r="Q57" s="4">
+      <c r="Q57" s="3">
         <v>440</v>
       </c>
-    </row>
-    <row r="58" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
+      <c r="U57" s="3">
+        <v>1088442</v>
+      </c>
+      <c r="V57" s="3">
+        <v>1088442</v>
+      </c>
+      <c r="W57" s="3">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
         <v>1018337505</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="2">
         <v>1088481</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="2">
         <v>104714677</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="2">
         <v>2010</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="2">
         <v>56</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="2">
         <v>56</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H58" s="4"/>
-      <c r="I58" s="3">
+      <c r="G58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I58" s="2">
         <v>1088481</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="2">
         <v>1812106</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="2">
         <v>56</v>
       </c>
-      <c r="N58" s="4"/>
-      <c r="O58" s="4">
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="O58" s="3">
         <v>1088481</v>
       </c>
-      <c r="P58" s="4">
+      <c r="P58" s="3">
         <v>1812106</v>
       </c>
-      <c r="Q58" s="4">
+      <c r="Q58" s="3">
         <v>56</v>
       </c>
-      <c r="R58" s="4">
+      <c r="R58" s="3">
         <v>28</v>
       </c>
-      <c r="S58" s="4">
+      <c r="S58" s="3">
         <v>7</v>
       </c>
-      <c r="T58" s="4"/>
-      <c r="U58" s="4"/>
-      <c r="V58" s="4"/>
+      <c r="U58" s="3">
+        <v>1088481</v>
+      </c>
+      <c r="V58" s="3">
+        <v>1812106</v>
+      </c>
+      <c r="W58" s="3">
+        <v>56</v>
+      </c>
       <c r="X58" s="3">
         <v>28</v>
       </c>
-      <c r="Y58" s="3" t="s">
+      <c r="Y58" s="3">
+        <v>7</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>28</v>
+      </c>
+      <c r="AB58" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1003450058</v>
       </c>
@@ -4028,20 +4506,29 @@
       <c r="K59">
         <v>263</v>
       </c>
-      <c r="O59" s="4">
+      <c r="O59" s="3">
         <v>1088482</v>
       </c>
-      <c r="P59" s="4">
+      <c r="P59" s="3">
         <v>1088482</v>
       </c>
-      <c r="Q59" s="4">
+      <c r="Q59" s="3">
         <v>263</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="U59" s="3">
+        <v>1088482</v>
+      </c>
+      <c r="V59" s="3">
+        <v>1088482</v>
+      </c>
+      <c r="W59" s="3">
+        <v>263</v>
+      </c>
+      <c r="AB59" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1001070028</v>
       </c>
@@ -4072,17 +4559,26 @@
       <c r="K60">
         <v>40</v>
       </c>
-      <c r="O60" s="4">
+      <c r="O60" s="3">
         <v>1088490</v>
       </c>
-      <c r="P60" s="4">
+      <c r="P60" s="3">
         <v>1088490</v>
       </c>
-      <c r="Q60" s="4">
+      <c r="Q60" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U60" s="3">
+        <v>1088490</v>
+      </c>
+      <c r="V60" s="3">
+        <v>1088490</v>
+      </c>
+      <c r="W60" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1005777504</v>
       </c>
@@ -4113,17 +4609,26 @@
       <c r="K61">
         <v>30</v>
       </c>
-      <c r="O61" s="4">
+      <c r="O61" s="3">
         <v>1088513</v>
       </c>
-      <c r="P61" s="4">
+      <c r="P61" s="3">
         <v>1009715</v>
       </c>
-      <c r="Q61" s="4">
+      <c r="Q61" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U61" s="3">
+        <v>1088513</v>
+      </c>
+      <c r="V61" s="3">
+        <v>1009715</v>
+      </c>
+      <c r="W61" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1011697502</v>
       </c>
@@ -4154,20 +4659,29 @@
       <c r="K62">
         <v>33</v>
       </c>
-      <c r="O62" s="4">
+      <c r="O62" s="3">
         <v>1088577</v>
       </c>
-      <c r="P62" s="4">
+      <c r="P62" s="3">
         <v>1088577</v>
       </c>
-      <c r="Q62" s="4">
+      <c r="Q62" s="3">
         <v>33</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="U62" s="3">
+        <v>1088577</v>
+      </c>
+      <c r="V62" s="3">
+        <v>1088577</v>
+      </c>
+      <c r="W62" s="3">
+        <v>33</v>
+      </c>
+      <c r="AB62" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1017857502</v>
       </c>
@@ -4189,7 +4703,7 @@
       <c r="G63" t="s">
         <v>12</v>
       </c>
-      <c r="H63" s="4">
+      <c r="H63" s="3">
         <v>1</v>
       </c>
       <c r="I63">
@@ -4201,20 +4715,26 @@
       <c r="K63">
         <v>64</v>
       </c>
-      <c r="O63" s="4">
+      <c r="O63" s="3">
         <v>1088601</v>
       </c>
-      <c r="P63" s="4">
+      <c r="P63" s="3">
         <v>1088601</v>
       </c>
-      <c r="Q63" s="4">
+      <c r="Q63" s="3">
         <v>64</v>
       </c>
-      <c r="U63" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U63" s="3">
+        <v>1088601</v>
+      </c>
+      <c r="V63" s="3">
+        <v>1088601</v>
+      </c>
+      <c r="W63" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1008810060</v>
       </c>
@@ -4245,17 +4765,26 @@
       <c r="K64">
         <v>8</v>
       </c>
-      <c r="O64" s="4">
+      <c r="O64" s="3">
         <v>1088613</v>
       </c>
-      <c r="P64" s="4">
+      <c r="P64" s="3">
         <v>1088613</v>
       </c>
-      <c r="Q64" s="4">
+      <c r="Q64" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U64" s="3">
+        <v>1088613</v>
+      </c>
+      <c r="V64" s="3">
+        <v>1088613</v>
+      </c>
+      <c r="W64" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1018337506</v>
       </c>
@@ -4286,20 +4815,29 @@
       <c r="K65">
         <v>132</v>
       </c>
-      <c r="O65" s="4">
+      <c r="O65" s="3">
         <v>1088631</v>
       </c>
-      <c r="P65" s="4">
+      <c r="P65" s="3">
         <v>1055286</v>
       </c>
-      <c r="Q65" s="4">
+      <c r="Q65" s="3">
         <v>132</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="U65" s="3">
+        <v>1088631</v>
+      </c>
+      <c r="V65" s="3">
+        <v>1055286</v>
+      </c>
+      <c r="W65" s="3">
+        <v>132</v>
+      </c>
+      <c r="AB65" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1006957507</v>
       </c>
@@ -4330,20 +4868,29 @@
       <c r="K66">
         <v>11</v>
       </c>
-      <c r="O66" s="4">
+      <c r="O66" s="3">
         <v>1088639</v>
       </c>
-      <c r="P66" s="4">
+      <c r="P66" s="3">
         <v>1088639</v>
       </c>
-      <c r="Q66" s="4">
-        <v>11</v>
-      </c>
-      <c r="Y66" t="s">
+      <c r="Q66" s="3">
+        <v>11</v>
+      </c>
+      <c r="U66" s="3">
+        <v>1088639</v>
+      </c>
+      <c r="V66" s="3">
+        <v>1088639</v>
+      </c>
+      <c r="W66" s="3">
+        <v>11</v>
+      </c>
+      <c r="AB66" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1002197505</v>
       </c>
@@ -4380,29 +4927,44 @@
       <c r="M67">
         <v>4</v>
       </c>
-      <c r="O67" s="4">
+      <c r="O67" s="3">
         <v>1088677</v>
       </c>
-      <c r="P67" s="4">
+      <c r="P67" s="3">
         <v>1088677</v>
       </c>
-      <c r="Q67" s="4">
+      <c r="Q67" s="3">
         <v>7</v>
       </c>
-      <c r="R67" s="4">
+      <c r="R67" s="3">
         <v>7</v>
       </c>
-      <c r="S67" s="4">
+      <c r="S67" s="3">
         <v>4</v>
       </c>
-      <c r="X67">
+      <c r="U67" s="3">
+        <v>1088677</v>
+      </c>
+      <c r="V67" s="3">
+        <v>1088677</v>
+      </c>
+      <c r="W67" s="3">
         <v>7</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="X67" s="3">
+        <v>7</v>
+      </c>
+      <c r="Y67" s="3">
+        <v>4</v>
+      </c>
+      <c r="AA67" s="3">
+        <v>7</v>
+      </c>
+      <c r="AB67" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1002767503</v>
       </c>
@@ -4439,26 +5001,44 @@
       <c r="M68">
         <v>2</v>
       </c>
-      <c r="O68" s="4">
+      <c r="O68" s="3">
         <v>1088682</v>
       </c>
-      <c r="P68" s="4">
+      <c r="P68" s="3">
         <v>1088682</v>
       </c>
-      <c r="Q68" s="4">
+      <c r="Q68" s="3">
         <v>28</v>
       </c>
-      <c r="R68" s="4">
+      <c r="R68" s="3">
         <v>12</v>
       </c>
-      <c r="S68" s="4">
+      <c r="S68" s="3">
         <v>2</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="U68" s="3">
+        <v>1088682</v>
+      </c>
+      <c r="V68" s="3">
+        <v>1088682</v>
+      </c>
+      <c r="W68" s="3">
+        <v>28</v>
+      </c>
+      <c r="X68" s="3">
+        <v>12</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>12</v>
+      </c>
+      <c r="AB68" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1019167501</v>
       </c>
@@ -4480,7 +5060,7 @@
       <c r="G69" t="s">
         <v>12</v>
       </c>
-      <c r="H69" s="4">
+      <c r="H69" s="3">
         <v>1</v>
       </c>
       <c r="I69">
@@ -4492,20 +5072,26 @@
       <c r="K69">
         <v>8</v>
       </c>
-      <c r="O69" s="4">
+      <c r="O69" s="3">
         <v>1088684</v>
       </c>
-      <c r="P69" s="4">
+      <c r="P69" s="3">
         <v>1088684</v>
       </c>
-      <c r="Q69" s="4">
+      <c r="Q69" s="3">
         <v>8</v>
       </c>
-      <c r="U69" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U69" s="3">
+        <v>1088684</v>
+      </c>
+      <c r="V69" s="3">
+        <v>1088684</v>
+      </c>
+      <c r="W69" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1008330040</v>
       </c>
@@ -4536,17 +5122,26 @@
       <c r="K70">
         <v>1</v>
       </c>
-      <c r="O70" s="4">
+      <c r="O70" s="3">
         <v>1088687</v>
       </c>
-      <c r="P70" s="4">
+      <c r="P70" s="3">
         <v>1088687</v>
       </c>
-      <c r="Q70" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Q70" s="3">
+        <v>1</v>
+      </c>
+      <c r="U70" s="3">
+        <v>1088687</v>
+      </c>
+      <c r="V70" s="3">
+        <v>1088687</v>
+      </c>
+      <c r="W70" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1005867502</v>
       </c>
@@ -4577,17 +5172,26 @@
       <c r="K71">
         <v>5</v>
       </c>
-      <c r="O71" s="4">
+      <c r="O71" s="3">
         <v>1088707</v>
       </c>
-      <c r="P71" s="4">
+      <c r="P71" s="3">
         <v>1009913</v>
       </c>
-      <c r="Q71" s="4">
+      <c r="Q71" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="72" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U71" s="3">
+        <v>1088707</v>
+      </c>
+      <c r="V71" s="3">
+        <v>1009913</v>
+      </c>
+      <c r="W71" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1003537503</v>
       </c>
@@ -4609,19 +5213,13 @@
       <c r="G72" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H72" s="4"/>
-      <c r="N72" s="4"/>
-      <c r="O72" s="4"/>
-      <c r="P72" s="4"/>
-      <c r="Q72" s="4"/>
-      <c r="R72" s="4"/>
-      <c r="S72" s="4"/>
-      <c r="T72" s="4"/>
-      <c r="U72" s="4"/>
-      <c r="V72" s="4"/>
-      <c r="W72" s="2"/>
-    </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1008947504</v>
       </c>
@@ -4652,17 +5250,26 @@
       <c r="K73">
         <v>125</v>
       </c>
-      <c r="O73" s="4">
+      <c r="O73" s="3">
         <v>1088713</v>
       </c>
-      <c r="P73" s="4">
+      <c r="P73" s="3">
         <v>1088713</v>
       </c>
-      <c r="Q73" s="4">
+      <c r="Q73" s="3">
         <v>125</v>
       </c>
-    </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U73" s="3">
+        <v>1088713</v>
+      </c>
+      <c r="V73" s="3">
+        <v>1088713</v>
+      </c>
+      <c r="W73" s="3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1015157504</v>
       </c>
@@ -4693,17 +5300,26 @@
       <c r="K74">
         <v>6</v>
       </c>
-      <c r="O74" s="4">
+      <c r="O74" s="3">
         <v>1088727</v>
       </c>
-      <c r="P74" s="4">
+      <c r="P74" s="3">
         <v>1047970</v>
       </c>
-      <c r="Q74" s="4">
+      <c r="Q74" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="75" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U74" s="3">
+        <v>1088727</v>
+      </c>
+      <c r="V74" s="3">
+        <v>1047970</v>
+      </c>
+      <c r="W74" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>1018487503</v>
       </c>
@@ -4737,36 +5353,46 @@
       <c r="K75" s="1">
         <v>73</v>
       </c>
-      <c r="N75" s="4"/>
-      <c r="O75" s="4">
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="O75" s="3">
         <v>1088733</v>
       </c>
-      <c r="P75" s="4">
+      <c r="P75" s="3">
         <v>1087812</v>
       </c>
-      <c r="Q75" s="4">
+      <c r="Q75" s="3">
         <v>73</v>
       </c>
-      <c r="R75" s="4">
+      <c r="R75" s="3">
         <v>47</v>
       </c>
-      <c r="S75" s="4">
+      <c r="S75" s="3">
         <v>10</v>
       </c>
-      <c r="T75" s="4"/>
-      <c r="U75" s="4"/>
-      <c r="V75" s="4"/>
-      <c r="W75" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="X75" s="1">
+      <c r="U75" s="3">
+        <v>1088733</v>
+      </c>
+      <c r="V75" s="3">
+        <v>1087812</v>
+      </c>
+      <c r="W75" s="3">
+        <v>73</v>
+      </c>
+      <c r="X75" s="3">
         <v>47</v>
       </c>
-      <c r="Y75" s="1" t="s">
+      <c r="Y75" s="3">
+        <v>12</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>47</v>
+      </c>
+      <c r="AB75" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1021807504</v>
       </c>
@@ -4788,7 +5414,7 @@
       <c r="G76" t="s">
         <v>12</v>
       </c>
-      <c r="H76" s="4">
+      <c r="H76" s="3">
         <v>1</v>
       </c>
       <c r="I76">
@@ -4800,20 +5426,26 @@
       <c r="K76">
         <v>40</v>
       </c>
-      <c r="O76" s="4">
+      <c r="O76" s="3">
         <v>1088734</v>
       </c>
-      <c r="P76" s="4">
+      <c r="P76" s="3">
         <v>1813280</v>
       </c>
-      <c r="Q76" s="4">
+      <c r="Q76" s="3">
         <v>40</v>
       </c>
-      <c r="U76" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U76" s="3">
+        <v>1088734</v>
+      </c>
+      <c r="V76" s="3">
+        <v>1813280</v>
+      </c>
+      <c r="W76" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1006967502</v>
       </c>
@@ -4844,17 +5476,26 @@
       <c r="K77">
         <v>18</v>
       </c>
-      <c r="O77" s="4">
+      <c r="O77" s="3">
         <v>1088748</v>
       </c>
-      <c r="P77" s="4">
+      <c r="P77" s="3">
         <v>1088748</v>
       </c>
-      <c r="Q77" s="4">
+      <c r="Q77" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U77" s="3">
+        <v>1088748</v>
+      </c>
+      <c r="V77" s="3">
+        <v>1088748</v>
+      </c>
+      <c r="W77" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1017720009</v>
       </c>
@@ -4876,7 +5517,7 @@
       <c r="G78" t="s">
         <v>12</v>
       </c>
-      <c r="H78" s="4">
+      <c r="H78" s="3">
         <v>1</v>
       </c>
       <c r="I78">
@@ -4888,20 +5529,26 @@
       <c r="K78">
         <v>50</v>
       </c>
-      <c r="O78" s="4">
+      <c r="O78" s="3">
         <v>1088783</v>
       </c>
-      <c r="P78" s="4">
+      <c r="P78" s="3">
         <v>1088783</v>
       </c>
-      <c r="Q78" s="4">
+      <c r="Q78" s="3">
         <v>50</v>
       </c>
-      <c r="U78" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U78" s="3">
+        <v>1088783</v>
+      </c>
+      <c r="V78" s="3">
+        <v>1088783</v>
+      </c>
+      <c r="W78" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1019557502</v>
       </c>
@@ -4923,7 +5570,7 @@
       <c r="G79" t="s">
         <v>12</v>
       </c>
-      <c r="H79" s="4">
+      <c r="H79" s="3">
         <v>1</v>
       </c>
       <c r="I79">
@@ -4935,20 +5582,26 @@
       <c r="K79">
         <v>22</v>
       </c>
-      <c r="O79" s="4">
+      <c r="O79" s="3">
         <v>1088814</v>
       </c>
-      <c r="P79" s="4">
+      <c r="P79" s="3">
         <v>1813287</v>
       </c>
-      <c r="Q79" s="4">
+      <c r="Q79" s="3">
         <v>22</v>
       </c>
-      <c r="U79" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U79" s="3">
+        <v>1088814</v>
+      </c>
+      <c r="V79" s="3">
+        <v>1813287</v>
+      </c>
+      <c r="W79" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1005957505</v>
       </c>
@@ -4979,17 +5632,26 @@
       <c r="K80">
         <v>9</v>
       </c>
-      <c r="O80" s="4">
+      <c r="O80" s="3">
         <v>1088839</v>
       </c>
-      <c r="P80" s="4">
+      <c r="P80" s="3">
         <v>1010330</v>
       </c>
-      <c r="Q80" s="4">
+      <c r="Q80" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U80" s="3">
+        <v>1088839</v>
+      </c>
+      <c r="V80" s="3">
+        <v>1010330</v>
+      </c>
+      <c r="W80" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1005077502</v>
       </c>
@@ -5020,20 +5682,29 @@
       <c r="K81">
         <v>24</v>
       </c>
-      <c r="O81" s="4">
+      <c r="O81" s="3">
         <v>1088895</v>
       </c>
-      <c r="P81" s="4">
+      <c r="P81" s="3">
         <v>1088895</v>
       </c>
-      <c r="Q81" s="4">
+      <c r="Q81" s="3">
         <v>24</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="U81" s="3">
+        <v>1088895</v>
+      </c>
+      <c r="V81" s="3">
+        <v>1088895</v>
+      </c>
+      <c r="W81" s="3">
+        <v>24</v>
+      </c>
+      <c r="AB81" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="82" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>1001907508</v>
       </c>
@@ -5055,19 +5726,13 @@
       <c r="G82" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H82" s="4"/>
-      <c r="N82" s="4"/>
-      <c r="O82" s="4"/>
-      <c r="P82" s="4"/>
-      <c r="Q82" s="4"/>
-      <c r="R82" s="4"/>
-      <c r="S82" s="4"/>
-      <c r="T82" s="4"/>
-      <c r="U82" s="4"/>
-      <c r="V82" s="4"/>
-      <c r="W82" s="2"/>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+    </row>
+    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1002837503</v>
       </c>
@@ -5098,17 +5763,26 @@
       <c r="K83">
         <v>23</v>
       </c>
-      <c r="O83" s="4">
+      <c r="O83" s="3">
         <v>1089025</v>
       </c>
-      <c r="P83" s="4">
+      <c r="P83" s="3">
         <v>1089025</v>
       </c>
-      <c r="Q83" s="4">
+      <c r="Q83" s="3">
         <v>23</v>
       </c>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U83" s="3">
+        <v>1089025</v>
+      </c>
+      <c r="V83" s="3">
+        <v>1089025</v>
+      </c>
+      <c r="W83" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1018070015</v>
       </c>
@@ -5130,7 +5804,7 @@
       <c r="G84" t="s">
         <v>12</v>
       </c>
-      <c r="H84" s="4">
+      <c r="H84" s="3">
         <v>1</v>
       </c>
       <c r="I84">
@@ -5142,20 +5816,26 @@
       <c r="K84">
         <v>41</v>
       </c>
-      <c r="O84" s="4">
+      <c r="O84" s="3">
         <v>1089085</v>
       </c>
-      <c r="P84" s="4">
+      <c r="P84" s="3">
         <v>1803181</v>
       </c>
-      <c r="Q84" s="4">
+      <c r="Q84" s="3">
         <v>41</v>
       </c>
-      <c r="U84" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U84" s="3">
+        <v>1089085</v>
+      </c>
+      <c r="V84" s="3">
+        <v>1803181</v>
+      </c>
+      <c r="W84" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1020067501</v>
       </c>
@@ -5177,7 +5857,7 @@
       <c r="G85" t="s">
         <v>12</v>
       </c>
-      <c r="H85" s="4">
+      <c r="H85" s="3">
         <v>1</v>
       </c>
       <c r="I85">
@@ -5189,20 +5869,26 @@
       <c r="K85">
         <v>15</v>
       </c>
-      <c r="O85" s="4">
+      <c r="O85" s="3">
         <v>1089124</v>
       </c>
-      <c r="P85" s="4">
+      <c r="P85" s="3">
         <v>1813227</v>
       </c>
-      <c r="Q85" s="4">
+      <c r="Q85" s="3">
         <v>15</v>
       </c>
-      <c r="U85" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U85" s="3">
+        <v>1089124</v>
+      </c>
+      <c r="V85" s="3">
+        <v>1813227</v>
+      </c>
+      <c r="W85" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1016317501</v>
       </c>
@@ -5224,7 +5910,7 @@
       <c r="G86" t="s">
         <v>12</v>
       </c>
-      <c r="H86" s="4">
+      <c r="H86" s="3">
         <v>1</v>
       </c>
       <c r="I86">
@@ -5236,20 +5922,26 @@
       <c r="K86">
         <v>42</v>
       </c>
-      <c r="O86" s="4">
+      <c r="O86" s="3">
         <v>1089312</v>
       </c>
-      <c r="P86" s="4">
+      <c r="P86" s="3">
         <v>1089312</v>
       </c>
-      <c r="Q86" s="4">
+      <c r="Q86" s="3">
         <v>42</v>
       </c>
-      <c r="U86" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U86" s="3">
+        <v>1089312</v>
+      </c>
+      <c r="V86" s="3">
+        <v>1089312</v>
+      </c>
+      <c r="W86" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1020627501</v>
       </c>
@@ -5271,7 +5963,7 @@
       <c r="G87" t="s">
         <v>12</v>
       </c>
-      <c r="H87" s="4">
+      <c r="H87" s="3">
         <v>1</v>
       </c>
       <c r="I87">
@@ -5283,20 +5975,26 @@
       <c r="K87">
         <v>12</v>
       </c>
-      <c r="O87" s="4">
+      <c r="O87" s="3">
         <v>1089332</v>
       </c>
-      <c r="P87" s="4">
+      <c r="P87" s="3">
         <v>1081822</v>
       </c>
-      <c r="Q87" s="4">
+      <c r="Q87" s="3">
         <v>12</v>
       </c>
-      <c r="U87" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U87" s="3">
+        <v>1089332</v>
+      </c>
+      <c r="V87" s="3">
+        <v>1081822</v>
+      </c>
+      <c r="W87" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1017160051</v>
       </c>
@@ -5318,7 +6016,7 @@
       <c r="G88" t="s">
         <v>12</v>
       </c>
-      <c r="H88" s="4">
+      <c r="H88" s="3">
         <v>1</v>
       </c>
       <c r="I88">
@@ -5330,20 +6028,26 @@
       <c r="K88">
         <v>39</v>
       </c>
-      <c r="O88" s="4">
+      <c r="O88" s="3">
         <v>1089401</v>
       </c>
-      <c r="P88" s="4">
+      <c r="P88" s="3">
         <v>1804936</v>
       </c>
-      <c r="Q88" s="4">
+      <c r="Q88" s="3">
         <v>39</v>
       </c>
-      <c r="U88" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U88" s="3">
+        <v>1089401</v>
+      </c>
+      <c r="V88" s="3">
+        <v>1804936</v>
+      </c>
+      <c r="W88" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1004150010</v>
       </c>
@@ -5374,17 +6078,26 @@
       <c r="K89">
         <v>1</v>
       </c>
-      <c r="O89" s="4">
+      <c r="O89" s="3">
         <v>1089458</v>
       </c>
-      <c r="P89" s="4">
+      <c r="P89" s="3">
         <v>1089458</v>
       </c>
-      <c r="Q89" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q89" s="3">
+        <v>1</v>
+      </c>
+      <c r="U89" s="3">
+        <v>1089458</v>
+      </c>
+      <c r="V89" s="3">
+        <v>1089458</v>
+      </c>
+      <c r="W89" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>1017090015</v>
       </c>
@@ -5424,36 +6137,44 @@
       <c r="M90" s="1">
         <v>7</v>
       </c>
-      <c r="N90" s="4"/>
-      <c r="O90" s="4">
+      <c r="O90" s="3">
         <v>1089523</v>
       </c>
-      <c r="P90" s="4">
+      <c r="P90" s="3">
         <v>1089523</v>
       </c>
-      <c r="Q90" s="4">
+      <c r="Q90" s="3">
         <v>13</v>
       </c>
-      <c r="R90" s="4">
+      <c r="R90" s="3">
         <v>4</v>
       </c>
-      <c r="S90" s="4">
+      <c r="S90" s="3">
         <v>7</v>
       </c>
-      <c r="T90" s="4"/>
-      <c r="U90" s="4"/>
-      <c r="V90" s="4"/>
-      <c r="W90" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="X90" s="1">
+      <c r="U90" s="8">
+        <v>1089523</v>
+      </c>
+      <c r="V90" s="8">
+        <v>1089523</v>
+      </c>
+      <c r="W90" s="8">
+        <v>13</v>
+      </c>
+      <c r="X90" s="8">
+        <v>4</v>
+      </c>
+      <c r="Y90" s="8">
+        <v>9</v>
+      </c>
+      <c r="AA90" s="3">
         <v>8</v>
       </c>
-      <c r="Y90" s="1" t="s">
+      <c r="AB90" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1020457505</v>
       </c>
@@ -5475,7 +6196,7 @@
       <c r="G91" t="s">
         <v>12</v>
       </c>
-      <c r="H91" s="4">
+      <c r="H91" s="3">
         <v>1</v>
       </c>
       <c r="I91">
@@ -5487,20 +6208,26 @@
       <c r="K91">
         <v>14</v>
       </c>
-      <c r="O91" s="4">
+      <c r="O91" s="3">
         <v>1089581</v>
       </c>
-      <c r="P91" s="4">
+      <c r="P91" s="3">
         <v>1089581</v>
       </c>
-      <c r="Q91" s="4">
+      <c r="Q91" s="3">
         <v>14</v>
       </c>
-      <c r="U91" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U91" s="3">
+        <v>1089581</v>
+      </c>
+      <c r="V91" s="3">
+        <v>1089581</v>
+      </c>
+      <c r="W91" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1019537503</v>
       </c>
@@ -5522,7 +6249,7 @@
       <c r="G92" t="s">
         <v>12</v>
       </c>
-      <c r="H92" s="4">
+      <c r="H92" s="3">
         <v>1</v>
       </c>
       <c r="I92">
@@ -5534,20 +6261,26 @@
       <c r="K92">
         <v>12</v>
       </c>
-      <c r="O92" s="4">
+      <c r="O92" s="3">
         <v>1089730</v>
       </c>
-      <c r="P92" s="4">
+      <c r="P92" s="3">
         <v>1059325</v>
       </c>
-      <c r="Q92" s="4">
+      <c r="Q92" s="3">
         <v>12</v>
       </c>
-      <c r="U92" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U92" s="3">
+        <v>1089730</v>
+      </c>
+      <c r="V92" s="3">
+        <v>1059325</v>
+      </c>
+      <c r="W92" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>1013447503</v>
       </c>
@@ -5569,7 +6302,6 @@
       <c r="G93" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H93" s="4"/>
       <c r="I93" s="1">
         <v>1089775</v>
       </c>
@@ -5585,34 +6317,44 @@
       <c r="M93" s="1">
         <v>1</v>
       </c>
-      <c r="N93" s="4"/>
-      <c r="O93" s="4">
+      <c r="O93" s="3">
         <v>1089775</v>
       </c>
-      <c r="P93" s="4">
+      <c r="P93" s="3">
         <v>1039675</v>
       </c>
-      <c r="Q93" s="4">
+      <c r="Q93" s="3">
         <v>123</v>
       </c>
-      <c r="R93" s="4">
+      <c r="R93" s="3">
         <v>8</v>
       </c>
-      <c r="S93" s="4">
-        <v>1</v>
-      </c>
-      <c r="T93" s="4"/>
-      <c r="U93" s="4"/>
-      <c r="V93" s="4"/>
-      <c r="W93" s="2"/>
-      <c r="X93" s="1">
+      <c r="S93" s="3">
+        <v>1</v>
+      </c>
+      <c r="U93" s="3">
+        <v>1089775</v>
+      </c>
+      <c r="V93" s="3">
+        <v>1039675</v>
+      </c>
+      <c r="W93" s="3">
+        <v>123</v>
+      </c>
+      <c r="X93" s="3">
         <v>8</v>
       </c>
-      <c r="Y93" s="1" t="s">
+      <c r="Y93" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>8</v>
+      </c>
+      <c r="AB93" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1019270061</v>
       </c>
@@ -5634,7 +6376,7 @@
       <c r="G94" t="s">
         <v>12</v>
       </c>
-      <c r="H94" s="4">
+      <c r="H94" s="3">
         <v>1</v>
       </c>
       <c r="I94">
@@ -5646,23 +6388,29 @@
       <c r="K94">
         <v>41</v>
       </c>
-      <c r="O94" s="4">
+      <c r="O94" s="3">
         <v>1089789</v>
       </c>
-      <c r="P94" s="4">
+      <c r="P94" s="3">
         <v>1800518</v>
       </c>
-      <c r="Q94" s="4">
+      <c r="Q94" s="3">
         <v>41</v>
       </c>
-      <c r="U94" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y94" t="s">
+      <c r="U94" s="3">
+        <v>1089789</v>
+      </c>
+      <c r="V94" s="3">
+        <v>1800518</v>
+      </c>
+      <c r="W94" s="3">
+        <v>41</v>
+      </c>
+      <c r="AB94" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1000900017</v>
       </c>
@@ -5693,20 +6441,29 @@
       <c r="K95">
         <v>168</v>
       </c>
-      <c r="O95" s="4">
+      <c r="O95" s="3">
         <v>1089790</v>
       </c>
-      <c r="P95" s="4">
+      <c r="P95" s="3">
         <v>1089790</v>
       </c>
-      <c r="Q95" s="4">
+      <c r="Q95" s="3">
         <v>168</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="U95" s="3">
+        <v>1089790</v>
+      </c>
+      <c r="V95" s="3">
+        <v>1089790</v>
+      </c>
+      <c r="W95" s="3">
+        <v>168</v>
+      </c>
+      <c r="AB95" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1005947510</v>
       </c>
@@ -5737,20 +6494,29 @@
       <c r="K96">
         <v>31</v>
       </c>
-      <c r="O96" s="4">
+      <c r="O96" s="3">
         <v>1089837</v>
       </c>
-      <c r="P96" s="4">
+      <c r="P96" s="3">
         <v>1089837</v>
       </c>
-      <c r="Q96" s="4">
+      <c r="Q96" s="3">
         <v>31</v>
       </c>
-      <c r="Y96" t="s">
+      <c r="U96" s="3">
+        <v>1089837</v>
+      </c>
+      <c r="V96" s="3">
+        <v>1089837</v>
+      </c>
+      <c r="W96" s="3">
+        <v>31</v>
+      </c>
+      <c r="AB96" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1003787501</v>
       </c>
@@ -5781,20 +6547,29 @@
       <c r="K97">
         <v>30</v>
       </c>
-      <c r="O97" s="4">
+      <c r="O97" s="3">
         <v>1089859</v>
       </c>
-      <c r="P97" s="4">
+      <c r="P97" s="3">
         <v>1089859</v>
       </c>
-      <c r="Q97" s="4">
+      <c r="Q97" s="3">
         <v>30</v>
       </c>
-      <c r="Y97" t="s">
+      <c r="U97" s="3">
+        <v>1089859</v>
+      </c>
+      <c r="V97" s="3">
+        <v>1089859</v>
+      </c>
+      <c r="W97" s="3">
+        <v>30</v>
+      </c>
+      <c r="AB97" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="98" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>1004067503</v>
       </c>
@@ -5816,7 +6591,6 @@
       <c r="G98" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H98" s="4"/>
       <c r="I98" s="1">
         <v>1089863</v>
       </c>
@@ -5826,24 +6600,28 @@
       <c r="K98" s="1">
         <v>11</v>
       </c>
-      <c r="N98" s="4"/>
-      <c r="O98" s="4">
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="O98" s="3">
         <v>1089863</v>
       </c>
-      <c r="P98" s="4">
+      <c r="P98" s="3">
         <v>1089863</v>
       </c>
-      <c r="Q98" s="4">
-        <v>11</v>
-      </c>
-      <c r="R98" s="4"/>
-      <c r="S98" s="4"/>
-      <c r="T98" s="4"/>
-      <c r="U98" s="4"/>
-      <c r="V98" s="4"/>
-      <c r="W98" s="2"/>
-    </row>
-    <row r="99" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q98" s="3">
+        <v>11</v>
+      </c>
+      <c r="U98" s="3">
+        <v>1089863</v>
+      </c>
+      <c r="V98" s="3">
+        <v>1089863</v>
+      </c>
+      <c r="W98" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>1007367501</v>
       </c>
@@ -5865,7 +6643,6 @@
       <c r="G99" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H99" s="4"/>
       <c r="I99" s="1">
         <v>1089889</v>
       </c>
@@ -5881,34 +6658,44 @@
       <c r="M99" s="1">
         <v>0</v>
       </c>
-      <c r="N99" s="4"/>
-      <c r="O99" s="4">
+      <c r="O99" s="3">
         <v>1089889</v>
       </c>
-      <c r="P99" s="4">
+      <c r="P99" s="3">
         <v>1089889</v>
       </c>
-      <c r="Q99" s="4">
+      <c r="Q99" s="3">
         <v>194</v>
       </c>
-      <c r="R99" s="4">
+      <c r="R99" s="3">
         <v>64</v>
       </c>
-      <c r="S99" s="4">
+      <c r="S99" s="3">
         <v>0</v>
       </c>
-      <c r="T99" s="4"/>
-      <c r="U99" s="4"/>
-      <c r="V99" s="4"/>
-      <c r="W99" s="2"/>
-      <c r="X99" s="1" t="s">
+      <c r="U99" s="8">
+        <v>1089889</v>
+      </c>
+      <c r="V99" s="8">
+        <v>1089889</v>
+      </c>
+      <c r="W99" s="8">
+        <v>194</v>
+      </c>
+      <c r="X99" s="8">
+        <v>64</v>
+      </c>
+      <c r="Y99" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="Y99" s="1" t="s">
+      <c r="AB99" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1008610004</v>
       </c>
@@ -5939,17 +6726,26 @@
       <c r="K100">
         <v>165</v>
       </c>
-      <c r="O100" s="4">
+      <c r="O100" s="3">
         <v>1089951</v>
       </c>
-      <c r="P100" s="4">
+      <c r="P100" s="3">
         <v>1089951</v>
       </c>
-      <c r="Q100" s="4">
+      <c r="Q100" s="3">
         <v>165</v>
       </c>
-    </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U100" s="3">
+        <v>1089951</v>
+      </c>
+      <c r="V100" s="3">
+        <v>1089951</v>
+      </c>
+      <c r="W100" s="3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1005267502</v>
       </c>
@@ -5980,17 +6776,26 @@
       <c r="K101">
         <v>4</v>
       </c>
-      <c r="O101" s="4">
+      <c r="O101" s="3">
         <v>1089989</v>
       </c>
-      <c r="P101" s="4">
+      <c r="P101" s="3">
         <v>1089989</v>
       </c>
-      <c r="Q101" s="4">
+      <c r="Q101" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U101" s="3">
+        <v>1089989</v>
+      </c>
+      <c r="V101" s="3">
+        <v>1089989</v>
+      </c>
+      <c r="W101" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1006957510</v>
       </c>
@@ -6021,22 +6826,32 @@
       <c r="K102">
         <v>6</v>
       </c>
-      <c r="O102" s="4">
+      <c r="O102" s="3">
         <v>1090389</v>
       </c>
-      <c r="P102" s="4">
+      <c r="P102" s="3">
         <v>1012344</v>
       </c>
-      <c r="Q102" s="4">
+      <c r="Q102" s="3">
         <v>6</v>
       </c>
+      <c r="U102" s="3">
+        <v>1090389</v>
+      </c>
+      <c r="V102" s="3">
+        <v>1012344</v>
+      </c>
+      <c r="W102" s="3">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="I1:M1"/>
-    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="O1:S1"/>
+    <mergeCell ref="U1:Y1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/COs/output/results_test.xlsx
+++ b/COs/output/results_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M_Free\Desktop\td-parking\COs\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845AA48C-5FD8-48D9-A8AD-880FDC3782DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF510172-32FA-4228-8167-F6E20631C625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="51">
   <si>
     <t>filename</t>
   </si>
@@ -103,9 +103,6 @@
     <t>accessory parking garage for one car</t>
   </si>
   <si>
-    <t>car garage, car garage with 4 parking spaces</t>
-  </si>
-  <si>
     <t>accessory attended parking for (175) cars (100 spaces to be used exclusively by the hospital staff, patients and visitors)</t>
   </si>
   <si>
@@ -119,9 +116,6 @@
   </si>
   <si>
     <t>physical culture establishment…</t>
-  </si>
-  <si>
-    <t>old form</t>
   </si>
   <si>
     <t>bicycle storage</t>
@@ -172,9 +166,6 @@
     <t>32?</t>
   </si>
   <si>
-    <t>accessory attended off street parking for (8) cars in conjunction with cellar/subcellar, bicycle storage (58 bicycles)</t>
-  </si>
-  <si>
     <t>four (4) accessory parking spaces, four (4) accessory parking spaces</t>
   </si>
   <si>
@@ -185,6 +176,18 @@
   </si>
   <si>
     <t>accessory off street parking (72) cars, accessory off street parking (67) cars, accessory off street attended parking (49) cars</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>OUTPUT: SPACES TEST 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accessory attended off street parking for (8) cars in conjunction with cellar/subcellar, bicycle storage (58 bicycles), accessory attended off street parking for (8) cars in conjunction with cellar/subcellar, </t>
+  </si>
+  <si>
+    <t>car garage, car garage with 4 parking spaces, car garage with 4 parking spaces</t>
   </si>
 </sst>
 </file>
@@ -701,13 +704,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1063,22 +1066,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB102"/>
+  <dimension ref="A1:AC102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB19" sqref="AB19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="5" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10" style="3" customWidth="1"/>
+    <col min="4" max="4" width="5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="3" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="3" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
@@ -1092,74 +1095,70 @@
     <col min="18" max="18" width="6.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7.5703125" style="3" customWidth="1"/>
-    <col min="21" max="21" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="9.140625" style="3"/>
-    <col min="28" max="28" width="130" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="3"/>
+    <col min="21" max="28" width="9.140625" style="3"/>
+    <col min="29" max="29" width="130" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="I1" s="6" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="I1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="AA1" s="7" t="s">
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AB1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="7"/>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="AC1" s="8"/>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I2" t="s">
@@ -1207,33 +1206,36 @@
       <c r="Y2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>1006370051</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>1012002</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>103859521</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>2014</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>6</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>6</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I3">
@@ -1263,30 +1265,33 @@
       <c r="W3" s="3">
         <v>6</v>
       </c>
-      <c r="AA3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="Z3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>1007600068</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>1013606</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>104626031</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>2010</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <v>207</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="3">
         <v>207</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I4" s="1">
@@ -1334,33 +1339,36 @@
       <c r="Y4" s="3">
         <v>2</v>
       </c>
-      <c r="AA4" s="3">
+      <c r="Z4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="3">
         <v>83</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>1008057502</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>1015146</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>104731300</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>2010</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="3">
         <v>302</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="3">
         <v>302</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="1">
@@ -1374,15 +1382,17 @@
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="O5" s="3">
+      <c r="O5" s="5">
         <v>1015146</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="5">
         <v>1015146</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="5">
         <v>302</v>
       </c>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
       <c r="U5" s="3">
         <v>1015146</v>
       </c>
@@ -1392,33 +1402,42 @@
       <c r="W5" s="3">
         <v>302</v>
       </c>
-      <c r="AA5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB5" s="3" t="s">
+      <c r="X5" s="3">
+        <v>529</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>57</v>
+      </c>
+      <c r="Z5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>529</v>
+      </c>
+      <c r="AC5" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>1012607502</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>1034238</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>104579038</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <v>2010</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="3">
         <v>53</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="3">
         <v>53</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="1">
@@ -1450,33 +1469,36 @@
       <c r="W6" s="3">
         <v>53</v>
       </c>
-      <c r="AA6" s="3" t="s">
+      <c r="Z6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AB6" s="3" t="s">
+      <c r="AC6" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>1013227502</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>1038040</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>103964088</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>2010</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>76</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>76</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I7">
@@ -1506,30 +1528,33 @@
       <c r="W7" s="3">
         <v>76</v>
       </c>
-      <c r="AA7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="Z7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>1013697502</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>1040540</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>104335667</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>2010</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>6</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>6</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I8">
@@ -1559,30 +1584,33 @@
       <c r="W8" s="3">
         <v>6</v>
       </c>
-      <c r="AA8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="Z8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>1015297501</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>1048713</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>104359196</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>2012</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>3</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>3</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I9">
@@ -1612,11 +1640,14 @@
       <c r="W9" s="3">
         <v>3</v>
       </c>
-      <c r="AA9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Z9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1016077503</v>
       </c>
@@ -1637,9 +1668,6 @@
       </c>
       <c r="G10" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -1661,52 +1689,52 @@
       <c r="S10" s="3">
         <v>41</v>
       </c>
-      <c r="U10" s="8">
+      <c r="U10" s="6">
         <v>1051489</v>
       </c>
-      <c r="V10" s="8">
+      <c r="V10" s="6">
         <v>1051489</v>
       </c>
-      <c r="W10" s="8">
+      <c r="W10" s="6">
         <v>229</v>
       </c>
-      <c r="X10" s="8">
-        <v>116</v>
-      </c>
-      <c r="Y10" s="8">
-        <v>43</v>
-      </c>
-      <c r="AA10" s="3">
+      <c r="X10" s="6">
         <v>188</v>
       </c>
-      <c r="AB10" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="Y10" s="6">
+        <v>61</v>
+      </c>
+      <c r="Z10" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>188</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>1016447502</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>1052311</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>104500238</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>2010</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>19</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>19</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="H11" s="3">
-        <v>1</v>
       </c>
       <c r="I11">
         <v>1052311</v>
@@ -1735,34 +1763,34 @@
       <c r="W11" s="3">
         <v>19</v>
       </c>
-      <c r="AA11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="Z11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>1016600024</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>1052468</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>104226035</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>2013</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>16</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <v>16</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1</v>
       </c>
       <c r="I12">
         <v>1052468</v>
@@ -1791,34 +1819,34 @@
       <c r="W12" s="3">
         <v>16</v>
       </c>
-      <c r="AA12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="Z12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>1016837502</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>1052875</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>104590435</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>2010</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>21</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <v>21</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="H13" s="3">
-        <v>1</v>
       </c>
       <c r="I13">
         <v>1052875</v>
@@ -1847,34 +1875,34 @@
       <c r="W13" s="3">
         <v>21</v>
       </c>
-      <c r="AA13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="Z13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>1017860045</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>1054620</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>103731473</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>2017</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>4</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="3">
         <v>4</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="H14" s="3">
-        <v>1</v>
       </c>
       <c r="I14">
         <v>1054620</v>
@@ -1919,39 +1947,39 @@
         <v>1</v>
       </c>
       <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3">
+        <v>21</v>
+      </c>
+      <c r="Z14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>1</v>
       </c>
-      <c r="AB14" s="3" t="s">
+      <c r="AC14" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>1019130038</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>1057953</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>104035312</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>2015</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <v>13</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="3">
         <v>13</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1</v>
       </c>
       <c r="I15">
         <v>1057953</v>
@@ -1980,34 +2008,34 @@
       <c r="W15" s="3">
         <v>13</v>
       </c>
-      <c r="AA15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="Z15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>1019160154</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <v>1058136</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>103769254</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>2012</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <v>2</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="3">
         <v>2</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="H16" s="3">
-        <v>1</v>
       </c>
       <c r="I16">
         <v>1058136</v>
@@ -2036,34 +2064,34 @@
       <c r="W16" s="3">
         <v>2</v>
       </c>
-      <c r="AA16" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="Z16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>1019530030</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>1059340</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <v>104512591</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
         <v>2010</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="3">
         <v>8</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3">
         <v>8</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1</v>
       </c>
       <c r="I17">
         <v>1059340</v>
@@ -2092,34 +2120,34 @@
       <c r="W17" s="3">
         <v>8</v>
       </c>
-      <c r="AA17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="Z17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>1020117501</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
         <v>1060104</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>104429968</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <v>2010</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="3">
         <v>10</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="3">
         <v>10</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1</v>
       </c>
       <c r="I18">
         <v>1060104</v>
@@ -2148,34 +2176,34 @@
       <c r="W18" s="3">
         <v>10</v>
       </c>
-      <c r="AA18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="Z18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>1020650022</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="3">
         <v>1061578</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="3">
         <v>104523464</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <v>2010</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="3">
         <v>16</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="3">
         <v>16</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="H19" s="3">
-        <v>1</v>
       </c>
       <c r="I19">
         <v>1061578</v>
@@ -2204,34 +2232,34 @@
       <c r="W19" s="3">
         <v>16</v>
       </c>
-      <c r="AA19" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="Z19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>1021550026</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="3">
         <v>1063701</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="3">
         <v>104551414</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="3">
         <v>2015</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="3">
         <v>16</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="3">
         <v>36</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1</v>
       </c>
       <c r="I20" s="1">
         <v>1063701</v>
@@ -2262,37 +2290,37 @@
       <c r="W20" s="3">
         <v>36</v>
       </c>
-      <c r="AA20" s="3" t="s">
+      <c r="Z20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AB20" s="3" t="s">
+      <c r="AC20" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>1016617503</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="3">
         <v>1076370</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="3">
         <v>104624300</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="3">
         <v>2014</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="3">
         <v>12</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="3">
         <v>12</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="H21" s="3">
-        <v>1</v>
       </c>
       <c r="I21">
         <v>1076370</v>
@@ -2321,30 +2349,33 @@
       <c r="W21" s="3">
         <v>12</v>
       </c>
-      <c r="AA21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="Z21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>1015447502</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="3">
         <v>1077060</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="3">
         <v>104529413</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="3">
         <v>2010</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="3">
         <v>7</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="3">
         <v>7</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I22">
@@ -2374,34 +2405,34 @@
       <c r="W22" s="3">
         <v>7</v>
       </c>
-      <c r="AA22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="Z22" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>1016817503</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="3">
         <v>1081362</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="3">
         <v>104126802</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="3">
         <v>2011</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="3">
         <v>35</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="3">
         <v>35</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="H23" s="3">
-        <v>1</v>
       </c>
       <c r="I23">
         <v>1081362</v>
@@ -2430,30 +2461,33 @@
       <c r="W23" s="3">
         <v>35</v>
       </c>
-      <c r="AA23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="Z23" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>1005090019</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="3">
         <v>1082676</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="3">
         <v>104626282</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="3">
         <v>2013</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="3">
         <v>9</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="3">
         <v>9</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I24">
@@ -2483,30 +2517,33 @@
       <c r="W24" s="3">
         <v>9</v>
       </c>
-      <c r="AA24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="Z24" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>1002847504</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="3">
         <v>1083411</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="3">
         <v>104314939</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="3">
         <v>2018</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="3">
         <v>20</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="3">
         <v>20</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I25">
@@ -2536,56 +2573,56 @@
       <c r="W25" s="3">
         <v>20</v>
       </c>
-      <c r="AA25" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="Z25" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>1017360001</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="3">
         <v>1083987</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="3">
         <v>104510218</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="3">
         <v>2018</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="3">
         <v>64</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="3">
         <v>64</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <v>1001060002</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="3">
         <v>1086078</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="3">
         <v>103935191</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="3">
         <v>2010</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="3">
         <v>3</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="3">
         <v>3</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I27" s="1">
@@ -2627,39 +2664,39 @@
         <v>1</v>
       </c>
       <c r="Y27" s="3">
-        <v>28</v>
-      </c>
-      <c r="AA27" s="3">
+        <v>26</v>
+      </c>
+      <c r="Z27" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="3">
         <v>1</v>
       </c>
-      <c r="AB27" s="3" t="s">
+      <c r="AC27" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <v>1016390027</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="3">
         <v>1087368</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="3">
         <v>103174084</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="3">
         <v>2011</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="3">
         <v>30</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="3">
         <v>30</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="H28" s="3">
-        <v>1</v>
       </c>
       <c r="I28">
         <v>1087368</v>
@@ -2704,16 +2741,19 @@
         <v>4</v>
       </c>
       <c r="Y28" s="3">
-        <v>20</v>
-      </c>
-      <c r="AA28" s="3">
+        <v>18</v>
+      </c>
+      <c r="Z28" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="3">
         <v>4</v>
       </c>
-      <c r="AB28" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC28" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>1001007502</v>
       </c>
@@ -2757,48 +2797,51 @@
       </c>
       <c r="R29" s="5"/>
       <c r="S29" s="5"/>
-      <c r="U29" s="8">
+      <c r="U29" s="3">
         <v>1087485</v>
       </c>
-      <c r="V29" s="8">
+      <c r="V29" s="3">
         <v>1087485</v>
       </c>
-      <c r="W29" s="8">
+      <c r="W29" s="3">
         <v>898</v>
       </c>
-      <c r="X29" s="8">
+      <c r="X29" s="3">
         <v>175</v>
       </c>
-      <c r="Y29" s="8">
-        <v>7</v>
-      </c>
-      <c r="AA29" s="3">
-        <v>100</v>
-      </c>
-      <c r="AB29" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="Y29" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>175</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <v>1004207501</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="3">
         <v>1087549</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="3">
         <v>102491590</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="3">
         <v>2010</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="3">
         <v>55</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="3">
         <v>54</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I30">
@@ -2846,30 +2889,33 @@
       <c r="Y30" s="3">
         <v>9</v>
       </c>
-      <c r="AA30" s="3">
+      <c r="Z30" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="3">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <v>1004380018</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="3">
         <v>1087563</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="3">
         <v>104108243</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="3">
         <v>2010</v>
       </c>
-      <c r="E31">
-        <v>11</v>
-      </c>
-      <c r="F31">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="E31" s="3">
+        <v>11</v>
+      </c>
+      <c r="F31" s="3">
+        <v>11</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I31">
@@ -2899,30 +2945,33 @@
       <c r="W31" s="3">
         <v>11</v>
       </c>
-      <c r="AA31" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="Z31" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
         <v>1006940039</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="3">
         <v>1087591</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="3">
         <v>104383613</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="3">
         <v>2011</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="3">
         <v>111</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="3">
         <v>111</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I32">
@@ -2952,33 +3001,36 @@
       <c r="W32" s="3">
         <v>111</v>
       </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="Z32" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
         <v>1015540023</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="3">
         <v>1087665</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="3">
         <v>104563401</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="3">
         <v>2010</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="3">
         <v>113</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="3">
         <v>105</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I33">
@@ -3008,34 +3060,34 @@
       <c r="W33" s="3">
         <v>105</v>
       </c>
-      <c r="AA33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="Z33" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <v>1019537502</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="3">
         <v>1087740</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="3">
         <v>104093428</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="3">
         <v>2017</v>
       </c>
-      <c r="E34">
-        <v>11</v>
-      </c>
-      <c r="F34">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="E34" s="3">
+        <v>11</v>
+      </c>
+      <c r="F34" s="3">
+        <v>11</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="H34" s="3">
-        <v>1</v>
       </c>
       <c r="I34">
         <v>1087740</v>
@@ -3064,34 +3116,34 @@
       <c r="W34" s="3">
         <v>11</v>
       </c>
-      <c r="AA34" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="Z34" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
         <v>1019320033</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="3">
         <v>1087804</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="3">
         <v>104693315</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="3">
         <v>2010</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="3">
         <v>46</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="3">
         <v>46</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="H35" s="3">
-        <v>1</v>
       </c>
       <c r="I35">
         <v>1087804</v>
@@ -3136,35 +3188,38 @@
         <v>15</v>
       </c>
       <c r="Y35" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="3">
+        <v>2</v>
+      </c>
+      <c r="Z35" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="3">
         <v>15</v>
       </c>
-      <c r="AB35" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="AC35" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
         <v>1010637502</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="3">
         <v>1087823</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="3">
         <v>104530562</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="3">
         <v>2010</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="3">
         <v>83</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="3">
         <v>83</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I36">
@@ -3210,39 +3265,39 @@
         <v>30</v>
       </c>
       <c r="Y36" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="3">
+        <v>2</v>
+      </c>
+      <c r="Z36" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="3">
         <v>30</v>
       </c>
-      <c r="AB36" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="AC36" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>1020077502</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="3">
         <v>1087838</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="3">
         <v>104320129</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="3">
         <v>2010</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="3">
         <v>17</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="3">
         <v>17</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="H37" s="3">
-        <v>1</v>
       </c>
       <c r="I37">
         <v>1087838</v>
@@ -3271,30 +3326,33 @@
       <c r="W37" s="3">
         <v>17</v>
       </c>
-      <c r="AA37" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="Z37" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
         <v>1009397501</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="3">
         <v>1087841</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="3">
         <v>104741969</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="3">
         <v>2010</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="3">
         <v>130</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="3">
         <v>130</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I38">
@@ -3324,33 +3382,36 @@
       <c r="W38" s="3">
         <v>130</v>
       </c>
-      <c r="AA38" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB38" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="Z38" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
         <v>1004710015</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="3">
         <v>1087877</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="3">
         <v>102922955</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="3">
         <v>2010</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="3">
         <v>5</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="3">
         <v>5</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I39">
@@ -3380,30 +3441,33 @@
       <c r="W39" s="3">
         <v>5</v>
       </c>
-      <c r="AA39" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="Z39" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
         <v>1003847505</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="3">
         <v>1087923</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="3">
         <v>104700094</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="3">
         <v>2010</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="3">
         <v>5</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="3">
         <v>5</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I40">
@@ -3433,34 +3497,34 @@
       <c r="W40" s="3">
         <v>5</v>
       </c>
-      <c r="AA40" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="Z40" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
         <v>1018307502</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="3">
         <v>1087928</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="3">
         <v>104739669</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="3">
         <v>2010</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="3">
         <v>38</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="3">
         <v>38</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="H41" s="3">
-        <v>1</v>
       </c>
       <c r="I41">
         <v>1087928</v>
@@ -3507,33 +3571,36 @@
       <c r="Y41" s="3">
         <v>8</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="Z41" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="3">
         <v>13</v>
       </c>
-      <c r="AB41" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+      <c r="AC41" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
         <v>1001497502</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="3">
         <v>1087951</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="3">
         <v>104409766</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="3">
         <v>2011</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="3">
         <v>84</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="3">
         <v>84</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I42" s="1">
@@ -3565,37 +3632,37 @@
       <c r="W42" s="3">
         <v>84</v>
       </c>
-      <c r="AA42" s="3" t="s">
+      <c r="Z42" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AB42" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="AC42" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
         <v>1018250043</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="3">
         <v>1087969</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="3">
         <v>104251587</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="3">
         <v>2010</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="3">
         <v>21</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="3">
         <v>21</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="H43" s="3">
-        <v>1</v>
       </c>
       <c r="I43">
         <v>1087969</v>
@@ -3624,30 +3691,33 @@
       <c r="W43" s="3">
         <v>21</v>
       </c>
-      <c r="AA43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+      <c r="Z43" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
         <v>1006417503</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="3">
         <v>1087979</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="3">
         <v>104603216</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="3">
         <v>2010</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="3">
         <v>12</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="3">
         <v>12</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G44" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I44" s="1"/>
@@ -3664,33 +3734,33 @@
       <c r="W44" s="3">
         <v>12</v>
       </c>
-      <c r="AA44" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB44" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="Z44" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
         <v>1007467507</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="3">
         <v>1087987</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="3">
         <v>104349821</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="3">
         <v>2010</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="3">
         <v>14</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="3">
         <v>14</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I45">
@@ -3720,37 +3790,37 @@
       <c r="W45" s="3">
         <v>14</v>
       </c>
-      <c r="AA45" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="Z45" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
         <v>1022380014</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="3">
         <v>1088127</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="3">
         <v>104136793</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="3">
         <v>2011</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="3">
         <v>22</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="3">
         <v>22</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="H46" s="3">
-        <v>1</v>
       </c>
       <c r="I46">
         <v>1088127</v>
@@ -3779,34 +3849,34 @@
       <c r="W46" s="3">
         <v>22</v>
       </c>
-      <c r="AA46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="Z46" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
         <v>1019280005</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="3">
         <v>1088142</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="3">
         <v>104149930</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="3">
         <v>2016</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="3">
         <v>6</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="3">
         <v>6</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="H47" s="3">
-        <v>1</v>
       </c>
       <c r="I47">
         <v>1088142</v>
@@ -3835,34 +3905,34 @@
       <c r="W47" s="3">
         <v>6</v>
       </c>
-      <c r="AA47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="Z47" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
         <v>1018487504</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="3">
         <v>1088149</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="3">
         <v>104196816</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="3">
         <v>2011</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="3">
         <v>4</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="3">
         <v>4</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="H48" s="3">
-        <v>1</v>
       </c>
       <c r="I48">
         <v>1088149</v>
@@ -3891,30 +3961,33 @@
       <c r="W48" s="3">
         <v>4</v>
       </c>
-      <c r="AA48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="Z48" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
         <v>1018337507</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="3">
         <v>1088152</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="3">
         <v>104711698</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="3">
         <v>2010</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="3">
         <v>63</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="3">
         <v>63</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I49">
@@ -3944,34 +4017,34 @@
       <c r="W49" s="3">
         <v>63</v>
       </c>
-      <c r="AA49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="Z49" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
         <v>1018287506</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="3">
         <v>1088153</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="3">
         <v>104471938</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="3">
         <v>2010</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="3">
         <v>36</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="3">
         <v>36</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="H50" s="3">
-        <v>1</v>
       </c>
       <c r="I50">
         <v>1088153</v>
@@ -4000,34 +4073,34 @@
       <c r="W50" s="3">
         <v>36</v>
       </c>
-      <c r="AA50" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="Z50" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
         <v>1016767505</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="3">
         <v>1088159</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="3">
         <v>103368160</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="3">
         <v>2010</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="3">
         <v>8</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="3">
         <v>8</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="H51" s="3">
-        <v>1</v>
       </c>
       <c r="I51">
         <v>1088159</v>
@@ -4056,34 +4129,34 @@
       <c r="W51" s="3">
         <v>8</v>
       </c>
-      <c r="AA51" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="Z51" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
         <v>1016447501</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="3">
         <v>1088162</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="3">
         <v>104500693</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="3">
         <v>2010</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="3">
         <v>22</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="3">
         <v>22</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1</v>
       </c>
       <c r="I52">
         <v>1088162</v>
@@ -4112,34 +4185,34 @@
       <c r="W52" s="3">
         <v>22</v>
       </c>
-      <c r="AA52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="Z52" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
         <v>1016440041</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="3">
         <v>1088163</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="3">
         <v>103869164</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="3">
         <v>2011</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="3">
         <v>1</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="3">
         <v>1</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="H53" s="3">
-        <v>1</v>
       </c>
       <c r="I53">
         <v>1088163</v>
@@ -4168,34 +4241,34 @@
       <c r="W53" s="3">
         <v>1</v>
       </c>
-      <c r="AA53" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="Z53" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
         <v>1016330020</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="3">
         <v>1088165</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="3">
         <v>103523821</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="3">
         <v>2010</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="3">
         <v>37</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="3">
         <v>37</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="H54" s="3">
-        <v>1</v>
       </c>
       <c r="I54">
         <v>1088165</v>
@@ -4242,33 +4315,36 @@
       <c r="Y54" s="3">
         <v>4</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="Z54" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="3">
         <v>10</v>
       </c>
-      <c r="AB54" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="AC54" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
         <v>1007167505</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="3">
         <v>1088185</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="3">
         <v>104736680</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="3">
         <v>2010</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="3">
         <v>22</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="3">
         <v>22</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I55">
@@ -4298,30 +4374,33 @@
       <c r="W55" s="3">
         <v>22</v>
       </c>
-      <c r="AB55" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="Z55" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
         <v>1005440065</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="3">
         <v>1088207</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="3">
         <v>104743495</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="3">
         <v>2010</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="3">
         <v>132</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="3">
         <v>132</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I56">
@@ -4351,30 +4430,33 @@
       <c r="W56" s="3">
         <v>133</v>
       </c>
-      <c r="AB56" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="Z56" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
         <v>1000537502</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="3">
         <v>1088442</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="3">
         <v>104215010</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="3">
         <v>2010</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="3">
         <v>223</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="3">
         <v>440</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I57">
@@ -4404,27 +4486,30 @@
       <c r="W57" s="3">
         <v>440</v>
       </c>
-    </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
+      <c r="Z57" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
         <v>1018337505</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="3">
         <v>1088481</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="3">
         <v>104714677</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="3">
         <v>2010</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="3">
         <v>56</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58" s="3">
         <v>56</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="G58" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I58" s="2">
@@ -4466,35 +4551,38 @@
         <v>28</v>
       </c>
       <c r="Y58" s="3">
-        <v>7</v>
-      </c>
-      <c r="AA58" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z58" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="3">
         <v>28</v>
       </c>
-      <c r="AB58" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="AC58" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
         <v>1003450058</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="3">
         <v>1088482</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="3">
         <v>104408071</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="3">
         <v>2010</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="3">
         <v>248</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="3">
         <v>248</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I59">
@@ -4524,30 +4612,33 @@
       <c r="W59" s="3">
         <v>263</v>
       </c>
-      <c r="AB59" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="Z59" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
         <v>1001070028</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="3">
         <v>1088490</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="3">
         <v>104340713</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="3">
         <v>2012</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="3">
         <v>40</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="3">
         <v>40</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I60">
@@ -4577,27 +4668,30 @@
       <c r="W60" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="Z60" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
         <v>1005777504</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="3">
         <v>1088513</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="3">
         <v>104672481</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="3">
         <v>2010</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="3">
         <v>30</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="3">
         <v>30</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I61">
@@ -4627,27 +4721,30 @@
       <c r="W61" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="Z61" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
         <v>1011697502</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="3">
         <v>1088577</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="3">
         <v>104550022</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="3">
         <v>2010</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="3">
         <v>33</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="3">
         <v>33</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I62">
@@ -4677,34 +4774,34 @@
       <c r="W62" s="3">
         <v>33</v>
       </c>
-      <c r="AB62" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="Z62" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
         <v>1017857502</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="3">
         <v>1088601</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="3">
         <v>104661037</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="3">
         <v>2011</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="3">
         <v>64</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="3">
         <v>64</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="H63" s="3">
-        <v>1</v>
       </c>
       <c r="I63">
         <v>1088601</v>
@@ -4733,27 +4830,30 @@
       <c r="W63" s="3">
         <v>64</v>
       </c>
-    </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="Z63" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
         <v>1008810060</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="3">
         <v>1088613</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="3">
         <v>104090715</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="3">
         <v>2011</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="3">
         <v>8</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="3">
         <v>8</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I64">
@@ -4783,27 +4883,30 @@
       <c r="W64" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="Z64" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
         <v>1018337506</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="3">
         <v>1088631</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="3">
         <v>104711689</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="3">
         <v>2010</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="3">
         <v>132</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="3">
         <v>132</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I65">
@@ -4833,30 +4936,33 @@
       <c r="W65" s="3">
         <v>132</v>
       </c>
-      <c r="AB65" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="Z65" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
         <v>1006957507</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="3">
         <v>1088639</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="3">
         <v>104589562</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="3">
         <v>2011</v>
       </c>
-      <c r="E66">
-        <v>11</v>
-      </c>
-      <c r="F66">
-        <v>11</v>
-      </c>
-      <c r="G66" t="s">
+      <c r="E66" s="3">
+        <v>11</v>
+      </c>
+      <c r="F66" s="3">
+        <v>11</v>
+      </c>
+      <c r="G66" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I66">
@@ -4886,30 +4992,33 @@
       <c r="W66" s="3">
         <v>11</v>
       </c>
-      <c r="AB66" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="Z66" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC66" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
         <v>1002197505</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="3">
         <v>1088677</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="3">
         <v>104014781</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="3">
         <v>2011</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="3">
         <v>7</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="3">
         <v>7</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I67">
@@ -4957,33 +5066,36 @@
       <c r="Y67" s="3">
         <v>4</v>
       </c>
-      <c r="AA67" s="3">
+      <c r="Z67" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB67" s="3">
         <v>7</v>
       </c>
-      <c r="AB67" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="AC67" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
         <v>1002767503</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="3">
         <v>1088682</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="3">
         <v>104444996</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="3">
         <v>2010</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="3">
         <v>28</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="3">
         <v>28</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I68">
@@ -5031,37 +5143,37 @@
       <c r="Y68" s="3">
         <v>2</v>
       </c>
-      <c r="AA68" s="3">
+      <c r="Z68" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="3">
         <v>12</v>
       </c>
-      <c r="AB68" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="AC68" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
         <v>1019167501</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="3">
         <v>1088684</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="3">
         <v>104627290</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="3">
         <v>2011</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="3">
         <v>8</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="3">
         <v>8</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="H69" s="3">
-        <v>1</v>
       </c>
       <c r="I69">
         <v>1088684</v>
@@ -5090,27 +5202,30 @@
       <c r="W69" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="Z69" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
         <v>1008330040</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="3">
         <v>1088687</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="3">
         <v>104224778</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="3">
         <v>2017</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="3">
         <v>1</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="3">
         <v>1</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I70">
@@ -5140,27 +5255,30 @@
       <c r="W70" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="Z70" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
         <v>1005867502</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="3">
         <v>1088707</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="3">
         <v>103490624</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="3">
         <v>2010</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="3">
         <v>5</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="3">
         <v>5</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I71">
@@ -5190,27 +5308,30 @@
       <c r="W71" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
+      <c r="Z71" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
         <v>1003537503</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="3">
         <v>1088708</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72" s="3">
         <v>104403511</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72" s="3">
         <v>2011</v>
       </c>
-      <c r="E72" s="1">
+      <c r="E72" s="3">
         <v>24</v>
       </c>
-      <c r="F72" s="1">
+      <c r="F72" s="3">
         <v>24</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="G72" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I72" s="1"/>
@@ -5219,26 +5340,26 @@
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A73">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
         <v>1008947504</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="3">
         <v>1088713</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="3">
         <v>104718405</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="3">
         <v>2014</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="3">
         <v>125</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="3">
         <v>125</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G73" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I73">
@@ -5268,27 +5389,30 @@
       <c r="W73" s="3">
         <v>125</v>
       </c>
-    </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="Z73" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
         <v>1015157504</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="3">
         <v>1088727</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="3">
         <v>104086230</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="3">
         <v>2010</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="3">
         <v>6</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="3">
         <v>6</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G74" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I74">
@@ -5318,31 +5442,31 @@
       <c r="W74" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
+      <c r="Z74" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
         <v>1018487503</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75" s="3">
         <v>1088733</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75" s="3">
         <v>104585325</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75" s="3">
         <v>2010</v>
       </c>
-      <c r="E75" s="1">
+      <c r="E75" s="3">
         <v>73</v>
       </c>
-      <c r="F75" s="1">
+      <c r="F75" s="3">
         <v>73</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="G75" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="H75" s="1">
-        <v>1</v>
       </c>
       <c r="I75" s="1">
         <v>1088733</v>
@@ -5383,39 +5507,39 @@
         <v>47</v>
       </c>
       <c r="Y75" s="3">
+        <v>67</v>
+      </c>
+      <c r="Z75" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="3">
+        <v>47</v>
+      </c>
+      <c r="AC75" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>1021807504</v>
+      </c>
+      <c r="B76" s="3">
+        <v>1088734</v>
+      </c>
+      <c r="C76" s="3">
+        <v>104566578</v>
+      </c>
+      <c r="D76" s="3">
+        <v>2010</v>
+      </c>
+      <c r="E76" s="3">
+        <v>40</v>
+      </c>
+      <c r="F76" s="3">
+        <v>40</v>
+      </c>
+      <c r="G76" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="AA75" s="3">
-        <v>47</v>
-      </c>
-      <c r="AB75" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>1021807504</v>
-      </c>
-      <c r="B76">
-        <v>1088734</v>
-      </c>
-      <c r="C76">
-        <v>104566578</v>
-      </c>
-      <c r="D76">
-        <v>2010</v>
-      </c>
-      <c r="E76">
-        <v>40</v>
-      </c>
-      <c r="F76">
-        <v>40</v>
-      </c>
-      <c r="G76" t="s">
-        <v>12</v>
-      </c>
-      <c r="H76" s="3">
-        <v>1</v>
       </c>
       <c r="I76">
         <v>1088734</v>
@@ -5444,27 +5568,30 @@
       <c r="W76" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="Z76" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
         <v>1006967502</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="3">
         <v>1088748</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="3">
         <v>104415633</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="3">
         <v>2010</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="3">
         <v>18</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="3">
         <v>18</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G77" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I77">
@@ -5494,31 +5621,31 @@
       <c r="W77" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="Z77" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
         <v>1017720009</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="3">
         <v>1088783</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="3">
         <v>104308740</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="3">
         <v>2010</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="3">
         <v>50</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="3">
         <v>50</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G78" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="H78" s="3">
-        <v>1</v>
       </c>
       <c r="I78">
         <v>1088783</v>
@@ -5547,31 +5674,31 @@
       <c r="W78" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="Z78" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
         <v>1019557502</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="3">
         <v>1088814</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="3">
         <v>104627254</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="3">
         <v>2011</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="3">
         <v>22</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="3">
         <v>22</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G79" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="H79" s="3">
-        <v>1</v>
       </c>
       <c r="I79">
         <v>1088814</v>
@@ -5600,27 +5727,30 @@
       <c r="W79" s="3">
         <v>22</v>
       </c>
-    </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="Z79" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
         <v>1005957505</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="3">
         <v>1088839</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="3">
         <v>104439546</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="3">
         <v>2011</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="3">
         <v>9</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="3">
         <v>9</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G80" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I80">
@@ -5650,27 +5780,30 @@
       <c r="W80" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="Z80" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
         <v>1005077502</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="3">
         <v>1088895</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="3">
         <v>104400300</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="3">
         <v>2013</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="3">
         <v>24</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="3">
         <v>24</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G81" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I81">
@@ -5700,30 +5833,33 @@
       <c r="W81" s="3">
         <v>24</v>
       </c>
-      <c r="AB81" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
+      <c r="Z81" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
         <v>1001907508</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82" s="3">
         <v>1088918</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82" s="3">
         <v>104631837</v>
       </c>
-      <c r="D82" s="1">
+      <c r="D82" s="3">
         <v>2012</v>
       </c>
-      <c r="E82" s="1">
+      <c r="E82" s="3">
         <v>6</v>
       </c>
-      <c r="F82" s="1">
+      <c r="F82" s="3">
         <v>6</v>
       </c>
-      <c r="G82" s="1" t="s">
+      <c r="G82" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I82" s="1"/>
@@ -5732,26 +5868,26 @@
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A83">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
         <v>1002837503</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="3">
         <v>1089025</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="3">
         <v>104441695</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="3">
         <v>2012</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="3">
         <v>23</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="3">
         <v>23</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G83" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I83">
@@ -5781,31 +5917,31 @@
       <c r="W83" s="3">
         <v>23</v>
       </c>
-    </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="Z83" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
         <v>1018070015</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="3">
         <v>1089085</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="3">
         <v>104619646</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="3">
         <v>2010</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="3">
         <v>41</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="3">
         <v>41</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G84" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="H84" s="3">
-        <v>1</v>
       </c>
       <c r="I84">
         <v>1089085</v>
@@ -5834,31 +5970,31 @@
       <c r="W84" s="3">
         <v>41</v>
       </c>
-    </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="Z84" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
         <v>1020067501</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="3">
         <v>1089124</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="3">
         <v>104320110</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="3">
         <v>2010</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="3">
         <v>15</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="3">
         <v>15</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G85" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="H85" s="3">
-        <v>1</v>
       </c>
       <c r="I85">
         <v>1089124</v>
@@ -5887,31 +6023,31 @@
       <c r="W85" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="Z85" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
         <v>1016317501</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="3">
         <v>1089312</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="3">
         <v>104644832</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="3">
         <v>2013</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="3">
         <v>42</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="3">
         <v>42</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G86" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="H86" s="3">
-        <v>1</v>
       </c>
       <c r="I86">
         <v>1089312</v>
@@ -5940,31 +6076,31 @@
       <c r="W86" s="3">
         <v>42</v>
       </c>
-    </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="Z86" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
         <v>1020627501</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="3">
         <v>1089332</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="3">
         <v>104531231</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="3">
         <v>2013</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="3">
         <v>12</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="3">
         <v>12</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G87" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="H87" s="3">
-        <v>1</v>
       </c>
       <c r="I87">
         <v>1089332</v>
@@ -5993,31 +6129,31 @@
       <c r="W87" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="Z87" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
         <v>1017160051</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="3">
         <v>1089401</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="3">
         <v>103322815</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="3">
         <v>2013</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="3">
         <v>39</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="3">
         <v>39</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G88" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="H88" s="3">
-        <v>1</v>
       </c>
       <c r="I88">
         <v>1089401</v>
@@ -6046,27 +6182,30 @@
       <c r="W88" s="3">
         <v>39</v>
       </c>
-    </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A89">
+      <c r="Z88" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
         <v>1004150010</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="3">
         <v>1089458</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="3">
         <v>104369844</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="3">
         <v>2016</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="3">
         <v>1</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="3">
         <v>1</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G89" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I89">
@@ -6096,31 +6235,31 @@
       <c r="W89" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
+      <c r="Z89" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
         <v>1017090015</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B90" s="3">
         <v>1089523</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C90" s="3">
         <v>104160916</v>
       </c>
-      <c r="D90" s="1">
+      <c r="D90" s="3">
         <v>2019</v>
       </c>
-      <c r="E90" s="1">
+      <c r="E90" s="3">
         <v>13</v>
       </c>
-      <c r="F90" s="1">
+      <c r="F90" s="3">
         <v>13</v>
       </c>
-      <c r="G90" s="1" t="s">
+      <c r="G90" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="H90" s="1">
-        <v>1</v>
       </c>
       <c r="I90" s="1">
         <v>1089523</v>
@@ -6152,52 +6291,52 @@
       <c r="S90" s="3">
         <v>7</v>
       </c>
-      <c r="U90" s="8">
+      <c r="U90" s="3">
         <v>1089523</v>
       </c>
-      <c r="V90" s="8">
+      <c r="V90" s="3">
         <v>1089523</v>
       </c>
-      <c r="W90" s="8">
+      <c r="W90" s="3">
         <v>13</v>
       </c>
-      <c r="X90" s="8">
+      <c r="X90" s="3">
         <v>4</v>
       </c>
-      <c r="Y90" s="8">
+      <c r="Y90" s="3">
         <v>9</v>
       </c>
-      <c r="AA90" s="3">
+      <c r="Z90" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB90" s="3">
         <v>8</v>
       </c>
-      <c r="AB90" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A91">
+      <c r="AC90" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
         <v>1020457505</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="3">
         <v>1089581</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="3">
         <v>103630215</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="3">
         <v>2016</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="3">
         <v>14</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="3">
         <v>14</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G91" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="H91" s="3">
-        <v>1</v>
       </c>
       <c r="I91">
         <v>1089581</v>
@@ -6226,31 +6365,31 @@
       <c r="W91" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="Z91" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
         <v>1019537503</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="3">
         <v>1089730</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="3">
         <v>104309687</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="3">
         <v>2014</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="3">
         <v>12</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="3">
         <v>12</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G92" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="H92" s="3">
-        <v>1</v>
       </c>
       <c r="I92">
         <v>1089730</v>
@@ -6279,27 +6418,30 @@
       <c r="W92" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
+      <c r="Z92" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
         <v>1013447503</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B93" s="3">
         <v>1089775</v>
       </c>
-      <c r="C93" s="1">
+      <c r="C93" s="3">
         <v>104560235</v>
       </c>
-      <c r="D93" s="1">
+      <c r="D93" s="3">
         <v>2015</v>
       </c>
-      <c r="E93" s="1">
+      <c r="E93" s="3">
         <v>123</v>
       </c>
-      <c r="F93" s="1">
+      <c r="F93" s="3">
         <v>123</v>
       </c>
-      <c r="G93" s="1" t="s">
+      <c r="G93" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I93" s="1">
@@ -6347,37 +6489,37 @@
       <c r="Y93" s="3">
         <v>1</v>
       </c>
-      <c r="AA93" s="3">
+      <c r="Z93" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB93" s="3">
         <v>8</v>
       </c>
-      <c r="AB93" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="AC93" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
         <v>1019270061</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="3">
         <v>1089789</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="3">
         <v>104735324</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="3">
         <v>2014</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="3">
         <v>41</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="3">
         <v>41</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G94" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="H94" s="3">
-        <v>1</v>
       </c>
       <c r="I94">
         <v>1089789</v>
@@ -6406,30 +6548,33 @@
       <c r="W94" s="3">
         <v>41</v>
       </c>
-      <c r="AB94" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="Z94" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
         <v>1000900017</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="3">
         <v>1089790</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="3">
         <v>104735912</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="3">
         <v>2013</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="3">
         <v>168</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="3">
         <v>168</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G95" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I95">
@@ -6459,30 +6604,33 @@
       <c r="W95" s="3">
         <v>168</v>
       </c>
-      <c r="AB95" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="Z95" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC95" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
         <v>1005947510</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="3">
         <v>1089837</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="3">
         <v>104502566</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="3">
         <v>2016</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="3">
         <v>31</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="3">
         <v>31</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G96" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I96">
@@ -6512,30 +6660,33 @@
       <c r="W96" s="3">
         <v>31</v>
       </c>
-      <c r="AB96" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="Z96" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
         <v>1003787501</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="3">
         <v>1089859</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="3">
         <v>104315117</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="3">
         <v>2016</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="3">
         <v>30</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="3">
         <v>30</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G97" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I97">
@@ -6565,30 +6716,33 @@
       <c r="W97" s="3">
         <v>30</v>
       </c>
-      <c r="AB97" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
+      <c r="Z97" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="98" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
         <v>1004067503</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B98" s="3">
         <v>1089863</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C98" s="3">
         <v>104325650</v>
       </c>
-      <c r="D98" s="1">
+      <c r="D98" s="3">
         <v>2016</v>
       </c>
-      <c r="E98" s="1">
-        <v>11</v>
-      </c>
-      <c r="F98" s="1">
-        <v>11</v>
-      </c>
-      <c r="G98" s="1" t="s">
+      <c r="E98" s="3">
+        <v>11</v>
+      </c>
+      <c r="F98" s="3">
+        <v>11</v>
+      </c>
+      <c r="G98" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I98" s="1">
@@ -6620,27 +6774,30 @@
       <c r="W98" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
+      <c r="Z98" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
         <v>1007367501</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B99" s="3">
         <v>1089889</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C99" s="3">
         <v>104576246</v>
       </c>
-      <c r="D99" s="1">
+      <c r="D99" s="3">
         <v>2014</v>
       </c>
-      <c r="E99" s="1">
+      <c r="E99" s="3">
         <v>108</v>
       </c>
-      <c r="F99" s="1">
+      <c r="F99" s="3">
         <v>194</v>
       </c>
-      <c r="G99" s="1" t="s">
+      <c r="G99" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I99" s="1">
@@ -6673,48 +6830,51 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-      <c r="U99" s="8">
+      <c r="U99" s="3">
         <v>1089889</v>
       </c>
-      <c r="V99" s="8">
+      <c r="V99" s="3">
         <v>1089889</v>
       </c>
-      <c r="W99" s="8">
+      <c r="W99" s="3">
         <v>194</v>
       </c>
-      <c r="X99" s="8">
-        <v>64</v>
-      </c>
-      <c r="Y99" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA99" s="3" t="s">
-        <v>44</v>
+      <c r="X99" s="3">
+        <v>32</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>2</v>
+      </c>
+      <c r="Z99" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="AB99" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A100">
+        <v>42</v>
+      </c>
+      <c r="AC99" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
         <v>1008610004</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="3">
         <v>1089951</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="3">
         <v>104632319</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="3">
         <v>2013</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="3">
         <v>165</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="3">
         <v>165</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G100" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I100">
@@ -6744,27 +6904,30 @@
       <c r="W100" s="3">
         <v>165</v>
       </c>
-    </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A101">
+      <c r="Z100" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
         <v>1005267502</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="3">
         <v>1089989</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="3">
         <v>104676931</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="3">
         <v>2016</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="3">
         <v>4</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="3">
         <v>4</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G101" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I101">
@@ -6794,27 +6957,30 @@
       <c r="W101" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A102">
+      <c r="Z101" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
         <v>1006957510</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="3">
         <v>1090389</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="3">
         <v>103715393</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="3">
         <v>2016</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="3">
         <v>6</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="3">
         <v>6</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G102" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I102">
@@ -6843,15 +7009,18 @@
       </c>
       <c r="W102" s="3">
         <v>6</v>
+      </c>
+      <c r="Z102" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="I1:M1"/>
-    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="O1:S1"/>
-    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="U1:Z1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/COs/output/results_test.xlsx
+++ b/COs/output/results_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M_Free\Desktop\td-parking\COs\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF510172-32FA-4228-8167-F6E20631C625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85950C0-42E6-43C6-BD49-1FF086540BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="52">
   <si>
     <t>filename</t>
   </si>
@@ -154,9 +154,6 @@
     <t xml:space="preserve">bicycle storage </t>
   </si>
   <si>
-    <t>accessory bike storage -16 bicycles</t>
-  </si>
-  <si>
     <t>bicycle room</t>
   </si>
   <si>
@@ -188,6 +185,12 @@
   </si>
   <si>
     <t>car garage, car garage with 4 parking spaces, car garage with 4 parking spaces</t>
+  </si>
+  <si>
+    <t>garage for three (3) cars, accessory bike storage -16 bicycles</t>
+  </si>
+  <si>
+    <t>OUTPUT: SPACES TEST 4</t>
   </si>
 </sst>
 </file>
@@ -330,7 +333,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -534,6 +537,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -695,7 +704,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -705,12 +714,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1066,11 +1079,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC102"/>
+  <dimension ref="A1:AJ102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC26" sqref="AC26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,12 +1108,12 @@
     <col min="18" max="18" width="6.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7.5703125" style="3" customWidth="1"/>
-    <col min="21" max="28" width="9.140625" style="3"/>
-    <col min="29" max="29" width="130" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="3"/>
+    <col min="21" max="35" width="9.140625" style="3"/>
+    <col min="36" max="36" width="130" style="3" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
@@ -1110,16 +1123,16 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
-      <c r="I1" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
+      <c r="I1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
       <c r="N1" s="4"/>
       <c r="O1" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
@@ -1127,19 +1140,28 @@
       <c r="S1" s="8"/>
       <c r="T1" s="4"/>
       <c r="U1" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V1" s="8"/>
       <c r="W1" s="8"/>
       <c r="X1" s="8"/>
       <c r="Y1" s="8"/>
       <c r="Z1" s="8"/>
+      <c r="AA1" s="7"/>
       <c r="AB1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AI1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AC1" s="8"/>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AJ1" s="8"/>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1207,16 +1229,34 @@
         <v>4</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AB2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1006370051</v>
       </c>
@@ -1269,10 +1309,22 @@
         <v>0</v>
       </c>
       <c r="AB3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+        <v>1012002</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>1012002</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>6</v>
+      </c>
+      <c r="AG3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1007600068</v>
       </c>
@@ -1343,13 +1395,31 @@
         <v>1</v>
       </c>
       <c r="AB4" s="3">
+        <v>1013606</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>1013606</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>207</v>
+      </c>
+      <c r="AE4" s="3">
         <v>83</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AF4" s="3">
+        <v>12</v>
+      </c>
+      <c r="AG4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>83</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1008057502</v>
       </c>
@@ -1412,13 +1482,31 @@
         <v>1</v>
       </c>
       <c r="AB5" s="3">
+        <v>1015146</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>1015146</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>302</v>
+      </c>
+      <c r="AE5" s="3">
         <v>529</v>
       </c>
-      <c r="AC5" s="3" t="s">
+      <c r="AF5" s="3">
+        <v>56</v>
+      </c>
+      <c r="AG5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="3">
+        <v>529</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1012607502</v>
       </c>
@@ -1472,14 +1560,26 @@
       <c r="Z6" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="AB6" s="3" t="s">
+      <c r="AB6" s="3">
+        <v>1034238</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>1034238</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>53</v>
+      </c>
+      <c r="AG6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AC6" s="3" t="s">
+      <c r="AJ6" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1013227502</v>
       </c>
@@ -1532,10 +1632,22 @@
         <v>0</v>
       </c>
       <c r="AB7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+        <v>1038040</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>1038040</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>76</v>
+      </c>
+      <c r="AG7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1013697502</v>
       </c>
@@ -1588,10 +1700,22 @@
         <v>0</v>
       </c>
       <c r="AB8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+        <v>1040540</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>1040540</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>6</v>
+      </c>
+      <c r="AG8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1015297501</v>
       </c>
@@ -1644,10 +1768,22 @@
         <v>0</v>
       </c>
       <c r="AB9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+        <v>1048713</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>1048713</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>3</v>
+      </c>
+      <c r="AG9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1016077503</v>
       </c>
@@ -1707,14 +1843,32 @@
       <c r="Z10" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AB10" s="10">
+        <v>1051489</v>
+      </c>
+      <c r="AC10" s="10">
+        <v>1051489</v>
+      </c>
+      <c r="AD10" s="10">
+        <v>229</v>
+      </c>
+      <c r="AE10" s="10">
+        <v>139</v>
+      </c>
+      <c r="AF10" s="10">
+        <v>17</v>
+      </c>
+      <c r="AG10" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="3">
         <v>188</v>
       </c>
-      <c r="AC10" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AJ10" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>1016447502</v>
       </c>
@@ -1767,10 +1921,22 @@
         <v>0</v>
       </c>
       <c r="AB11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+        <v>1052311</v>
+      </c>
+      <c r="AC11" s="3">
+        <v>1052311</v>
+      </c>
+      <c r="AD11" s="3">
+        <v>19</v>
+      </c>
+      <c r="AG11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>1016600024</v>
       </c>
@@ -1823,10 +1989,22 @@
         <v>0</v>
       </c>
       <c r="AB12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+        <v>1052468</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>1052468</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>16</v>
+      </c>
+      <c r="AG12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>1016837502</v>
       </c>
@@ -1879,10 +2057,22 @@
         <v>0</v>
       </c>
       <c r="AB13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+        <v>1052875</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>1052875</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>21</v>
+      </c>
+      <c r="AG13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>1017860045</v>
       </c>
@@ -1953,13 +2143,31 @@
         <v>0</v>
       </c>
       <c r="AB14" s="3">
+        <v>1054620</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>1054620</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>4</v>
+      </c>
+      <c r="AE14" s="3">
         <v>1</v>
       </c>
-      <c r="AC14" s="3" t="s">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ14" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>1019130038</v>
       </c>
@@ -2012,10 +2220,22 @@
         <v>0</v>
       </c>
       <c r="AB15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+        <v>1057953</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>1057953</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>13</v>
+      </c>
+      <c r="AG15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1019160154</v>
       </c>
@@ -2068,10 +2288,22 @@
         <v>0</v>
       </c>
       <c r="AB16" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+        <v>1058136</v>
+      </c>
+      <c r="AC16" s="3">
+        <v>1058136</v>
+      </c>
+      <c r="AD16" s="3">
+        <v>2</v>
+      </c>
+      <c r="AG16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>1019530030</v>
       </c>
@@ -2124,10 +2356,22 @@
         <v>0</v>
       </c>
       <c r="AB17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+        <v>1059340</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>1059340</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>8</v>
+      </c>
+      <c r="AG17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>1020117501</v>
       </c>
@@ -2180,10 +2424,22 @@
         <v>0</v>
       </c>
       <c r="AB18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+        <v>1060104</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>1060104</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>10</v>
+      </c>
+      <c r="AG18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>1020650022</v>
       </c>
@@ -2236,10 +2492,22 @@
         <v>0</v>
       </c>
       <c r="AB19" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+        <v>1061578</v>
+      </c>
+      <c r="AC19" s="3">
+        <v>1061578</v>
+      </c>
+      <c r="AD19" s="3">
+        <v>16</v>
+      </c>
+      <c r="AG19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>1021550026</v>
       </c>
@@ -2293,14 +2561,26 @@
       <c r="Z20" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="AB20" s="3" t="s">
+      <c r="AB20" s="3">
+        <v>1063701</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>1063701</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>36</v>
+      </c>
+      <c r="AG20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AC20" s="3" t="s">
+      <c r="AJ20" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>1016617503</v>
       </c>
@@ -2353,10 +2633,22 @@
         <v>0</v>
       </c>
       <c r="AB21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+        <v>1076370</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>1076370</v>
+      </c>
+      <c r="AD21" s="3">
+        <v>12</v>
+      </c>
+      <c r="AG21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>1015447502</v>
       </c>
@@ -2409,10 +2701,22 @@
         <v>0</v>
       </c>
       <c r="AB22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+        <v>1077060</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>1077060</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>7</v>
+      </c>
+      <c r="AG22" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>1016817503</v>
       </c>
@@ -2465,10 +2769,22 @@
         <v>0</v>
       </c>
       <c r="AB23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+        <v>1081362</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>1081362</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>35</v>
+      </c>
+      <c r="AG23" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>1005090019</v>
       </c>
@@ -2521,10 +2837,22 @@
         <v>0</v>
       </c>
       <c r="AB24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+        <v>1082676</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>1082676</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>9</v>
+      </c>
+      <c r="AG24" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>1002847504</v>
       </c>
@@ -2577,10 +2905,22 @@
         <v>0</v>
       </c>
       <c r="AB25" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+        <v>1083411</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>1083411</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>20</v>
+      </c>
+      <c r="AG25" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>1017360001</v>
       </c>
@@ -2603,7 +2943,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>1001060002</v>
       </c>
@@ -2670,13 +3010,31 @@
         <v>0</v>
       </c>
       <c r="AB27" s="3">
+        <v>1086078</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>1086078</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>3</v>
+      </c>
+      <c r="AE27" s="3">
         <v>1</v>
       </c>
-      <c r="AC27" s="3" t="s">
+      <c r="AF27" s="3">
+        <v>22</v>
+      </c>
+      <c r="AG27" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ27" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>1016390027</v>
       </c>
@@ -2747,13 +3105,31 @@
         <v>1</v>
       </c>
       <c r="AB28" s="3">
+        <v>1087368</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>1087368</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>30</v>
+      </c>
+      <c r="AE28" s="3">
         <v>4</v>
       </c>
-      <c r="AC28" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AF28" s="3">
+        <v>10</v>
+      </c>
+      <c r="AG28" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI28" s="3">
+        <v>4</v>
+      </c>
+      <c r="AJ28" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>1001007502</v>
       </c>
@@ -2816,13 +3192,31 @@
         <v>0</v>
       </c>
       <c r="AB29" s="3">
+        <v>1087485</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>1087485</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>898</v>
+      </c>
+      <c r="AE29" s="3">
         <v>175</v>
       </c>
-      <c r="AC29" s="3" t="s">
+      <c r="AF29" s="3">
+        <v>37</v>
+      </c>
+      <c r="AG29" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="3">
+        <v>175</v>
+      </c>
+      <c r="AJ29" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>1004207501</v>
       </c>
@@ -2893,10 +3287,28 @@
         <v>0</v>
       </c>
       <c r="AB30" s="3">
+        <v>1087549</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>1087549</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>54</v>
+      </c>
+      <c r="AE30" s="3">
         <v>34</v>
       </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AF30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG30" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>1004380018</v>
       </c>
@@ -2949,10 +3361,22 @@
         <v>0</v>
       </c>
       <c r="AB31" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+        <v>1087563</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>1087563</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>11</v>
+      </c>
+      <c r="AG31" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>1006940039</v>
       </c>
@@ -3005,13 +3429,25 @@
         <v>0</v>
       </c>
       <c r="AB32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="3" t="s">
+        <v>1087591</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>1087591</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>111</v>
+      </c>
+      <c r="AG32" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>1015540023</v>
       </c>
@@ -3064,10 +3500,22 @@
         <v>0</v>
       </c>
       <c r="AB33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+        <v>1087665</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>1087665</v>
+      </c>
+      <c r="AD33" s="3">
+        <v>105</v>
+      </c>
+      <c r="AG33" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>1019537502</v>
       </c>
@@ -3120,10 +3568,22 @@
         <v>0</v>
       </c>
       <c r="AB34" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+        <v>1087740</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>1087740</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>11</v>
+      </c>
+      <c r="AG34" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>1019320033</v>
       </c>
@@ -3194,13 +3654,31 @@
         <v>0</v>
       </c>
       <c r="AB35" s="3">
+        <v>1087804</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>1087804</v>
+      </c>
+      <c r="AD35" s="3">
+        <v>46</v>
+      </c>
+      <c r="AE35" s="3">
         <v>15</v>
       </c>
-      <c r="AC35" s="3" t="s">
+      <c r="AF35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="3">
+        <v>15</v>
+      </c>
+      <c r="AJ35" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>1010637502</v>
       </c>
@@ -3271,13 +3749,31 @@
         <v>0</v>
       </c>
       <c r="AB36" s="3">
+        <v>1087823</v>
+      </c>
+      <c r="AC36" s="3">
+        <v>1087823</v>
+      </c>
+      <c r="AD36" s="3">
+        <v>83</v>
+      </c>
+      <c r="AE36" s="3">
         <v>30</v>
       </c>
-      <c r="AC36" s="3" t="s">
+      <c r="AF36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="3">
+        <v>30</v>
+      </c>
+      <c r="AJ36" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>1020077502</v>
       </c>
@@ -3330,10 +3826,22 @@
         <v>0</v>
       </c>
       <c r="AB37" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+        <v>1087838</v>
+      </c>
+      <c r="AC37" s="3">
+        <v>1087838</v>
+      </c>
+      <c r="AD37" s="3">
+        <v>17</v>
+      </c>
+      <c r="AG37" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>1009397501</v>
       </c>
@@ -3386,13 +3894,25 @@
         <v>0</v>
       </c>
       <c r="AB38" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="3" t="s">
+        <v>1087841</v>
+      </c>
+      <c r="AC38" s="3">
+        <v>1087841</v>
+      </c>
+      <c r="AD38" s="3">
+        <v>130</v>
+      </c>
+      <c r="AG38" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>1004710015</v>
       </c>
@@ -3445,10 +3965,22 @@
         <v>0</v>
       </c>
       <c r="AB39" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+        <v>1087877</v>
+      </c>
+      <c r="AC39" s="3">
+        <v>1087877</v>
+      </c>
+      <c r="AD39" s="3">
+        <v>5</v>
+      </c>
+      <c r="AG39" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>1003847505</v>
       </c>
@@ -3501,10 +4033,22 @@
         <v>0</v>
       </c>
       <c r="AB40" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+        <v>1087923</v>
+      </c>
+      <c r="AC40" s="3">
+        <v>1087923</v>
+      </c>
+      <c r="AD40" s="3">
+        <v>5</v>
+      </c>
+      <c r="AG40" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>1018307502</v>
       </c>
@@ -3575,13 +4119,31 @@
         <v>0</v>
       </c>
       <c r="AB41" s="3">
+        <v>1087928</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>1087928</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>38</v>
+      </c>
+      <c r="AE41" s="3">
         <v>13</v>
       </c>
-      <c r="AC41" s="3" t="s">
+      <c r="AF41" s="3">
+        <v>10</v>
+      </c>
+      <c r="AG41" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI41" s="3">
+        <v>13</v>
+      </c>
+      <c r="AJ41" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>1001497502</v>
       </c>
@@ -3635,14 +4197,26 @@
       <c r="Z42" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="AB42" s="3" t="s">
+      <c r="AB42" s="3">
+        <v>1087951</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>1087951</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>84</v>
+      </c>
+      <c r="AG42" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI42" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AC42" s="3" t="s">
+      <c r="AJ42" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>1018250043</v>
       </c>
@@ -3695,10 +4269,22 @@
         <v>0</v>
       </c>
       <c r="AB43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+        <v>1087969</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>1087860</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>21</v>
+      </c>
+      <c r="AG43" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>1006417503</v>
       </c>
@@ -3738,10 +4324,22 @@
         <v>0</v>
       </c>
       <c r="AB44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+        <v>1087979</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>1087979</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>12</v>
+      </c>
+      <c r="AG44" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>1007467507</v>
       </c>
@@ -3794,13 +4392,25 @@
         <v>0</v>
       </c>
       <c r="AB45" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="3" t="s">
+        <v>1087987</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>1087987</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>14</v>
+      </c>
+      <c r="AG45" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ45" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>1022380014</v>
       </c>
@@ -3853,10 +4463,22 @@
         <v>0</v>
       </c>
       <c r="AB46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+        <v>1088127</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>1088127</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>22</v>
+      </c>
+      <c r="AG46" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>1019280005</v>
       </c>
@@ -3909,10 +4531,22 @@
         <v>0</v>
       </c>
       <c r="AB47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+        <v>1088142</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>1088142</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>6</v>
+      </c>
+      <c r="AG47" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>1018487504</v>
       </c>
@@ -3965,10 +4599,22 @@
         <v>0</v>
       </c>
       <c r="AB48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+        <v>1088149</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>1088149</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>4</v>
+      </c>
+      <c r="AG48" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>1018337507</v>
       </c>
@@ -4021,10 +4667,22 @@
         <v>0</v>
       </c>
       <c r="AB49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+        <v>1088152</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>1088152</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>63</v>
+      </c>
+      <c r="AG49" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>1018287506</v>
       </c>
@@ -4077,10 +4735,22 @@
         <v>0</v>
       </c>
       <c r="AB50" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+        <v>1088153</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>1088153</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>36</v>
+      </c>
+      <c r="AG50" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>1016767505</v>
       </c>
@@ -4133,10 +4803,22 @@
         <v>0</v>
       </c>
       <c r="AB51" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+        <v>1088159</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>1088159</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>8</v>
+      </c>
+      <c r="AG51" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>1016447501</v>
       </c>
@@ -4189,10 +4871,22 @@
         <v>0</v>
       </c>
       <c r="AB52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+        <v>1088162</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>1088162</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>22</v>
+      </c>
+      <c r="AG52" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>1016440041</v>
       </c>
@@ -4245,10 +4939,22 @@
         <v>0</v>
       </c>
       <c r="AB53" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+        <v>1088163</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>1088163</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG53" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>1016330020</v>
       </c>
@@ -4319,13 +5025,31 @@
         <v>0</v>
       </c>
       <c r="AB54" s="3">
+        <v>1088165</v>
+      </c>
+      <c r="AC54" s="3">
+        <v>1088165</v>
+      </c>
+      <c r="AD54" s="3">
+        <v>37</v>
+      </c>
+      <c r="AE54" s="3">
         <v>10</v>
       </c>
-      <c r="AC54" s="3" t="s">
+      <c r="AF54" s="3">
+        <v>12</v>
+      </c>
+      <c r="AG54" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI54" s="3">
+        <v>10</v>
+      </c>
+      <c r="AJ54" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>1007167505</v>
       </c>
@@ -4377,11 +5101,23 @@
       <c r="Z55" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="AC55" s="3" t="s">
+      <c r="AB55" s="3">
+        <v>1088185</v>
+      </c>
+      <c r="AC55" s="3">
+        <v>1088185</v>
+      </c>
+      <c r="AD55" s="3">
+        <v>22</v>
+      </c>
+      <c r="AG55" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ55" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>1005440065</v>
       </c>
@@ -4433,11 +5169,23 @@
       <c r="Z56" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="AC56" s="3" t="s">
+      <c r="AB56" s="3">
+        <v>1088207</v>
+      </c>
+      <c r="AC56" s="3">
+        <v>1088207</v>
+      </c>
+      <c r="AD56" s="3">
+        <v>133</v>
+      </c>
+      <c r="AG56" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ56" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>1000537502</v>
       </c>
@@ -4489,8 +5237,20 @@
       <c r="Z57" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB57" s="3">
+        <v>1088442</v>
+      </c>
+      <c r="AC57" s="3">
+        <v>1088442</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>440</v>
+      </c>
+      <c r="AG57" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>1018337505</v>
       </c>
@@ -4557,13 +5317,31 @@
         <v>0</v>
       </c>
       <c r="AB58" s="3">
+        <v>1088481</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>1812106</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>56</v>
+      </c>
+      <c r="AE58" s="3">
         <v>28</v>
       </c>
-      <c r="AC58" s="3" t="s">
+      <c r="AF58" s="3">
+        <v>37</v>
+      </c>
+      <c r="AG58" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI58" s="3">
+        <v>28</v>
+      </c>
+      <c r="AJ58" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>1003450058</v>
       </c>
@@ -4615,11 +5393,23 @@
       <c r="Z59" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="AC59" s="3" t="s">
+      <c r="AB59" s="3">
+        <v>1088482</v>
+      </c>
+      <c r="AC59" s="3">
+        <v>1088482</v>
+      </c>
+      <c r="AD59" s="3">
+        <v>263</v>
+      </c>
+      <c r="AG59" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ59" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>1001070028</v>
       </c>
@@ -4671,8 +5461,20 @@
       <c r="Z60" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB60" s="3">
+        <v>1088490</v>
+      </c>
+      <c r="AC60" s="3">
+        <v>1088490</v>
+      </c>
+      <c r="AD60" s="3">
+        <v>40</v>
+      </c>
+      <c r="AG60" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>1005777504</v>
       </c>
@@ -4724,8 +5526,20 @@
       <c r="Z61" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB61" s="3">
+        <v>1088513</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>1009715</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>30</v>
+      </c>
+      <c r="AG61" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>1011697502</v>
       </c>
@@ -4777,11 +5591,23 @@
       <c r="Z62" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="AC62" s="3" t="s">
+      <c r="AB62" s="3">
+        <v>1088577</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>1088577</v>
+      </c>
+      <c r="AD62" s="3">
         <v>33</v>
       </c>
-    </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AG62" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ62" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>1017857502</v>
       </c>
@@ -4833,8 +5659,20 @@
       <c r="Z63" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB63" s="3">
+        <v>1088601</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>1088601</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>64</v>
+      </c>
+      <c r="AG63" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>1008810060</v>
       </c>
@@ -4886,8 +5724,20 @@
       <c r="Z64" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB64" s="3">
+        <v>1088613</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>1088613</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>8</v>
+      </c>
+      <c r="AG64" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>1018337506</v>
       </c>
@@ -4939,11 +5789,23 @@
       <c r="Z65" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="AC65" s="3" t="s">
+      <c r="AB65" s="3">
+        <v>1088631</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>1055286</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>132</v>
+      </c>
+      <c r="AG65" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ65" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>1006957507</v>
       </c>
@@ -4995,11 +5857,23 @@
       <c r="Z66" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="AC66" s="3" t="s">
+      <c r="AB66" s="3">
+        <v>1088639</v>
+      </c>
+      <c r="AC66" s="3">
+        <v>1088639</v>
+      </c>
+      <c r="AD66" s="3">
+        <v>11</v>
+      </c>
+      <c r="AG66" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ66" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>1002197505</v>
       </c>
@@ -5070,13 +5944,31 @@
         <v>0</v>
       </c>
       <c r="AB67" s="3">
+        <v>1088677</v>
+      </c>
+      <c r="AC67" s="3">
+        <v>1088677</v>
+      </c>
+      <c r="AD67" s="3">
         <v>7</v>
       </c>
-      <c r="AC67" s="3" t="s">
+      <c r="AE67" s="3">
+        <v>7</v>
+      </c>
+      <c r="AF67" s="3">
+        <v>12</v>
+      </c>
+      <c r="AG67" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI67" s="3">
+        <v>7</v>
+      </c>
+      <c r="AJ67" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>1002767503</v>
       </c>
@@ -5147,13 +6039,31 @@
         <v>0</v>
       </c>
       <c r="AB68" s="3">
+        <v>1088682</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>1088682</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>28</v>
+      </c>
+      <c r="AE68" s="3">
         <v>12</v>
       </c>
-      <c r="AC68" s="3" t="s">
+      <c r="AF68" s="3">
+        <v>12</v>
+      </c>
+      <c r="AG68" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI68" s="3">
+        <v>12</v>
+      </c>
+      <c r="AJ68" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>1019167501</v>
       </c>
@@ -5205,8 +6115,20 @@
       <c r="Z69" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB69" s="3">
+        <v>1088684</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>1088684</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>8</v>
+      </c>
+      <c r="AG69" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>1008330040</v>
       </c>
@@ -5258,8 +6180,20 @@
       <c r="Z70" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB70" s="3">
+        <v>1088687</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>1088687</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG70" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>1005867502</v>
       </c>
@@ -5311,8 +6245,20 @@
       <c r="Z71" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB71" s="3">
+        <v>1088707</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>1009913</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>5</v>
+      </c>
+      <c r="AG71" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>1003537503</v>
       </c>
@@ -5340,7 +6286,7 @@
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>1008947504</v>
       </c>
@@ -5392,8 +6338,20 @@
       <c r="Z73" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB73" s="3">
+        <v>1088713</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>1088713</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>125</v>
+      </c>
+      <c r="AG73" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>1015157504</v>
       </c>
@@ -5445,8 +6403,20 @@
       <c r="Z74" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB74" s="3">
+        <v>1088727</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>1047970</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>6</v>
+      </c>
+      <c r="AG74" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>1018487503</v>
       </c>
@@ -5513,13 +6483,31 @@
         <v>0</v>
       </c>
       <c r="AB75" s="3">
+        <v>1088733</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>1087812</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>73</v>
+      </c>
+      <c r="AE75" s="3">
         <v>47</v>
       </c>
-      <c r="AC75" s="3" t="s">
+      <c r="AF75" s="3">
+        <v>32</v>
+      </c>
+      <c r="AG75" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI75" s="3">
+        <v>47</v>
+      </c>
+      <c r="AJ75" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>1021807504</v>
       </c>
@@ -5571,8 +6559,20 @@
       <c r="Z76" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB76" s="3">
+        <v>1088734</v>
+      </c>
+      <c r="AC76" s="3">
+        <v>1813280</v>
+      </c>
+      <c r="AD76" s="3">
+        <v>40</v>
+      </c>
+      <c r="AG76" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>1006967502</v>
       </c>
@@ -5624,8 +6624,20 @@
       <c r="Z77" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB77" s="3">
+        <v>1088748</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>1088748</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>18</v>
+      </c>
+      <c r="AG77" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>1017720009</v>
       </c>
@@ -5677,8 +6689,20 @@
       <c r="Z78" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB78" s="3">
+        <v>1088783</v>
+      </c>
+      <c r="AC78" s="3">
+        <v>1088783</v>
+      </c>
+      <c r="AD78" s="3">
+        <v>50</v>
+      </c>
+      <c r="AG78" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>1019557502</v>
       </c>
@@ -5730,8 +6754,20 @@
       <c r="Z79" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB79" s="3">
+        <v>1088814</v>
+      </c>
+      <c r="AC79" s="3">
+        <v>1813287</v>
+      </c>
+      <c r="AD79" s="3">
+        <v>22</v>
+      </c>
+      <c r="AG79" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>1005957505</v>
       </c>
@@ -5783,8 +6819,20 @@
       <c r="Z80" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB80" s="3">
+        <v>1088839</v>
+      </c>
+      <c r="AC80" s="3">
+        <v>1010330</v>
+      </c>
+      <c r="AD80" s="3">
+        <v>9</v>
+      </c>
+      <c r="AG80" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>1005077502</v>
       </c>
@@ -5836,11 +6884,23 @@
       <c r="Z81" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="AC81" s="3" t="s">
+      <c r="AB81" s="3">
+        <v>1088895</v>
+      </c>
+      <c r="AC81" s="3">
+        <v>1088895</v>
+      </c>
+      <c r="AD81" s="3">
+        <v>24</v>
+      </c>
+      <c r="AG81" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ81" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>1001907508</v>
       </c>
@@ -5868,7 +6928,7 @@
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>1002837503</v>
       </c>
@@ -5920,8 +6980,20 @@
       <c r="Z83" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB83" s="3">
+        <v>1089025</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>1089025</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>23</v>
+      </c>
+      <c r="AG83" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>1018070015</v>
       </c>
@@ -5973,8 +7045,20 @@
       <c r="Z84" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB84" s="3">
+        <v>1089085</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>1803181</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>41</v>
+      </c>
+      <c r="AG84" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>1020067501</v>
       </c>
@@ -6026,8 +7110,20 @@
       <c r="Z85" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB85" s="3">
+        <v>1089124</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>1813227</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>15</v>
+      </c>
+      <c r="AG85" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>1016317501</v>
       </c>
@@ -6079,8 +7175,20 @@
       <c r="Z86" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB86" s="3">
+        <v>1089312</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>1089312</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>42</v>
+      </c>
+      <c r="AG86" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>1020627501</v>
       </c>
@@ -6132,8 +7240,20 @@
       <c r="Z87" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB87" s="3">
+        <v>1089332</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>1081822</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>12</v>
+      </c>
+      <c r="AG87" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>1017160051</v>
       </c>
@@ -6185,8 +7305,20 @@
       <c r="Z88" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB88" s="3">
+        <v>1089401</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>1804936</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>39</v>
+      </c>
+      <c r="AG88" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>1004150010</v>
       </c>
@@ -6238,8 +7370,20 @@
       <c r="Z89" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB89" s="3">
+        <v>1089458</v>
+      </c>
+      <c r="AC89" s="3">
+        <v>1089458</v>
+      </c>
+      <c r="AD89" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG89" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>1017090015</v>
       </c>
@@ -6310,13 +7454,31 @@
         <v>1</v>
       </c>
       <c r="AB90" s="3">
+        <v>1089523</v>
+      </c>
+      <c r="AC90" s="3">
+        <v>1089523</v>
+      </c>
+      <c r="AD90" s="3">
+        <v>13</v>
+      </c>
+      <c r="AE90" s="3">
+        <v>4</v>
+      </c>
+      <c r="AF90" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG90" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI90" s="3">
         <v>8</v>
       </c>
-      <c r="AC90" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AJ90" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>1020457505</v>
       </c>
@@ -6368,8 +7530,20 @@
       <c r="Z91" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB91" s="3">
+        <v>1089581</v>
+      </c>
+      <c r="AC91" s="3">
+        <v>1089581</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>14</v>
+      </c>
+      <c r="AG91" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>1019537503</v>
       </c>
@@ -6421,8 +7595,20 @@
       <c r="Z92" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB92" s="3">
+        <v>1089730</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>1059325</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>12</v>
+      </c>
+      <c r="AG92" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>1013447503</v>
       </c>
@@ -6493,13 +7679,31 @@
         <v>1</v>
       </c>
       <c r="AB93" s="3">
+        <v>1089775</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>1039675</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>123</v>
+      </c>
+      <c r="AE93" s="3">
         <v>8</v>
       </c>
-      <c r="AC93" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AF93" s="3">
+        <v>11</v>
+      </c>
+      <c r="AG93" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI93" s="3">
+        <v>8</v>
+      </c>
+      <c r="AJ93" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>1019270061</v>
       </c>
@@ -6551,11 +7755,23 @@
       <c r="Z94" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="AC94" s="3" t="s">
+      <c r="AB94" s="3">
+        <v>1089789</v>
+      </c>
+      <c r="AC94" s="3">
+        <v>1800518</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>41</v>
+      </c>
+      <c r="AG94" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ94" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>1000900017</v>
       </c>
@@ -6607,11 +7823,23 @@
       <c r="Z95" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="AC95" s="3" t="s">
+      <c r="AB95" s="3">
+        <v>1089790</v>
+      </c>
+      <c r="AC95" s="3">
+        <v>1089790</v>
+      </c>
+      <c r="AD95" s="3">
+        <v>168</v>
+      </c>
+      <c r="AG95" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ95" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>1005947510</v>
       </c>
@@ -6663,11 +7891,32 @@
       <c r="Z96" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="AC96" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB96" s="3">
+        <v>1089837</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>1089837</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>31</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>3</v>
+      </c>
+      <c r="AF96" s="3">
+        <v>22</v>
+      </c>
+      <c r="AG96" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI96" s="3">
+        <v>3</v>
+      </c>
+      <c r="AJ96" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>1003787501</v>
       </c>
@@ -6719,11 +7968,23 @@
       <c r="Z97" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="AC97" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB97" s="3">
+        <v>1089859</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>1089859</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>30</v>
+      </c>
+      <c r="AG97" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ97" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="98" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>1004067503</v>
       </c>
@@ -6777,8 +8038,20 @@
       <c r="Z98" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB98" s="3">
+        <v>1089863</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>1089863</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>11</v>
+      </c>
+      <c r="AG98" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>1007367501</v>
       </c>
@@ -6848,14 +8121,32 @@
       <c r="Z99" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="AB99" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC99" s="3" t="s">
+      <c r="AB99" s="3">
+        <v>1089889</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>1089889</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>194</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>64</v>
+      </c>
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG99" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI99" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AJ99" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="100" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>1008610004</v>
       </c>
@@ -6907,8 +8198,20 @@
       <c r="Z100" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB100" s="3">
+        <v>1089951</v>
+      </c>
+      <c r="AC100" s="3">
+        <v>1089951</v>
+      </c>
+      <c r="AD100" s="3">
+        <v>165</v>
+      </c>
+      <c r="AG100" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>1005267502</v>
       </c>
@@ -6960,8 +8263,20 @@
       <c r="Z101" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB101" s="3">
+        <v>1089989</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>1089989</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>4</v>
+      </c>
+      <c r="AG101" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>1006957510</v>
       </c>
@@ -7013,14 +8328,27 @@
       <c r="Z102" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="AB102" s="3">
+        <v>1090389</v>
+      </c>
+      <c r="AC102" s="3">
+        <v>1012344</v>
+      </c>
+      <c r="AD102" s="3">
+        <v>6</v>
+      </c>
+      <c r="AG102" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="I1:M1"/>
-    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="O1:S1"/>
     <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="AB1:AG1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
